--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="267">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -203,12 +203,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>worker_status</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>student_status</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
     <t>non-student</t>
   </si>
   <si>
@@ -474,6 +465,366 @@
   </si>
   <si>
     <t>number_transfers_alight_dest</t>
+  </si>
+  <si>
+    <t>full- or part-time</t>
+  </si>
+  <si>
+    <t>fare_medium</t>
+  </si>
+  <si>
+    <t>PAY_MODE_CODE</t>
+  </si>
+  <si>
+    <t>pass (24-hr)</t>
+  </si>
+  <si>
+    <t>pass (go)</t>
+  </si>
+  <si>
+    <t>ticket (one-way)</t>
+  </si>
+  <si>
+    <t>clipper (e-cash)</t>
+  </si>
+  <si>
+    <t>clipper (8-ride)</t>
+  </si>
+  <si>
+    <t>clipper (monthly)</t>
+  </si>
+  <si>
+    <t>FARE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>fare_category</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>youth</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>HISP_LATINO_SPANISH_CODE</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>HISPANIC/LATINO OR OF SPANISH ORIGIN</t>
+  </si>
+  <si>
+    <t>NOT HISPANIC/LATINO OR OF SPANISH ORIGIN</t>
+  </si>
+  <si>
+    <t>RACE_AMERICANINDIAN_ALASKANNATIVE</t>
+  </si>
+  <si>
+    <t>race_dmy_ind</t>
+  </si>
+  <si>
+    <t>RACE_ASIAN</t>
+  </si>
+  <si>
+    <t>race_dmy_asn</t>
+  </si>
+  <si>
+    <t>RACE_BLACK_AFRICANAM</t>
+  </si>
+  <si>
+    <t>race_dmy_blk</t>
+  </si>
+  <si>
+    <t>RACE_NATHAWAIIAN_PACISLAND</t>
+  </si>
+  <si>
+    <t>race_dmy_hwi</t>
+  </si>
+  <si>
+    <t>RACE_WHITE</t>
+  </si>
+  <si>
+    <t>race_dmy_wht</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY_OTHER</t>
+  </si>
+  <si>
+    <t>race_other_string</t>
+  </si>
+  <si>
+    <t>LANG_OTHER_THAN_ENG</t>
+  </si>
+  <si>
+    <t>ENGLISH ONLY</t>
+  </si>
+  <si>
+    <t>language_at_home_binary</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>OTHER_LANG_CODE</t>
+  </si>
+  <si>
+    <t>language_at_home_detail</t>
+  </si>
+  <si>
+    <t>CHINESE (MANDARIN)</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>SPANISH</t>
+  </si>
+  <si>
+    <t>KOREAN</t>
+  </si>
+  <si>
+    <t>POLISH</t>
+  </si>
+  <si>
+    <t>PORTUGUESE</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>FRENCH CREOLE</t>
+  </si>
+  <si>
+    <t>CHINESE (CANTONESE)</t>
+  </si>
+  <si>
+    <t>TAGALOG</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>AFRIKAANS</t>
+  </si>
+  <si>
+    <t>AMHARIC</t>
+  </si>
+  <si>
+    <t>ARABIC</t>
+  </si>
+  <si>
+    <t>ARMENIAN</t>
+  </si>
+  <si>
+    <t>BENGALI</t>
+  </si>
+  <si>
+    <t>BOSNIAN</t>
+  </si>
+  <si>
+    <t>CUBUANO</t>
+  </si>
+  <si>
+    <t>DUTCH</t>
+  </si>
+  <si>
+    <t>FARSI</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>GREEK</t>
+  </si>
+  <si>
+    <t>HINDI</t>
+  </si>
+  <si>
+    <t>HUNGARIAN</t>
+  </si>
+  <si>
+    <t>INDONESIAN</t>
+  </si>
+  <si>
+    <t>ITALIAN</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
+    <t>LATIN</t>
+  </si>
+  <si>
+    <t>MONGOLIAN</t>
+  </si>
+  <si>
+    <t>NORWEGIAN</t>
+  </si>
+  <si>
+    <t>PERSIAN</t>
+  </si>
+  <si>
+    <t>PIDGIN-NIGERIAN</t>
+  </si>
+  <si>
+    <t>PUNJABI</t>
+  </si>
+  <si>
+    <t>ROMANIAN</t>
+  </si>
+  <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
+    <t>TELUGU</t>
+  </si>
+  <si>
+    <t>THAI</t>
+  </si>
+  <si>
+    <t>TONGAN</t>
+  </si>
+  <si>
+    <t>TURKISH</t>
+  </si>
+  <si>
+    <t>URDU</t>
+  </si>
+  <si>
+    <t>VIETNAMESE</t>
+  </si>
+  <si>
+    <t>HAWAIIAN</t>
+  </si>
+  <si>
+    <t>FILIPINO</t>
+  </si>
+  <si>
+    <t>SIGN LANGUAGE</t>
+  </si>
+  <si>
+    <t>MICRONESIAN</t>
+  </si>
+  <si>
+    <t>SOMOAN</t>
+  </si>
+  <si>
+    <t>SWAHILI</t>
+  </si>
+  <si>
+    <t>HH_INCOME_CODE</t>
+  </si>
+  <si>
+    <t>household_income</t>
+  </si>
+  <si>
+    <t>under $10,000</t>
+  </si>
+  <si>
+    <t>$10,000 to $25,000</t>
+  </si>
+  <si>
+    <t>$25,000 to $35,000</t>
+  </si>
+  <si>
+    <t>$35,000 to $50,000</t>
+  </si>
+  <si>
+    <t>$50,000 to $75,000</t>
+  </si>
+  <si>
+    <t>$75,000 to $100,000</t>
+  </si>
+  <si>
+    <t>$100,000 to $150,000</t>
+  </si>
+  <si>
+    <t>$150,000 or higher</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>RESP_GENDER_CODE</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>ENGLISH_FLUENCY_CODE</t>
+  </si>
+  <si>
+    <t>VERY WELL</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>NOT WELL</t>
+  </si>
+  <si>
+    <t>NOT AT ALL</t>
+  </si>
+  <si>
+    <t>eng_proficient</t>
+  </si>
+  <si>
+    <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>NORTHBOUND</t>
+  </si>
+  <si>
+    <t>SOUTHBOUND</t>
+  </si>
+  <si>
+    <t>work_status</t>
+  </si>
+  <si>
+    <t>TIME_LAST_LEFT_HOME_CODE</t>
+  </si>
+  <si>
+    <t>depart_hour</t>
+  </si>
+  <si>
+    <t>TIME_RETURN_HOME_CODE</t>
+  </si>
+  <si>
+    <t>return_hour</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>date_string</t>
   </si>
 </sst>
 </file>
@@ -891,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -904,7 +1255,7 @@
     <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,13 +1280,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -946,13 +1297,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -963,16 +1314,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,16 +1331,16 @@
         <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,16 +1348,16 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,16 +1365,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,16 +1382,16 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,16 +1399,16 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,16 +1416,16 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,16 +1433,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,16 +1450,16 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,16 +1467,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,16 +1484,16 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,16 +1501,16 @@
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,16 +1518,16 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,13 +1535,13 @@
         <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -1201,13 +1552,13 @@
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -1473,16 +1824,16 @@
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,16 +1841,16 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,16 +1858,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,16 +1875,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,16 +1892,16 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,16 +1909,16 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,16 +1926,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,16 +1943,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,16 +1960,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,16 +1977,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,16 +1994,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,16 +2011,16 @@
         <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>143</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1677,16 +2028,16 @@
         <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>143</v>
+      </c>
+      <c r="C46" s="1">
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,16 +2045,16 @@
         <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1711,16 +2062,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,13 +2082,13 @@
         <v>26</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,13 +2099,13 @@
         <v>26</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,13 +2116,13 @@
         <v>26</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,13 +2133,13 @@
         <v>26</v>
       </c>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1799,13 +2150,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,16 +2164,16 @@
         <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,16 +2181,16 @@
         <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,16 +2198,16 @@
         <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,16 +2215,16 @@
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,16 +2232,16 @@
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,16 +2249,16 @@
         <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="1">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>4</v>
@@ -1932,13 +2283,13 @@
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>4</v>
@@ -1949,16 +2300,16 @@
         <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,16 +2317,16 @@
         <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>4</v>
@@ -2000,13 +2351,13 @@
         <v>40</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>4</v>
@@ -2017,13 +2368,13 @@
         <v>40</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>4</v>
@@ -2034,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>4</v>
@@ -2051,16 +2402,16 @@
         <v>40</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,16 +2419,16 @@
         <v>40</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,16 +2436,16 @@
         <v>40</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,16 +2453,16 @@
         <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,16 +2470,16 @@
         <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,16 +2487,16 @@
         <v>40</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="1">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,16 +2504,16 @@
         <v>40</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>48</v>
+        <v>234</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,16 +2521,16 @@
         <v>40</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>51</v>
+        <v>234</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,16 +2538,16 @@
         <v>40</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C76" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>49</v>
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,16 +2555,16 @@
         <v>40</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C77" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>234</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,16 +2572,16 @@
         <v>40</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C78" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>50</v>
+        <v>234</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,16 +2589,16 @@
         <v>40</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C79" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>51</v>
+        <v>234</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2255,16 +2606,16 @@
         <v>40</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C80" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>52</v>
+        <v>234</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,16 +2623,16 @@
         <v>40</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>52</v>
+        <v>234</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,16 +2640,16 @@
         <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C82" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,16 +2657,16 @@
         <v>40</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,16 +2674,16 @@
         <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="C84" s="1">
+        <v>88</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,16 +2691,16 @@
         <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>37</v>
+        <v>233</v>
+      </c>
+      <c r="C85" s="1">
+        <v>99</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,16 +2725,16 @@
         <v>40</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,16 +2742,16 @@
         <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,16 +2759,16 @@
         <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,16 +2776,16 @@
         <v>40</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,16 +2793,16 @@
         <v>40</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,16 +2810,16 @@
         <v>40</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,16 +2827,16 @@
         <v>40</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,13 +2844,13 @@
         <v>40</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -2510,16 +2861,16 @@
         <v>40</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,16 +2878,16 @@
         <v>40</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,16 +2895,16 @@
         <v>40</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,16 +2912,16 @@
         <v>40</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="1">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,16 +2929,16 @@
         <v>40</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,16 +2946,16 @@
         <v>40</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C100" s="1">
+        <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,16 +2963,16 @@
         <v>40</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,16 +2980,16 @@
         <v>40</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,16 +2997,16 @@
         <v>40</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="1">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,16 +3014,16 @@
         <v>40</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
+      </c>
+      <c r="C104" s="1">
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="1">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,16 +3031,16 @@
         <v>40</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C105" s="1">
+        <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,16 +3048,16 @@
         <v>40</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C106" s="1">
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,16 +3065,16 @@
         <v>40</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C107" s="1">
+        <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,16 +3082,16 @@
         <v>40</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,16 +3099,16 @@
         <v>40</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,16 +3116,16 @@
         <v>40</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="1">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,16 +3133,16 @@
         <v>40</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>126</v>
+        <v>184</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="1">
-        <v>3</v>
+        <v>185</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,16 +3150,16 @@
         <v>40</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C112" s="1">
+        <v>13</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,16 +3167,16 @@
         <v>40</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="3">
-        <v>2</v>
+        <v>184</v>
+      </c>
+      <c r="C113" s="1">
+        <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,16 +3184,16 @@
         <v>40</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="3">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="C114" s="1">
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,16 +3201,16 @@
         <v>40</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>21</v>
+        <v>184</v>
+      </c>
+      <c r="C115" s="1">
+        <v>37</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,16 +3218,16 @@
         <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>20</v>
+        <v>184</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,16 +3235,16 @@
         <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>61</v>
+        <v>184</v>
+      </c>
+      <c r="C117" s="1">
+        <v>56</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,16 +3252,16 @@
         <v>40</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>58</v>
+        <v>184</v>
+      </c>
+      <c r="C118" s="1">
+        <v>63</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,16 +3269,16 @@
         <v>40</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>4</v>
+        <v>184</v>
+      </c>
+      <c r="C119" s="1">
+        <v>84</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,16 +3286,16 @@
         <v>40</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>4</v>
+        <v>184</v>
+      </c>
+      <c r="C120" s="1">
+        <v>102</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,23 +3303,2335 @@
         <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="1">
+        <v>111</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="1">
+        <v>129</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="1">
+        <v>135</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="1">
+        <v>143</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="1">
+        <v>146</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="1">
+        <v>148</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="1">
+        <v>152</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="1">
+        <v>156</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" s="1">
+        <v>159</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="1">
+        <v>208</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131" s="1">
+        <v>220</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="1">
+        <v>279</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="1">
+        <v>297</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="1">
+        <v>321</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="1">
+        <v>325</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="1">
+        <v>351</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" s="1">
+        <v>351</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="1">
+        <v>356</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="1">
+        <v>358</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="1">
+        <v>378</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="1">
+        <v>385</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" s="1">
+        <v>408</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="1">
+        <v>426</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="1">
+        <v>432</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="1">
+        <v>441</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="1">
+        <v>443</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="1">
+        <v>446</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C148" s="1">
+        <v>448</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="1">
+        <v>456</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="1">
+        <v>465</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="1">
+        <v>488</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="1">
+        <v>489</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="1">
+        <v>490</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="1">
+        <v>491</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="1">
+        <v>498</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="1">
+        <v>501</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="1">
+        <v>502</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" s="1">
+        <v>503</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159" s="1">
+        <v>504</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="1">
         <v>6</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E195" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E196" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E197" s="1">
         <v>7</v>
       </c>
-      <c r="E121" s="1" t="s">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" s="1">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E198" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" s="1">
+        <v>6</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E199" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C200" s="1">
+        <v>7</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E200" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" s="1">
+        <v>8</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E201" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C202" s="1">
+        <v>9</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E202" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C203" s="1">
+        <v>10</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E203" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C204" s="1">
+        <v>11</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E204" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C205" s="1">
+        <v>12</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E205" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C206" s="1">
+        <v>13</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E206" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C207" s="1">
+        <v>14</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E207" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="1">
+        <v>15</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E208" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C209" s="1">
+        <v>16</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E209" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C210" s="1">
+        <v>17</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E210" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C211" s="1">
+        <v>18</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E211" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C212" s="1">
+        <v>19</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E212" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C213" s="1">
+        <v>20</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E213" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E215" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C216" s="1">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E216" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C217" s="1">
+        <v>4</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E217" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C218" s="1">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E218" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C219" s="1">
+        <v>6</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E219" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="1">
+        <v>7</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E220" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C221" s="1">
+        <v>8</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E221" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C222" s="1">
+        <v>9</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E222" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C223" s="1">
+        <v>10</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E223" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C224" s="1">
+        <v>11</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E224" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C225" s="1">
+        <v>12</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E225" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C226" s="1">
+        <v>13</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E226" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C227" s="1">
+        <v>14</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E227" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C228" s="1">
+        <v>15</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E228" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" s="1">
+        <v>16</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E229" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C230" s="1">
+        <v>17</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E230" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C231" s="1">
+        <v>18</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E231" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232" s="1">
+        <v>19</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E232" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C233" s="1">
+        <v>20</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E233" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E242" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E243" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E246" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E247" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="3">
+        <v>2</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="3">
+        <v>3</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E587">
-    <sortCondition ref="A2:A587"/>
-    <sortCondition ref="B2:B587"/>
-    <sortCondition ref="C2:C587"/>
+  <sortState ref="A2:E257">
+    <sortCondition ref="A2:A257"/>
+    <sortCondition ref="B2:B257"/>
+    <sortCondition ref="C2:C257"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -1245,8 +1245,8 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="265">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -83,9 +83,6 @@
     <t>six</t>
   </si>
   <si>
-    <t>Operator</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>ENTER_STATION</t>
   </si>
   <si>
-    <t>survey_board_name</t>
-  </si>
-  <si>
     <t>EXIT_STATION_LAT</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>survey_alight_lon</t>
   </si>
   <si>
-    <t>survey_alight_name</t>
-  </si>
-  <si>
     <t>EGRESS_LOC_LAT_TRANSFER_TO_LAST</t>
   </si>
   <si>
@@ -825,6 +816,9 @@
   </si>
   <si>
     <t>date_string</t>
+  </si>
+  <si>
+    <t>operator</t>
   </si>
 </sst>
 </file>
@@ -1242,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1254,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1277,16 +1271,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1294,16 +1288,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1311,237 +1305,237 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -1549,16 +1543,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -1566,305 +1560,305 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>4</v>
@@ -1872,16 +1866,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>4</v>
@@ -1889,197 +1883,197 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1">
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1">
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2093,10 +2087,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2110,10 +2104,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
@@ -2127,10 +2121,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -2144,10 +2138,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
@@ -2161,10 +2155,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -2178,10 +2172,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
@@ -2190,89 +2184,89 @@
         <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C59" s="1">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>4</v>
@@ -2280,16 +2274,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>4</v>
@@ -2297,10 +2291,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
@@ -2314,16 +2308,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4</v>
@@ -2331,16 +2325,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>4</v>
@@ -2348,16 +2342,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>4</v>
@@ -2365,390 +2359,390 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="1">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>59</v>
+        <v>230</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>71</v>
+        <v>231</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>58</v>
+        <v>230</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>70</v>
+        <v>231</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C76" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C80" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C81" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C83" s="1">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="1">
-        <v>88</v>
+        <v>159</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="1">
-        <v>99</v>
+        <v>159</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -2756,203 +2750,203 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>4</v>
+      <c r="C93" s="1">
+        <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>4</v>
+      <c r="C94" s="1">
+        <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="1">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="1">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="1">
-        <v>4</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="1">
-        <v>5</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1">
+        <v>8</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C100" s="1">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>48</v>
@@ -2960,16 +2954,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C101" s="1">
-        <v>7</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>51</v>
@@ -2977,16 +2971,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1">
+        <v>10</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C102" s="1">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>49</v>
@@ -2994,50 +2988,50 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="1">
-        <v>9</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="1">
-        <v>10</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C105" s="1">
-        <v>11</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>51</v>
@@ -3045,951 +3039,951 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="1">
-        <v>12</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1">
+        <v>15</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="1">
-        <v>13</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C108" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C109" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C111" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C112" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C113" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C114" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C115" s="1">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C116" s="1">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C117" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C118" s="1">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="1">
+        <v>111</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C119" s="1">
-        <v>84</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C120" s="1">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C121" s="1">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C122" s="1">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C123" s="1">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C124" s="1">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C125" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C126" s="1">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C127" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C128" s="1">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C129" s="1">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C130" s="1">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C131" s="1">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C133" s="1">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C134" s="1">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C135" s="1">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C136" s="1">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C137" s="1">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C138" s="1">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C139" s="1">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C140" s="1">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C141" s="1">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C142" s="1">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C143" s="1">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C144" s="1">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C145" s="1">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C146" s="1">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C147" s="1">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C148" s="1">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" s="1">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C150" s="1">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C151" s="1">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C152" s="1">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C153" s="1">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C154" s="1">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C155" s="1">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C156" s="1">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C157" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C158" s="1">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C159" s="1">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C160" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C161" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>150</v>
@@ -3997,16 +3991,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C162" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>151</v>
@@ -4014,237 +4008,237 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C163" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" s="1">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C165" s="1">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>23</v>
+        <v>166</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>24</v>
+        <v>166</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E176" s="1">
         <v>0</v>
@@ -4252,16 +4246,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -4269,16 +4263,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E178" s="1">
         <v>0</v>
@@ -4286,16 +4280,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -4303,16 +4297,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E180" s="1">
         <v>0</v>
@@ -4320,16 +4314,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -4337,900 +4331,900 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E182" s="1">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>174</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>59</v>
+        <v>241</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E185" s="1">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>58</v>
+        <v>241</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E186" s="1">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C187" s="1">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C188" s="1">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>58</v>
+        <v>258</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>147</v>
+        <v>259</v>
+      </c>
+      <c r="E192" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>4</v>
+        <v>258</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
+      </c>
+      <c r="E193" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C194" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E194" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C195" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E195" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C196" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E196" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C197" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E197" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C198" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E198" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C199" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E199" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C200" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E200" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C201" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E201" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C202" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E202" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C203" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E203" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C204" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E204" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C205" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E205" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C206" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E206" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C207" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E207" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C208" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E208" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C209" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E209" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C210" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E210" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C211" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E211" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C212" s="1">
-        <v>19</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E212" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C213" s="1">
-        <v>20</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E213" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C214" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E214" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C215" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E215" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C216" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E216" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C217" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E217" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C218" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E218" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C219" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E219" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C220" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E220" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C221" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E221" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C222" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E222" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C223" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E223" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C224" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E224" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C225" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E225" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C226" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E226" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C227" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E227" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C228" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E228" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C229" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E229" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C230" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E230" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C231" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E231" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C232" s="1">
-        <v>19</v>
+        <v>122</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E232" s="1">
-        <v>22</v>
+        <v>123</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C233" s="1">
-        <v>20</v>
+        <v>124</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E233" s="1">
-        <v>23</v>
+        <v>125</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>4</v>
@@ -5238,16 +5232,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>4</v>
@@ -5255,16 +5249,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>4</v>
@@ -5272,7 +5266,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>131</v>
@@ -5281,7 +5275,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>4</v>
@@ -5289,341 +5283,307 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C241" s="1">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E241" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C242" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E242" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E243" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C245" s="1">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E245" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C246" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E246" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="C247" s="3">
+        <v>2</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E247" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C248" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C249" s="3">
-        <v>2</v>
+      <c r="C249" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C250" s="3">
-        <v>3</v>
+      <c r="C250" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="306">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -819,6 +819,129 @@
   </si>
   <si>
     <t>operator</t>
+  </si>
+  <si>
+    <t>Napa Vine</t>
+  </si>
+  <si>
+    <t>WORK_BEFORE_TRIP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>EASTBOUND</t>
+  </si>
+  <si>
+    <t>WESTBOUND</t>
+  </si>
+  <si>
+    <t>LastEGRESS_LAT</t>
+  </si>
+  <si>
+    <t>LastEGRESS_LON</t>
+  </si>
+  <si>
+    <t>BOARDING_LOCATION</t>
+  </si>
+  <si>
+    <t>BOARDING_STOP_LAT</t>
+  </si>
+  <si>
+    <t>BOARDING_STOP_LON</t>
+  </si>
+  <si>
+    <t>ALIGHTING_LOCATION</t>
+  </si>
+  <si>
+    <t>ALIGHTING_STOP_LAT</t>
+  </si>
+  <si>
+    <t>ALIGHTING_STOP_LON</t>
+  </si>
+  <si>
+    <t>senior or disabled</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>WORK_AFTER_TRIP</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>pass (20-ride)</t>
+  </si>
+  <si>
+    <t>pass (monthly)</t>
+  </si>
+  <si>
+    <t>GENDER_CODE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>LAST_LEFT_HOME_CODE</t>
+  </si>
+  <si>
+    <t>RETURN_HOME_CODE</t>
+  </si>
+  <si>
+    <t>SURVEYMODE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>survey_type</t>
+  </si>
+  <si>
+    <t>tablet_pi</t>
+  </si>
+  <si>
+    <t>full_paper</t>
+  </si>
+  <si>
+    <t>brief_cati</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SURVEYLANGUAGE</t>
+  </si>
+  <si>
+    <t>interview_language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>X1stACCESS_LAT</t>
+  </si>
+  <si>
+    <t>X1stACCESS_LON</t>
   </si>
 </sst>
 </file>
@@ -1236,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5585,6 +5708,4256 @@
       </c>
       <c r="E255" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C260" s="1">
+        <v>3</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C261" s="1">
+        <v>4</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C263" s="1">
+        <v>6</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C264" s="1">
+        <v>7</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C265" s="1">
+        <v>8</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="1">
+        <v>9</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C274" s="1">
+        <v>2</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C275" s="1">
+        <v>3</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C276" s="1">
+        <v>4</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C278" s="1">
+        <v>6</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C279" s="1">
+        <v>7</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C280" s="1">
+        <v>8</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C281" s="1">
+        <v>9</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C282" s="1">
+        <v>10</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C283" s="1">
+        <v>11</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C284" s="1">
+        <v>12</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C285" s="1">
+        <v>13</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C286" s="1">
+        <v>14</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C287" s="1">
+        <v>15</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C297" s="1">
+        <v>3</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C298" s="1">
+        <v>4</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C299" s="1">
+        <v>5</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C300" s="1">
+        <v>6</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C301" s="1">
+        <v>7</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C302" s="1">
+        <v>8</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C303" s="1">
+        <v>9</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" s="1">
+        <v>2</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" s="1">
+        <v>3</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" s="1">
+        <v>4</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C311" s="1">
+        <v>5</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312" s="1">
+        <v>6</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C315" s="1">
+        <v>3</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C316" s="1">
+        <v>4</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C324" s="1">
+        <v>2</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C325" s="1">
+        <v>3</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C330" s="1">
+        <v>3</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C331" s="1">
+        <v>4</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C332" s="1">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C333" s="1">
+        <v>6</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C334" s="1">
+        <v>7</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C335" s="1">
+        <v>8</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C336" s="1">
+        <v>9</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C337" s="1">
+        <v>10</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C338" s="1">
+        <v>88</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C339" s="1">
+        <v>99</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C350" s="1">
+        <v>2</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C351" s="1">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C352" s="1">
+        <v>4</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C353" s="1">
+        <v>5</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C354" s="1">
+        <v>6</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C355" s="1">
+        <v>7</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C356" s="1">
+        <v>8</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C357" s="1">
+        <v>9</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C358" s="1">
+        <v>10</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C359" s="1">
+        <v>11</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C360" s="1">
+        <v>12</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361" s="1">
+        <v>13</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C362" s="1">
+        <v>14</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C363" s="1">
+        <v>15</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C364" s="1">
+        <v>3</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C365" s="1">
+        <v>11</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C366" s="1">
+        <v>13</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C367" s="1">
+        <v>17</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C368" s="1">
+        <v>18</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C369" s="1">
+        <v>37</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C370" s="1">
+        <v>45</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C371" s="1">
+        <v>56</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C372" s="1">
+        <v>63</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C373" s="1">
+        <v>84</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C374" s="1">
+        <v>102</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C375" s="1">
+        <v>111</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C376" s="1">
+        <v>129</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C377" s="1">
+        <v>135</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C378" s="1">
+        <v>143</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C379" s="1">
+        <v>146</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C380" s="1">
+        <v>148</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C381" s="1">
+        <v>152</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C382" s="1">
+        <v>156</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C383" s="1">
+        <v>159</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C384" s="1">
+        <v>208</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C385" s="1">
+        <v>220</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C386" s="1">
+        <v>279</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C387" s="1">
+        <v>297</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C388" s="1">
+        <v>321</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C389" s="1">
+        <v>325</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C390" s="1">
+        <v>351</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C391" s="1">
+        <v>351</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C392" s="1">
+        <v>356</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C393" s="1">
+        <v>358</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C394" s="1">
+        <v>378</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C395" s="1">
+        <v>385</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C396" s="1">
+        <v>408</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C397" s="1">
+        <v>426</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C398" s="1">
+        <v>432</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C399" s="1">
+        <v>441</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C400" s="1">
+        <v>443</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C401" s="1">
+        <v>446</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C402" s="1">
+        <v>448</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C403" s="1">
+        <v>456</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C404" s="1">
+        <v>465</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C405" s="1">
+        <v>488</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C406" s="1">
+        <v>489</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C407" s="1">
+        <v>490</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C408" s="1">
+        <v>491</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C409" s="1">
+        <v>498</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C410" s="1">
+        <v>501</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C411" s="1">
+        <v>502</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C412" s="1">
+        <v>503</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C413" s="1">
+        <v>504</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C415" s="1">
+        <v>2</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C416" s="1">
+        <v>3</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C417" s="1">
+        <v>4</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E431" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E435" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C439" s="1">
+        <v>1</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C440" s="1">
+        <v>2</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C447" s="1">
+        <v>2</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E447" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C448" s="1">
+        <v>3</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E448" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C449" s="1">
+        <v>4</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E449" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="1">
+        <v>5</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E450" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C451" s="1">
+        <v>6</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E451" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C452" s="1">
+        <v>7</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E452" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C453" s="1">
+        <v>8</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E453" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C454" s="1">
+        <v>9</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E454" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C455" s="1">
+        <v>10</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E455" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C456" s="1">
+        <v>11</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E456" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C457" s="1">
+        <v>12</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E457" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C458" s="1">
+        <v>13</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E458" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C459" s="1">
+        <v>14</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E459" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C460" s="1">
+        <v>15</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E460" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C461" s="1">
+        <v>5</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E461" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C462" s="1">
+        <v>6</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E462" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C463" s="1">
+        <v>7</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E463" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C464" s="1">
+        <v>8</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E464" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C465" s="1">
+        <v>9</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E465" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C466" s="1">
+        <v>10</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E466" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C467" s="1">
+        <v>11</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E467" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C468" s="1">
+        <v>12</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E468" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C469" s="1">
+        <v>13</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E469" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C470" s="1">
+        <v>14</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E470" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C471" s="1">
+        <v>15</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E471" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C472" s="1">
+        <v>16</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E472" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C473" s="1">
+        <v>17</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E473" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C474" s="1">
+        <v>18</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E474" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C475" s="1">
+        <v>19</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E475" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C476" s="1">
+        <v>20</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E476" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C483" s="1">
+        <v>0</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E483" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E484" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C485" s="1">
+        <v>2</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E485" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C486" s="1">
+        <v>3</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E486" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C487" s="1">
+        <v>0</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E487" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C488" s="1">
+        <v>1</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E488" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C489" s="1">
+        <v>2</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E489" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C490" s="1">
+        <v>3</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E490" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" s="1">
+        <v>1</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" s="1">
+        <v>2</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" s="1">
+        <v>3</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="362">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1049,21 +1049,9 @@
     <t>exempt (employee, law enforcement)</t>
   </si>
   <si>
-    <t>SURVEYMODE_PLACEHOLDER</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>on_off_dummy</t>
   </si>
   <si>
-    <t>SURVEYLANGUAGE_PLACEHOLDER</t>
-  </si>
-  <si>
-    <t>UNLNKD_WGT_FCTR_BtoA</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -1098,6 +1086,30 @@
   </si>
   <si>
     <t>WEEKEND</t>
+  </si>
+  <si>
+    <t>SURVEY_TYPE</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>SURVEY_LANGUAGE</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>MTC_WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -1530,11 +1542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E579"/>
+  <dimension ref="A1:E580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5535,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>4</v>
@@ -6634,10 +6646,10 @@
         <v>296</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>284</v>
@@ -6651,16 +6663,16 @@
         <v>296</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6668,16 +6680,16 @@
         <v>296</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6685,16 +6697,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>343</v>
+        <v>187</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6702,16 +6714,16 @@
         <v>296</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6719,33 +6731,33 @@
         <v>296</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6753,13 +6765,13 @@
         <v>296</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>4</v>
@@ -6770,13 +6782,13 @@
         <v>296</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>4</v>
@@ -6787,13 +6799,13 @@
         <v>296</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>4</v>
@@ -6804,16 +6816,16 @@
         <v>296</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6821,16 +6833,16 @@
         <v>296</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6838,32 +6850,32 @@
         <v>296</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E313" s="4" t="s">
+      <c r="A313" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E313" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6872,13 +6884,13 @@
         <v>257</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>4</v>
@@ -6889,16 +6901,16 @@
         <v>257</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C315" s="4">
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,13 +6921,13 @@
         <v>128</v>
       </c>
       <c r="C316" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6926,13 +6938,13 @@
         <v>128</v>
       </c>
       <c r="C317" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -6943,7 +6955,7 @@
         <v>128</v>
       </c>
       <c r="C318" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>129</v>
@@ -6960,7 +6972,7 @@
         <v>128</v>
       </c>
       <c r="C319" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>129</v>
@@ -6977,7 +6989,7 @@
         <v>128</v>
       </c>
       <c r="C320" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>129</v>
@@ -6994,13 +7006,13 @@
         <v>128</v>
       </c>
       <c r="C321" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7011,7 +7023,7 @@
         <v>128</v>
       </c>
       <c r="C322" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>129</v>
@@ -7028,7 +7040,7 @@
         <v>128</v>
       </c>
       <c r="C323" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>129</v>
@@ -7042,16 +7054,16 @@
         <v>257</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>57</v>
+        <v>128</v>
+      </c>
+      <c r="C324" s="4">
+        <v>9</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7062,13 +7074,13 @@
         <v>70</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7076,16 +7088,16 @@
         <v>257</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7096,13 +7108,13 @@
         <v>258</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7110,16 +7122,16 @@
         <v>257</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,13 +7139,13 @@
         <v>257</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>4</v>
@@ -7144,16 +7156,16 @@
         <v>257</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C330" s="4">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7164,13 +7176,13 @@
         <v>51</v>
       </c>
       <c r="C331" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7181,13 +7193,13 @@
         <v>51</v>
       </c>
       <c r="C332" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7198,13 +7210,13 @@
         <v>51</v>
       </c>
       <c r="C333" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,13 +7227,13 @@
         <v>51</v>
       </c>
       <c r="C334" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,13 +7244,13 @@
         <v>51</v>
       </c>
       <c r="C335" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,13 +7261,13 @@
         <v>51</v>
       </c>
       <c r="C336" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7266,13 +7278,13 @@
         <v>51</v>
       </c>
       <c r="C337" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7283,13 +7295,13 @@
         <v>51</v>
       </c>
       <c r="C338" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7300,13 +7312,13 @@
         <v>51</v>
       </c>
       <c r="C339" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7317,13 +7329,13 @@
         <v>51</v>
       </c>
       <c r="C340" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,13 +7346,13 @@
         <v>51</v>
       </c>
       <c r="C341" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,13 +7363,13 @@
         <v>51</v>
       </c>
       <c r="C342" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7368,13 +7380,13 @@
         <v>51</v>
       </c>
       <c r="C343" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7385,13 +7397,13 @@
         <v>51</v>
       </c>
       <c r="C344" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7399,16 +7411,16 @@
         <v>257</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>155</v>
+        <v>51</v>
+      </c>
+      <c r="C345" s="4">
+        <v>15</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7419,13 +7431,13 @@
         <v>245</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7436,13 +7448,13 @@
         <v>245</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7453,13 +7465,13 @@
         <v>245</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7470,13 +7482,13 @@
         <v>245</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7484,16 +7496,16 @@
         <v>257</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,13 +7513,13 @@
         <v>257</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E351" s="4" t="s">
         <v>4</v>
@@ -7518,16 +7530,16 @@
         <v>257</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C352" s="4">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -7538,13 +7550,13 @@
         <v>134</v>
       </c>
       <c r="C353" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7555,13 +7567,13 @@
         <v>134</v>
       </c>
       <c r="C354" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7572,7 +7584,7 @@
         <v>134</v>
       </c>
       <c r="C355" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>135</v>
@@ -7589,7 +7601,7 @@
         <v>134</v>
       </c>
       <c r="C356" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>135</v>
@@ -7606,7 +7618,7 @@
         <v>134</v>
       </c>
       <c r="C357" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>135</v>
@@ -7623,13 +7635,13 @@
         <v>134</v>
       </c>
       <c r="C358" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7640,7 +7652,7 @@
         <v>134</v>
       </c>
       <c r="C359" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>135</v>
@@ -7657,7 +7669,7 @@
         <v>134</v>
       </c>
       <c r="C360" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>135</v>
@@ -7671,16 +7683,16 @@
         <v>257</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>57</v>
+        <v>134</v>
+      </c>
+      <c r="C361" s="4">
+        <v>9</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7691,13 +7703,13 @@
         <v>55</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -7705,16 +7717,16 @@
         <v>257</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C363" s="4">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,13 +7737,13 @@
         <v>25</v>
       </c>
       <c r="C364" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7742,13 +7754,13 @@
         <v>25</v>
       </c>
       <c r="C365" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -7759,13 +7771,13 @@
         <v>25</v>
       </c>
       <c r="C366" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -7776,13 +7788,13 @@
         <v>25</v>
       </c>
       <c r="C367" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -7793,13 +7805,13 @@
         <v>25</v>
       </c>
       <c r="C368" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -7810,13 +7822,13 @@
         <v>25</v>
       </c>
       <c r="C369" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -7824,16 +7836,16 @@
         <v>257</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C370" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -7844,13 +7856,13 @@
         <v>239</v>
       </c>
       <c r="C371" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -7861,13 +7873,13 @@
         <v>239</v>
       </c>
       <c r="C372" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -7878,13 +7890,13 @@
         <v>239</v>
       </c>
       <c r="C373" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -7892,16 +7904,16 @@
         <v>257</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C374" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C374" s="4">
         <v>4</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -7909,13 +7921,13 @@
         <v>257</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E375" s="4" t="s">
         <v>4</v>
@@ -7926,13 +7938,13 @@
         <v>257</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E376" s="4" t="s">
         <v>4</v>
@@ -7943,13 +7955,13 @@
         <v>257</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>4</v>
@@ -7960,16 +7972,16 @@
         <v>257</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C378" s="4">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -7980,13 +7992,13 @@
         <v>147</v>
       </c>
       <c r="C379" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,13 +8009,13 @@
         <v>147</v>
       </c>
       <c r="C380" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8011,16 +8023,16 @@
         <v>257</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>57</v>
+        <v>147</v>
+      </c>
+      <c r="C381" s="4">
+        <v>3</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8031,13 +8043,13 @@
         <v>274</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,16 +8057,16 @@
         <v>257</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C383" s="4">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -8065,13 +8077,13 @@
         <v>224</v>
       </c>
       <c r="C384" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8082,13 +8094,13 @@
         <v>224</v>
       </c>
       <c r="C385" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -8099,13 +8111,13 @@
         <v>224</v>
       </c>
       <c r="C386" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8116,7 +8128,7 @@
         <v>224</v>
       </c>
       <c r="C387" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>225</v>
@@ -8133,13 +8145,13 @@
         <v>224</v>
       </c>
       <c r="C388" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8150,7 +8162,7 @@
         <v>224</v>
       </c>
       <c r="C389" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>225</v>
@@ -8167,13 +8179,13 @@
         <v>224</v>
       </c>
       <c r="C390" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -8184,13 +8196,13 @@
         <v>224</v>
       </c>
       <c r="C391" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,13 +8213,13 @@
         <v>224</v>
       </c>
       <c r="C392" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -8218,13 +8230,13 @@
         <v>224</v>
       </c>
       <c r="C393" s="4">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -8235,7 +8247,7 @@
         <v>224</v>
       </c>
       <c r="C394" s="4">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>225</v>
@@ -8249,16 +8261,16 @@
         <v>257</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>155</v>
+        <v>224</v>
+      </c>
+      <c r="C395" s="4">
+        <v>99</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -8269,13 +8281,13 @@
         <v>153</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -8283,16 +8295,16 @@
         <v>257</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,13 +8312,13 @@
         <v>257</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>4</v>
@@ -8317,13 +8329,13 @@
         <v>257</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>4</v>
@@ -8334,16 +8346,16 @@
         <v>257</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -8354,13 +8366,13 @@
         <v>171</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -8368,16 +8380,16 @@
         <v>257</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -8385,13 +8397,13 @@
         <v>257</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>4</v>
@@ -8402,16 +8414,16 @@
         <v>257</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C404" s="4">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -8422,13 +8434,13 @@
         <v>39</v>
       </c>
       <c r="C405" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,13 +8451,13 @@
         <v>39</v>
       </c>
       <c r="C406" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8456,13 +8468,13 @@
         <v>39</v>
       </c>
       <c r="C407" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -8473,13 +8485,13 @@
         <v>39</v>
       </c>
       <c r="C408" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -8490,13 +8502,13 @@
         <v>39</v>
       </c>
       <c r="C409" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -8507,13 +8519,13 @@
         <v>39</v>
       </c>
       <c r="C410" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -8524,13 +8536,13 @@
         <v>39</v>
       </c>
       <c r="C411" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -8541,13 +8553,13 @@
         <v>39</v>
       </c>
       <c r="C412" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -8558,13 +8570,13 @@
         <v>39</v>
       </c>
       <c r="C413" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -8575,13 +8587,13 @@
         <v>39</v>
       </c>
       <c r="C414" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -8592,13 +8604,13 @@
         <v>39</v>
       </c>
       <c r="C415" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -8609,7 +8621,7 @@
         <v>39</v>
       </c>
       <c r="C416" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>40</v>
@@ -8626,7 +8638,7 @@
         <v>39</v>
       </c>
       <c r="C417" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>40</v>
@@ -8643,13 +8655,13 @@
         <v>39</v>
       </c>
       <c r="C418" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -8657,16 +8669,16 @@
         <v>257</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="C419" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -8677,13 +8689,13 @@
         <v>175</v>
       </c>
       <c r="C420" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -8694,13 +8706,13 @@
         <v>175</v>
       </c>
       <c r="C421" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -8711,13 +8723,13 @@
         <v>175</v>
       </c>
       <c r="C422" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -8728,7 +8740,7 @@
         <v>175</v>
       </c>
       <c r="C423" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>176</v>
@@ -8745,13 +8757,13 @@
         <v>175</v>
       </c>
       <c r="C424" s="4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -8762,13 +8774,13 @@
         <v>175</v>
       </c>
       <c r="C425" s="4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -8779,13 +8791,13 @@
         <v>175</v>
       </c>
       <c r="C426" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,13 +8808,13 @@
         <v>175</v>
       </c>
       <c r="C427" s="4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -8813,13 +8825,13 @@
         <v>175</v>
       </c>
       <c r="C428" s="4">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -8830,13 +8842,13 @@
         <v>175</v>
       </c>
       <c r="C429" s="4">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -8847,13 +8859,13 @@
         <v>175</v>
       </c>
       <c r="C430" s="4">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,13 +8876,13 @@
         <v>175</v>
       </c>
       <c r="C431" s="4">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,13 +8893,13 @@
         <v>175</v>
       </c>
       <c r="C432" s="4">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,13 +8910,13 @@
         <v>175</v>
       </c>
       <c r="C433" s="4">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,13 +8927,13 @@
         <v>175</v>
       </c>
       <c r="C434" s="4">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -8932,13 +8944,13 @@
         <v>175</v>
       </c>
       <c r="C435" s="4">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -8949,13 +8961,13 @@
         <v>175</v>
       </c>
       <c r="C436" s="4">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -8966,13 +8978,13 @@
         <v>175</v>
       </c>
       <c r="C437" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -8983,13 +8995,13 @@
         <v>175</v>
       </c>
       <c r="C438" s="4">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,13 +9012,13 @@
         <v>175</v>
       </c>
       <c r="C439" s="4">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,13 +9029,13 @@
         <v>175</v>
       </c>
       <c r="C440" s="4">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9034,13 +9046,13 @@
         <v>175</v>
       </c>
       <c r="C441" s="4">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9051,13 +9063,13 @@
         <v>175</v>
       </c>
       <c r="C442" s="4">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9068,13 +9080,13 @@
         <v>175</v>
       </c>
       <c r="C443" s="4">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,13 +9097,13 @@
         <v>175</v>
       </c>
       <c r="C444" s="4">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9102,13 +9114,13 @@
         <v>175</v>
       </c>
       <c r="C445" s="4">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9125,7 +9137,7 @@
         <v>176</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9136,13 +9148,13 @@
         <v>175</v>
       </c>
       <c r="C447" s="4">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,13 +9165,13 @@
         <v>175</v>
       </c>
       <c r="C448" s="4">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9170,13 +9182,13 @@
         <v>175</v>
       </c>
       <c r="C449" s="4">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9187,13 +9199,13 @@
         <v>175</v>
       </c>
       <c r="C450" s="4">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9204,13 +9216,13 @@
         <v>175</v>
       </c>
       <c r="C451" s="4">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9221,13 +9233,13 @@
         <v>175</v>
       </c>
       <c r="C452" s="4">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -9238,13 +9250,13 @@
         <v>175</v>
       </c>
       <c r="C453" s="4">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -9255,13 +9267,13 @@
         <v>175</v>
       </c>
       <c r="C454" s="4">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -9272,13 +9284,13 @@
         <v>175</v>
       </c>
       <c r="C455" s="4">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -9289,13 +9301,13 @@
         <v>175</v>
       </c>
       <c r="C456" s="4">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9306,13 +9318,13 @@
         <v>175</v>
       </c>
       <c r="C457" s="4">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -9323,13 +9335,13 @@
         <v>175</v>
       </c>
       <c r="C458" s="4">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -9340,13 +9352,13 @@
         <v>175</v>
       </c>
       <c r="C459" s="4">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -9357,13 +9369,13 @@
         <v>175</v>
       </c>
       <c r="C460" s="4">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,13 +9386,13 @@
         <v>175</v>
       </c>
       <c r="C461" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -9391,13 +9403,13 @@
         <v>175</v>
       </c>
       <c r="C462" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -9408,13 +9420,13 @@
         <v>175</v>
       </c>
       <c r="C463" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -9425,13 +9437,13 @@
         <v>175</v>
       </c>
       <c r="C464" s="4">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -9442,13 +9454,13 @@
         <v>175</v>
       </c>
       <c r="C465" s="4">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -9459,13 +9471,13 @@
         <v>175</v>
       </c>
       <c r="C466" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -9476,13 +9488,13 @@
         <v>175</v>
       </c>
       <c r="C467" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -9493,13 +9505,13 @@
         <v>175</v>
       </c>
       <c r="C468" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -9507,16 +9519,16 @@
         <v>257</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C469" s="4">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -9527,13 +9539,13 @@
         <v>140</v>
       </c>
       <c r="C470" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E470" s="4" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -9544,13 +9556,13 @@
         <v>140</v>
       </c>
       <c r="C471" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -9561,13 +9573,13 @@
         <v>140</v>
       </c>
       <c r="C472" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -9575,16 +9587,16 @@
         <v>257</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C473" s="4" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="C473" s="4">
+        <v>4</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -9595,13 +9607,13 @@
         <v>26</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -9612,13 +9624,13 @@
         <v>26</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -9629,13 +9641,13 @@
         <v>26</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -9646,13 +9658,13 @@
         <v>26</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -9663,13 +9675,13 @@
         <v>26</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -9680,13 +9692,13 @@
         <v>26</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,13 +9709,13 @@
         <v>26</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,13 +9726,13 @@
         <v>26</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -9731,13 +9743,13 @@
         <v>26</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -9745,16 +9757,16 @@
         <v>257</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E483" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="E483" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -9765,13 +9777,13 @@
         <v>159</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E484" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -9779,16 +9791,16 @@
         <v>257</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E485" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -9799,13 +9811,13 @@
         <v>161</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E486" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -9813,16 +9825,16 @@
         <v>257</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E487" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -9833,13 +9845,13 @@
         <v>163</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E488" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -9847,16 +9859,16 @@
         <v>257</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E489" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -9867,13 +9879,13 @@
         <v>165</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E490" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -9881,16 +9893,16 @@
         <v>257</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E491" s="4" t="s">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="E491" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -9898,16 +9910,16 @@
         <v>257</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E492" s="4">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -9918,13 +9930,13 @@
         <v>167</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E493" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -9932,16 +9944,16 @@
         <v>257</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C494" s="4">
+        <v>167</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E494" s="4">
         <v>1</v>
-      </c>
-      <c r="D494" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E494" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -9952,13 +9964,13 @@
         <v>278</v>
       </c>
       <c r="C495" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -9966,16 +9978,16 @@
         <v>257</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>4</v>
+        <v>278</v>
+      </c>
+      <c r="C496" s="4">
+        <v>2</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -9983,13 +9995,13 @@
         <v>257</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>4</v>
@@ -10000,16 +10012,16 @@
         <v>257</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -10020,13 +10032,13 @@
         <v>59</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10034,16 +10046,16 @@
         <v>257</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10051,15 +10063,15 @@
         <v>257</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C501" s="4">
-        <v>1</v>
+        <v>279</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E501" s="4">
+        <v>255</v>
+      </c>
+      <c r="E501" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10071,13 +10083,13 @@
         <v>280</v>
       </c>
       <c r="C502" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E502" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10088,13 +10100,13 @@
         <v>280</v>
       </c>
       <c r="C503" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E503" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10105,13 +10117,13 @@
         <v>280</v>
       </c>
       <c r="C504" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D504" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E504" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10122,13 +10134,13 @@
         <v>280</v>
       </c>
       <c r="C505" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E505" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -10139,13 +10151,13 @@
         <v>280</v>
       </c>
       <c r="C506" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E506" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -10156,13 +10168,13 @@
         <v>280</v>
       </c>
       <c r="C507" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E507" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10173,13 +10185,13 @@
         <v>280</v>
       </c>
       <c r="C508" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E508" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10190,13 +10202,13 @@
         <v>280</v>
       </c>
       <c r="C509" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E509" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10207,13 +10219,13 @@
         <v>280</v>
       </c>
       <c r="C510" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E510" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10224,13 +10236,13 @@
         <v>280</v>
       </c>
       <c r="C511" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D511" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E511" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -10241,13 +10253,13 @@
         <v>280</v>
       </c>
       <c r="C512" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E512" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -10258,13 +10270,13 @@
         <v>280</v>
       </c>
       <c r="C513" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D513" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E513" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -10275,13 +10287,13 @@
         <v>280</v>
       </c>
       <c r="C514" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D514" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E514" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -10292,13 +10304,13 @@
         <v>280</v>
       </c>
       <c r="C515" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D515" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E515" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -10306,16 +10318,16 @@
         <v>257</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C516" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E516" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -10326,13 +10338,13 @@
         <v>281</v>
       </c>
       <c r="C517" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D517" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E517" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -10343,13 +10355,13 @@
         <v>281</v>
       </c>
       <c r="C518" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E518" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -10360,13 +10372,13 @@
         <v>281</v>
       </c>
       <c r="C519" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D519" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E519" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -10377,13 +10389,13 @@
         <v>281</v>
       </c>
       <c r="C520" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D520" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E520" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -10394,13 +10406,13 @@
         <v>281</v>
       </c>
       <c r="C521" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D521" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E521" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -10411,13 +10423,13 @@
         <v>281</v>
       </c>
       <c r="C522" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D522" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E522" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -10428,13 +10440,13 @@
         <v>281</v>
       </c>
       <c r="C523" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D523" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E523" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -10445,13 +10457,13 @@
         <v>281</v>
       </c>
       <c r="C524" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E524" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -10462,13 +10474,13 @@
         <v>281</v>
       </c>
       <c r="C525" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E525" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -10479,13 +10491,13 @@
         <v>281</v>
       </c>
       <c r="C526" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E526" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -10496,13 +10508,13 @@
         <v>281</v>
       </c>
       <c r="C527" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E527" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -10513,13 +10525,13 @@
         <v>281</v>
       </c>
       <c r="C528" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E528" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -10530,13 +10542,13 @@
         <v>281</v>
       </c>
       <c r="C529" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E529" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -10547,13 +10559,13 @@
         <v>281</v>
       </c>
       <c r="C530" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E530" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -10564,13 +10576,13 @@
         <v>281</v>
       </c>
       <c r="C531" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E531" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -10578,16 +10590,16 @@
         <v>257</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>4</v>
+        <v>281</v>
+      </c>
+      <c r="C532" s="4">
+        <v>20</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E532" s="4" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E532" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -10595,13 +10607,13 @@
         <v>257</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E533" s="4" t="s">
         <v>4</v>
@@ -10612,13 +10624,13 @@
         <v>257</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E534" s="4" t="s">
         <v>4</v>
@@ -10629,13 +10641,13 @@
         <v>257</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E535" s="4" t="s">
         <v>4</v>
@@ -10646,13 +10658,13 @@
         <v>257</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E536" s="4" t="s">
         <v>4</v>
@@ -10663,13 +10675,13 @@
         <v>257</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E537" s="4" t="s">
         <v>4</v>
@@ -10680,16 +10692,16 @@
         <v>257</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C538" s="4">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E538" s="4">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -10700,13 +10712,13 @@
         <v>114</v>
       </c>
       <c r="C539" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E539" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -10717,13 +10729,13 @@
         <v>114</v>
       </c>
       <c r="C540" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E540" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -10734,13 +10746,13 @@
         <v>114</v>
       </c>
       <c r="C541" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E541" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10748,16 +10760,16 @@
         <v>257</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C542" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E542" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -10768,13 +10780,13 @@
         <v>115</v>
       </c>
       <c r="C543" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E543" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -10785,13 +10797,13 @@
         <v>115</v>
       </c>
       <c r="C544" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D544" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E544" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -10802,13 +10814,13 @@
         <v>115</v>
       </c>
       <c r="C545" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E545" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -10816,16 +10828,16 @@
         <v>257</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C546" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E546" s="4" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="E546" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -10836,13 +10848,13 @@
         <v>8</v>
       </c>
       <c r="C547" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -10853,13 +10865,13 @@
         <v>8</v>
       </c>
       <c r="C548" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D548" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -10869,14 +10881,14 @@
       <c r="B549" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C549" s="4" t="s">
-        <v>20</v>
+      <c r="C549" s="4">
+        <v>3</v>
       </c>
       <c r="D549" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -10887,13 +10899,13 @@
         <v>8</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -10901,16 +10913,16 @@
         <v>257</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -10921,13 +10933,13 @@
         <v>77</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -10935,16 +10947,16 @@
         <v>257</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -10952,13 +10964,13 @@
         <v>257</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C554" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E554" s="4" t="s">
         <v>4</v>
@@ -10969,13 +10981,13 @@
         <v>257</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>4</v>
@@ -10986,16 +10998,16 @@
         <v>257</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -11006,13 +11018,13 @@
         <v>282</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11023,13 +11035,13 @@
         <v>282</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D558" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11037,16 +11049,16 @@
         <v>257</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11057,13 +11069,13 @@
         <v>290</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D560" s="4" t="s">
         <v>291</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11071,16 +11083,16 @@
         <v>257</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11088,13 +11100,13 @@
         <v>257</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C562" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E562" s="4" t="s">
         <v>4</v>
@@ -11105,16 +11117,16 @@
         <v>257</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C563" s="4">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E563" s="6">
-        <v>0.22916666666666666</v>
+        <v>345</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11122,16 +11134,16 @@
         <v>257</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C564" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E564" s="6">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11139,16 +11151,16 @@
         <v>257</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C565" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E565" s="6">
-        <v>0.3125</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11156,16 +11168,16 @@
         <v>257</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C566" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E566" s="6">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11173,16 +11185,16 @@
         <v>257</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C567" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E567" s="6">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -11190,16 +11202,16 @@
         <v>257</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C568" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E568" s="6">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11207,16 +11219,16 @@
         <v>257</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C569" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E569" s="6">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11224,16 +11236,16 @@
         <v>257</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C570" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E570" s="6">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11241,16 +11253,16 @@
         <v>257</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C571" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E571" s="6">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11258,16 +11270,16 @@
         <v>257</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C572" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E572" s="6">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11275,16 +11287,16 @@
         <v>257</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C573" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E573" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -11292,16 +11304,16 @@
         <v>257</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C574" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E574" s="6">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -11309,16 +11321,16 @@
         <v>257</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C575" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E575" s="6">
-        <v>0.72916666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -11326,16 +11338,16 @@
         <v>257</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C576" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E576" s="6">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -11343,16 +11355,16 @@
         <v>257</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C577" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E577" s="6">
-        <v>0.8125</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11360,16 +11372,16 @@
         <v>257</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
+      </c>
+      <c r="C578" s="4">
+        <v>15</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E578" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="E578" s="6">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -11377,16 +11389,33 @@
         <v>257</v>
       </c>
       <c r="B579" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C579" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E579" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C580" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C579" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D579" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E579" s="6" t="s">
-        <v>357</v>
+      <c r="D580" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E580" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dictionary" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Ory</author>
+  </authors>
+  <commentList>
+    <comment ref="A581" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="382">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1110,13 +1144,73 @@
   </si>
   <si>
     <t>MTC_WEIGHT</t>
+  </si>
+  <si>
+    <t>BART Interim</t>
+  </si>
+  <si>
+    <t>DE_PLACE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>EGRESS_TO_1ST_RTE_CODE</t>
+  </si>
+  <si>
+    <t>ACCESS_TO_1ST_RTE_CODE</t>
+  </si>
+  <si>
+    <t>ADULTS_IN_HH_CODE</t>
+  </si>
+  <si>
+    <t>FIRST_ENTERED_BART</t>
+  </si>
+  <si>
+    <t>BART_EXIT_STATION</t>
+  </si>
+  <si>
+    <t>CLIPPER_REG_ADULT_CODE</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS_LON</t>
+  </si>
+  <si>
+    <t>OR_PLACE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>HOW_PAID_FARE_CODE</t>
+  </si>
+  <si>
+    <t>SCHOOL_NAME_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>SCHOOL_NAME_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>DATE_STARTED</t>
+  </si>
+  <si>
+    <t>START_TIME_HHMM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1147,6 +1241,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1179,7 +1292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1197,6 +1310,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1541,12 +1657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E580"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A581" sqref="A581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11418,6 +11534,5276 @@
         <v>353</v>
       </c>
     </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C581" s="1">
+        <v>1</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C582" s="1">
+        <v>2</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C583" s="1">
+        <v>3</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C584" s="1">
+        <v>4</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C585" s="1">
+        <v>5</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C586" s="1">
+        <v>6</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C587" s="1">
+        <v>7</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C588" s="1">
+        <v>8</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C589" s="1">
+        <v>9</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C596" s="1">
+        <v>1</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C597" s="1">
+        <v>2</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C598" s="1">
+        <v>3</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C599" s="1">
+        <v>4</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C600" s="1">
+        <v>5</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C601" s="1">
+        <v>6</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C602" s="1">
+        <v>7</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C603" s="1">
+        <v>8</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C604" s="1">
+        <v>9</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C605" s="1">
+        <v>10</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C606" s="1">
+        <v>11</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C607" s="1">
+        <v>12</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C608" s="1">
+        <v>13</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C609" s="1">
+        <v>14</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C610" s="1">
+        <v>15</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C611" s="1">
+        <v>16</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C612" s="1">
+        <v>1</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C613" s="1">
+        <v>2</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C614" s="1">
+        <v>3</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C615" s="1">
+        <v>4</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C616" s="1">
+        <v>5</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C617" s="1">
+        <v>6</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C618" s="1">
+        <v>7</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C619" s="1">
+        <v>8</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C620" s="1">
+        <v>9</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C623" s="1">
+        <v>0</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C624" s="1">
+        <v>1</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C625" s="1">
+        <v>2</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C626" s="1">
+        <v>3</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C627" s="1">
+        <v>4</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C628" s="1">
+        <v>5</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C629" s="1">
+        <v>6</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C630" s="1">
+        <v>1</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C631" s="1">
+        <v>2</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C632" s="1">
+        <v>3</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C633" s="1">
+        <v>4</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C640" s="1">
+        <v>1</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C641" s="1">
+        <v>2</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C642" s="1">
+        <v>3</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C643" s="1">
+        <v>4</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C644" s="1">
+        <v>5</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C647" s="1">
+        <v>1</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C648" s="1">
+        <v>2</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C649" s="1">
+        <v>3</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C650" s="1">
+        <v>4</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C651" s="1">
+        <v>5</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C652" s="1">
+        <v>6</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C653" s="1">
+        <v>7</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C654" s="1">
+        <v>8</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C655" s="1">
+        <v>9</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C656" s="1">
+        <v>10</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C657" s="1">
+        <v>88</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C658" s="1">
+        <v>99</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C668" s="1">
+        <v>1</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C669" s="1">
+        <v>2</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C670" s="1">
+        <v>3</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C671" s="1">
+        <v>4</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C672" s="1">
+        <v>5</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C673" s="1">
+        <v>6</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C674" s="1">
+        <v>7</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C675" s="1">
+        <v>8</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C676" s="1">
+        <v>9</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C677" s="1">
+        <v>10</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C678" s="1">
+        <v>11</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C679" s="1">
+        <v>12</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C680" s="1">
+        <v>13</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C681" s="1">
+        <v>14</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C682" s="1">
+        <v>15</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C683" s="1">
+        <v>16</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C684" s="1">
+        <v>3</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C685" s="1">
+        <v>7</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C686" s="1">
+        <v>11</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C687" s="1">
+        <v>13</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C688" s="1">
+        <v>17</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C689" s="1">
+        <v>18</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C690" s="1">
+        <v>20</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C691" s="1">
+        <v>30</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C692" s="1">
+        <v>33</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C693" s="1">
+        <v>34</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C694" s="1">
+        <v>35</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C695" s="1">
+        <v>37</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C696" s="1">
+        <v>45</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C697" s="1">
+        <v>51</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C698" s="1">
+        <v>56</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C699" s="1">
+        <v>58</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C700" s="1">
+        <v>61</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C701" s="1">
+        <v>63</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C702" s="1">
+        <v>80</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C703" s="1">
+        <v>84</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C704" s="1">
+        <v>86</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C705" s="1">
+        <v>95</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C706" s="1">
+        <v>102</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C707" s="1">
+        <v>104</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C708" s="1">
+        <v>111</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C709" s="1">
+        <v>129</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C710" s="1">
+        <v>135</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C711" s="1">
+        <v>138</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C712" s="1">
+        <v>142</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C713" s="1">
+        <v>143</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C714" s="1">
+        <v>144</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C715" s="1">
+        <v>146</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C716" s="1">
+        <v>148</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C717" s="1">
+        <v>150</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C718" s="1">
+        <v>151</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C719" s="1">
+        <v>152</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C720" s="1">
+        <v>154</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C721" s="1">
+        <v>156</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C722" s="1">
+        <v>159</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C723" s="1">
+        <v>161</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C724" s="1">
+        <v>174</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C725" s="1">
+        <v>175</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C726" s="1">
+        <v>186</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C727" s="1">
+        <v>200</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C728" s="1">
+        <v>208</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C729" s="1">
+        <v>220</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C730" s="1">
+        <v>237</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C731" s="1">
+        <v>238</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C732" s="1">
+        <v>243</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C733" s="1">
+        <v>279</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C734" s="1">
+        <v>288</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C735" s="1">
+        <v>297</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C736" s="1">
+        <v>321</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C737" s="1">
+        <v>325</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C738" s="1">
+        <v>351</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C739" s="1">
+        <v>351</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C740" s="1">
+        <v>356</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C741" s="1">
+        <v>358</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C742" s="1">
+        <v>368</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C743" s="1">
+        <v>378</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C744" s="1">
+        <v>385</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C745" s="1">
+        <v>393</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C746" s="1">
+        <v>408</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C747" s="1">
+        <v>426</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C748" s="1">
+        <v>410</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C749" s="1">
+        <v>419</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C750" s="1">
+        <v>421</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C751" s="1">
+        <v>432</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C752" s="1">
+        <v>436</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C753" s="1">
+        <v>441</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C754" s="1">
+        <v>443</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C755" s="1">
+        <v>446</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C756" s="1">
+        <v>448</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C757" s="1">
+        <v>452</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C758" s="1">
+        <v>456</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C759" s="1">
+        <v>465</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C760" s="1">
+        <v>488</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C761" s="1">
+        <v>489</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C762" s="1">
+        <v>490</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C763" s="1">
+        <v>491</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C764" s="1">
+        <v>493</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C765" s="1">
+        <v>498</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C766" s="1">
+        <v>499</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C767" s="1">
+        <v>501</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C768" s="1">
+        <v>502</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C769" s="1">
+        <v>503</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C770" s="1">
+        <v>504</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C771" s="1">
+        <v>600</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C772" s="1">
+        <v>601</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C773" s="1">
+        <v>602</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C774" s="1">
+        <v>603</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C775" s="1">
+        <v>604</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C776" s="1">
+        <v>605</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C777" s="1">
+        <v>1</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C778" s="1">
+        <v>2</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C779" s="1">
+        <v>3</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C780" s="1">
+        <v>4</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C781" s="1">
+        <v>5</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C782" s="1">
+        <v>6</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C783" s="1">
+        <v>7</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E795" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E797" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E799" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E800" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E801" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E803" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E804" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C805" s="1">
+        <v>1</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C806" s="1">
+        <v>2</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C813" s="1">
+        <v>1</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E813" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C814" s="1">
+        <v>2</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E814" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C815" s="1">
+        <v>3</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E815" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C816" s="1">
+        <v>4</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E816" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C817" s="1">
+        <v>5</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E817" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C818" s="1">
+        <v>6</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E818" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C819" s="1">
+        <v>7</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E819" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C820" s="1">
+        <v>8</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E820" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C821" s="1">
+        <v>9</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E821" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C822" s="1">
+        <v>10</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E822" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C823" s="1">
+        <v>11</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E823" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C824" s="1">
+        <v>12</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E824" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C825" s="1">
+        <v>13</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E825" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C826" s="1">
+        <v>14</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E826" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C827" s="1">
+        <v>15</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E827" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C828" s="1">
+        <v>16</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E828" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C829" s="1">
+        <v>17</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E829" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C830" s="1">
+        <v>18</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E830" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C831" s="1">
+        <v>19</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E831" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C832" s="1">
+        <v>20</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E832" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C833" s="1">
+        <v>1</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E833" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C834" s="1">
+        <v>2</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E834" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C835" s="1">
+        <v>3</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E835" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C836" s="1">
+        <v>4</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E836" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C837" s="1">
+        <v>5</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E837" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C838" s="1">
+        <v>6</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E838" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C839" s="1">
+        <v>7</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E839" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C840" s="1">
+        <v>8</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E840" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C841" s="1">
+        <v>9</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E841" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C842" s="1">
+        <v>10</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E842" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C843" s="1">
+        <v>11</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E843" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C844" s="1">
+        <v>12</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E844" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C845" s="1">
+        <v>13</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E845" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C846" s="1">
+        <v>14</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E846" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C847" s="1">
+        <v>15</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E847" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C848" s="1">
+        <v>16</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E848" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C849" s="1">
+        <v>17</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E849" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C850" s="1">
+        <v>18</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E850" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C851" s="1">
+        <v>19</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E851" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C852" s="1">
+        <v>20</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E852" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C859" s="1">
+        <v>0</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E859" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C860" s="1">
+        <v>1</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E860" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C861" s="1">
+        <v>2</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E861" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C862" s="1">
+        <v>3</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E862" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C863" s="1">
+        <v>0</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E863" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C864" s="1">
+        <v>1</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E864" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C865" s="1">
+        <v>2</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E865" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C866" s="1">
+        <v>3</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E866" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C867" s="1">
+        <v>1</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C868" s="1">
+        <v>2</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C869" s="1">
+        <v>3</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E257">
     <sortCondition ref="A2:A257"/>
@@ -11426,6 +16812,7 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dictionary" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,12 +53,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="A582" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A583" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A584" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A585" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A586" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A587" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A588" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A589" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BART interim variables listed as a check that we have everything.  Need to update and check all values when real data comes in.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="404">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1149,61 +1341,127 @@
     <t>BART Interim</t>
   </si>
   <si>
-    <t>DE_PLACE_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>DE_ADDRESS_LAT</t>
-  </si>
-  <si>
-    <t>DE_ADDRESS_LONG</t>
-  </si>
-  <si>
-    <t>EGRESS_TO_1ST_RTE_CODE</t>
-  </si>
-  <si>
-    <t>ACCESS_TO_1ST_RTE_CODE</t>
-  </si>
-  <si>
-    <t>ADULTS_IN_HH_CODE</t>
-  </si>
-  <si>
     <t>FIRST_ENTERED_BART</t>
   </si>
   <si>
     <t>BART_EXIT_STATION</t>
   </si>
   <si>
-    <t>CLIPPER_REG_ADULT_CODE</t>
-  </si>
-  <si>
-    <t>HOME_ADDRESS_LAT</t>
-  </si>
-  <si>
-    <t>HOME_ADDRESS_LONG</t>
-  </si>
-  <si>
-    <t>OR_ADDRESS_LAT</t>
-  </si>
-  <si>
-    <t>OR_ADDRESS_LON</t>
-  </si>
-  <si>
-    <t>OR_PLACE_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>HOW_PAID_FARE_CODE</t>
-  </si>
-  <si>
-    <t>SCHOOL_NAME_ADDRESS_LAT</t>
-  </si>
-  <si>
-    <t>SCHOOL_NAME_ADDRESS_LONG</t>
-  </si>
-  <si>
-    <t>DATE_STARTED</t>
-  </si>
-  <si>
-    <t>START_TIME_HHMM</t>
+    <t>BART</t>
+  </si>
+  <si>
+    <t>ACCESS_TO_1ST_RTE.Code.</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>DE_PLACE_TYPE.Code.</t>
+  </si>
+  <si>
+    <t>EGRESS_TO_1ST_RTE.Code.</t>
+  </si>
+  <si>
+    <t>ADULTS_IN_HH.Code.</t>
+  </si>
+  <si>
+    <t>ENGLISH_FLUENCY.Code.</t>
+  </si>
+  <si>
+    <t>CLIPPER_REG_ADULT.Code.</t>
+  </si>
+  <si>
+    <t>HH_INCOME.Code.</t>
+  </si>
+  <si>
+    <t>HISP_LATINO_SPANISH.Code.</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>OR_PLACE_TYPE.Code.</t>
+  </si>
+  <si>
+    <t>OTHER_LANG.Code.</t>
+  </si>
+  <si>
+    <t>HOW_PAID_FARE.Code.</t>
+  </si>
+  <si>
+    <t>PPL_IN_HH.Code.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..ASIAN.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..BLACK.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..AMALA.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..HAWPI.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..WHITE.</t>
+  </si>
+  <si>
+    <t>RESP_GENDER.Code.</t>
+  </si>
+  <si>
+    <t>SCHOOL_NAME_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>SCHOOL_NAME_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>TRIP_START_TIME2.Code.</t>
+  </si>
+  <si>
+    <t>FROM_TRNSFR_LIST1</t>
+  </si>
+  <si>
+    <t>FROM_TRNSFR_LIST2</t>
+  </si>
+  <si>
+    <t>FROM_TRNSFR_LIST3</t>
+  </si>
+  <si>
+    <t>TO_TRNSFR_LIST1</t>
+  </si>
+  <si>
+    <t>TO_TRNSFR_LIST2</t>
+  </si>
+  <si>
+    <t>TO_TRNSFR_LIST3</t>
+  </si>
+  <si>
+    <t>WORKP_NAME_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>WORKP_NAME_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>YEAR_BORN..Year.</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,6 +1530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1556,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1313,6 +1577,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1661,8 +1928,8 @@
   <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A581" sqref="A581"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A884" sqref="A884:E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11536,10 +11803,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C581" s="1">
         <v>1</v>
@@ -11553,10 +11820,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C582" s="1">
         <v>2</v>
@@ -11570,10 +11837,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C583" s="1">
         <v>3</v>
@@ -11587,10 +11854,10 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C584" s="1">
         <v>4</v>
@@ -11604,10 +11871,10 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C585" s="1">
         <v>5</v>
@@ -11621,10 +11888,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C586" s="1">
         <v>6</v>
@@ -11638,10 +11905,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C587" s="1">
         <v>7</v>
@@ -11655,10 +11922,10 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C588" s="1">
         <v>8</v>
@@ -11672,10 +11939,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C589" s="1">
         <v>9</v>
@@ -11689,7 +11956,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>70</v>
@@ -11706,7 +11973,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>70</v>
@@ -11723,7 +11990,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>258</v>
@@ -11740,7 +12007,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>258</v>
@@ -11757,10 +12024,10 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>4</v>
@@ -11774,10 +12041,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>4</v>
@@ -11791,10 +12058,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C596" s="1">
         <v>1</v>
@@ -11808,10 +12075,10 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C597" s="1">
         <v>2</v>
@@ -11825,10 +12092,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C598" s="1">
         <v>3</v>
@@ -11842,10 +12109,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C599" s="1">
         <v>4</v>
@@ -11859,10 +12126,10 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C600" s="1">
         <v>5</v>
@@ -11876,10 +12143,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C601" s="1">
         <v>6</v>
@@ -11893,10 +12160,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C602" s="1">
         <v>7</v>
@@ -11910,10 +12177,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C603" s="1">
         <v>8</v>
@@ -11927,10 +12194,10 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C604" s="1">
         <v>9</v>
@@ -11944,10 +12211,10 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C605" s="1">
         <v>10</v>
@@ -11961,10 +12228,10 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C606" s="1">
         <v>11</v>
@@ -11978,10 +12245,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C607" s="1">
         <v>12</v>
@@ -11995,10 +12262,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C608" s="1">
         <v>13</v>
@@ -12012,10 +12279,10 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C609" s="1">
         <v>14</v>
@@ -12029,10 +12296,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C610" s="1">
         <v>15</v>
@@ -12046,10 +12313,10 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C611" s="1">
         <v>16</v>
@@ -12063,10 +12330,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C612" s="1">
         <v>1</v>
@@ -12080,10 +12347,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C613" s="1">
         <v>2</v>
@@ -12097,10 +12364,10 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C614" s="1">
         <v>3</v>
@@ -12114,10 +12381,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C615" s="1">
         <v>4</v>
@@ -12131,10 +12398,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C616" s="1">
         <v>5</v>
@@ -12148,10 +12415,10 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C617" s="1">
         <v>6</v>
@@ -12165,10 +12432,10 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C618" s="1">
         <v>7</v>
@@ -12182,10 +12449,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C619" s="1">
         <v>8</v>
@@ -12199,10 +12466,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C620" s="1">
         <v>9</v>
@@ -12216,7 +12483,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>55</v>
@@ -12233,7 +12500,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>55</v>
@@ -12250,10 +12517,10 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C623" s="1">
         <v>0</v>
@@ -12267,10 +12534,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C624" s="1">
         <v>1</v>
@@ -12284,10 +12551,10 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C625" s="1">
         <v>2</v>
@@ -12301,10 +12568,10 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C626" s="1">
         <v>3</v>
@@ -12318,10 +12585,10 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C627" s="1">
         <v>4</v>
@@ -12335,10 +12602,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C628" s="1">
         <v>5</v>
@@ -12352,10 +12619,10 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C629" s="1">
         <v>6</v>
@@ -12369,10 +12636,10 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="C630" s="1">
         <v>1</v>
@@ -12386,10 +12653,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="C631" s="1">
         <v>2</v>
@@ -12403,10 +12670,10 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="C632" s="1">
         <v>3</v>
@@ -12420,10 +12687,10 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="C633" s="1">
         <v>4</v>
@@ -12437,10 +12704,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>4</v>
@@ -12453,45 +12720,45 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B635" s="1" t="s">
+      <c r="B635" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C635" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D635" s="1" t="s">
+      <c r="C635" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D635" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E635" s="1" t="s">
+      <c r="E635" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B636" s="1" t="s">
+      <c r="B636" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C636" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D636" s="1" t="s">
+      <c r="C636" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E636" s="1" t="s">
+      <c r="E636" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>4</v>
@@ -12504,45 +12771,45 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B638" s="1" t="s">
+      <c r="B638" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C638" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D638" s="1" t="s">
+      <c r="C638" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D638" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E638" s="1" t="s">
+      <c r="E638" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B639" s="1" t="s">
+      <c r="B639" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C639" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D639" s="1" t="s">
+      <c r="C639" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D639" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E639" s="1" t="s">
+      <c r="E639" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C640" s="1">
         <v>1</v>
@@ -12556,10 +12823,10 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C641" s="1">
         <v>2</v>
@@ -12573,10 +12840,10 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C642" s="1">
         <v>3</v>
@@ -12590,10 +12857,10 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C643" s="1">
         <v>4</v>
@@ -12607,10 +12874,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C644" s="1">
         <v>5</v>
@@ -12624,7 +12891,7 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>274</v>
@@ -12641,7 +12908,7 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>274</v>
@@ -12658,10 +12925,10 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C647" s="1">
         <v>1</v>
@@ -12675,10 +12942,10 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C648" s="1">
         <v>2</v>
@@ -12692,10 +12959,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C649" s="1">
         <v>3</v>
@@ -12709,10 +12976,10 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C650" s="1">
         <v>4</v>
@@ -12726,10 +12993,10 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C651" s="1">
         <v>5</v>
@@ -12743,10 +13010,10 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C652" s="1">
         <v>6</v>
@@ -12760,10 +13027,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C653" s="1">
         <v>7</v>
@@ -12777,10 +13044,10 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C654" s="1">
         <v>8</v>
@@ -12794,10 +13061,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C655" s="1">
         <v>9</v>
@@ -12811,10 +13078,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C656" s="1">
         <v>10</v>
@@ -12828,10 +13095,10 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C657" s="1">
         <v>88</v>
@@ -12845,10 +13112,10 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="C658" s="1">
         <v>99</v>
@@ -12862,10 +13129,10 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>155</v>
@@ -12879,10 +13146,10 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>154</v>
@@ -12896,10 +13163,10 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>4</v>
@@ -12913,10 +13180,10 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>4</v>
@@ -12930,10 +13197,10 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>4</v>
@@ -12947,7 +13214,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>171</v>
@@ -12964,7 +13231,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>171</v>
@@ -12981,10 +13248,10 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>4</v>
@@ -12998,10 +13265,10 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>4</v>
@@ -13015,10 +13282,10 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C668" s="1">
         <v>1</v>
@@ -13032,10 +13299,10 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C669" s="1">
         <v>2</v>
@@ -13049,10 +13316,10 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C670" s="1">
         <v>3</v>
@@ -13066,10 +13333,10 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C671" s="1">
         <v>4</v>
@@ -13083,10 +13350,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C672" s="1">
         <v>5</v>
@@ -13100,10 +13367,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C673" s="1">
         <v>6</v>
@@ -13117,10 +13384,10 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C674" s="1">
         <v>7</v>
@@ -13134,10 +13401,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C675" s="1">
         <v>8</v>
@@ -13151,10 +13418,10 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C676" s="1">
         <v>9</v>
@@ -13168,10 +13435,10 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C677" s="1">
         <v>10</v>
@@ -13185,10 +13452,10 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C678" s="1">
         <v>11</v>
@@ -13202,10 +13469,10 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C679" s="1">
         <v>12</v>
@@ -13219,10 +13486,10 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C680" s="1">
         <v>13</v>
@@ -13236,10 +13503,10 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C681" s="1">
         <v>14</v>
@@ -13253,10 +13520,10 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C682" s="1">
         <v>15</v>
@@ -13270,10 +13537,10 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C683" s="1">
         <v>16</v>
@@ -13287,10 +13554,10 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C684" s="1">
         <v>3</v>
@@ -13304,10 +13571,10 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C685" s="1">
         <v>7</v>
@@ -13321,10 +13588,10 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C686" s="1">
         <v>11</v>
@@ -13338,10 +13605,10 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C687" s="1">
         <v>13</v>
@@ -13355,10 +13622,10 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C688" s="1">
         <v>17</v>
@@ -13372,10 +13639,10 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C689" s="1">
         <v>18</v>
@@ -13389,10 +13656,10 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C690" s="1">
         <v>20</v>
@@ -13406,10 +13673,10 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C691" s="1">
         <v>30</v>
@@ -13423,10 +13690,10 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C692" s="1">
         <v>33</v>
@@ -13440,10 +13707,10 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C693" s="1">
         <v>34</v>
@@ -13457,10 +13724,10 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C694" s="1">
         <v>35</v>
@@ -13474,10 +13741,10 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C695" s="1">
         <v>37</v>
@@ -13491,10 +13758,10 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C696" s="1">
         <v>45</v>
@@ -13508,10 +13775,10 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C697" s="1">
         <v>51</v>
@@ -13525,10 +13792,10 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C698" s="1">
         <v>56</v>
@@ -13542,10 +13809,10 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C699" s="1">
         <v>58</v>
@@ -13559,10 +13826,10 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C700" s="1">
         <v>61</v>
@@ -13576,10 +13843,10 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C701" s="1">
         <v>63</v>
@@ -13593,10 +13860,10 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C702" s="1">
         <v>80</v>
@@ -13610,10 +13877,10 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C703" s="1">
         <v>84</v>
@@ -13627,10 +13894,10 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C704" s="1">
         <v>86</v>
@@ -13644,10 +13911,10 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C705" s="1">
         <v>95</v>
@@ -13661,10 +13928,10 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C706" s="1">
         <v>102</v>
@@ -13678,10 +13945,10 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C707" s="1">
         <v>104</v>
@@ -13695,10 +13962,10 @@
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C708" s="1">
         <v>111</v>
@@ -13712,10 +13979,10 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C709" s="1">
         <v>129</v>
@@ -13729,10 +13996,10 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C710" s="1">
         <v>135</v>
@@ -13746,10 +14013,10 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C711" s="1">
         <v>138</v>
@@ -13763,10 +14030,10 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C712" s="1">
         <v>142</v>
@@ -13780,10 +14047,10 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C713" s="1">
         <v>143</v>
@@ -13797,10 +14064,10 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C714" s="1">
         <v>144</v>
@@ -13814,10 +14081,10 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C715" s="1">
         <v>146</v>
@@ -13831,10 +14098,10 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C716" s="1">
         <v>148</v>
@@ -13848,10 +14115,10 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C717" s="1">
         <v>150</v>
@@ -13865,10 +14132,10 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C718" s="1">
         <v>151</v>
@@ -13882,10 +14149,10 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C719" s="1">
         <v>152</v>
@@ -13899,10 +14166,10 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C720" s="1">
         <v>154</v>
@@ -13916,10 +14183,10 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C721" s="1">
         <v>156</v>
@@ -13933,10 +14200,10 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C722" s="1">
         <v>159</v>
@@ -13950,10 +14217,10 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C723" s="1">
         <v>161</v>
@@ -13967,10 +14234,10 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C724" s="1">
         <v>174</v>
@@ -13984,10 +14251,10 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C725" s="1">
         <v>175</v>
@@ -14001,10 +14268,10 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C726" s="1">
         <v>186</v>
@@ -14018,10 +14285,10 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C727" s="1">
         <v>200</v>
@@ -14035,10 +14302,10 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C728" s="1">
         <v>208</v>
@@ -14052,10 +14319,10 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C729" s="1">
         <v>220</v>
@@ -14069,10 +14336,10 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C730" s="1">
         <v>237</v>
@@ -14086,10 +14353,10 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C731" s="1">
         <v>238</v>
@@ -14103,10 +14370,10 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C732" s="1">
         <v>243</v>
@@ -14120,10 +14387,10 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C733" s="1">
         <v>279</v>
@@ -14137,10 +14404,10 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C734" s="1">
         <v>288</v>
@@ -14154,10 +14421,10 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C735" s="1">
         <v>297</v>
@@ -14171,10 +14438,10 @@
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C736" s="1">
         <v>321</v>
@@ -14188,10 +14455,10 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C737" s="1">
         <v>325</v>
@@ -14205,10 +14472,10 @@
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C738" s="1">
         <v>351</v>
@@ -14222,10 +14489,10 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C739" s="1">
         <v>351</v>
@@ -14239,10 +14506,10 @@
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C740" s="1">
         <v>356</v>
@@ -14256,10 +14523,10 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C741" s="1">
         <v>358</v>
@@ -14273,10 +14540,10 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C742" s="1">
         <v>368</v>
@@ -14290,10 +14557,10 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C743" s="1">
         <v>378</v>
@@ -14307,10 +14574,10 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C744" s="1">
         <v>385</v>
@@ -14324,10 +14591,10 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C745" s="1">
         <v>393</v>
@@ -14341,10 +14608,10 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C746" s="1">
         <v>408</v>
@@ -14358,10 +14625,10 @@
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C747" s="1">
         <v>426</v>
@@ -14375,10 +14642,10 @@
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C748" s="1">
         <v>410</v>
@@ -14392,10 +14659,10 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C749" s="1">
         <v>419</v>
@@ -14409,10 +14676,10 @@
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C750" s="1">
         <v>421</v>
@@ -14426,10 +14693,10 @@
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C751" s="1">
         <v>432</v>
@@ -14443,10 +14710,10 @@
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C752" s="1">
         <v>436</v>
@@ -14460,10 +14727,10 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C753" s="1">
         <v>441</v>
@@ -14477,10 +14744,10 @@
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C754" s="1">
         <v>443</v>
@@ -14494,10 +14761,10 @@
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C755" s="1">
         <v>446</v>
@@ -14511,10 +14778,10 @@
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C756" s="1">
         <v>448</v>
@@ -14528,10 +14795,10 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C757" s="1">
         <v>452</v>
@@ -14545,10 +14812,10 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C758" s="1">
         <v>456</v>
@@ -14562,10 +14829,10 @@
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C759" s="1">
         <v>465</v>
@@ -14579,10 +14846,10 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C760" s="1">
         <v>488</v>
@@ -14596,10 +14863,10 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C761" s="1">
         <v>489</v>
@@ -14613,10 +14880,10 @@
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C762" s="1">
         <v>490</v>
@@ -14630,10 +14897,10 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C763" s="1">
         <v>491</v>
@@ -14647,10 +14914,10 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C764" s="1">
         <v>493</v>
@@ -14664,10 +14931,10 @@
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C765" s="1">
         <v>498</v>
@@ -14681,10 +14948,10 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C766" s="1">
         <v>499</v>
@@ -14698,10 +14965,10 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C767" s="1">
         <v>501</v>
@@ -14715,10 +14982,10 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C768" s="1">
         <v>502</v>
@@ -14732,10 +14999,10 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C769" s="1">
         <v>503</v>
@@ -14749,10 +15016,10 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C770" s="1">
         <v>504</v>
@@ -14766,10 +15033,10 @@
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C771" s="1">
         <v>600</v>
@@ -14783,10 +15050,10 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C772" s="1">
         <v>601</v>
@@ -14800,10 +15067,10 @@
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C773" s="1">
         <v>602</v>
@@ -14817,10 +15084,10 @@
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C774" s="1">
         <v>603</v>
@@ -14834,10 +15101,10 @@
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C775" s="1">
         <v>604</v>
@@ -14851,10 +15118,10 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="C776" s="1">
         <v>605</v>
@@ -14868,10 +15135,10 @@
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C777" s="1">
         <v>1</v>
@@ -14885,10 +15152,10 @@
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C778" s="1">
         <v>2</v>
@@ -14902,10 +15169,10 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C779" s="1">
         <v>3</v>
@@ -14919,10 +15186,10 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C780" s="1">
         <v>4</v>
@@ -14936,10 +15203,10 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C781" s="1">
         <v>5</v>
@@ -14953,10 +15220,10 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C782" s="1">
         <v>6</v>
@@ -14970,10 +15237,10 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C783" s="1">
         <v>7</v>
@@ -14987,10 +15254,10 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>27</v>
@@ -15004,10 +15271,10 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>36</v>
@@ -15021,10 +15288,10 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>28</v>
@@ -15038,10 +15305,10 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>29</v>
@@ -15055,10 +15322,10 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>30</v>
@@ -15072,10 +15339,10 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>31</v>
@@ -15089,10 +15356,10 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>32</v>
@@ -15106,10 +15373,10 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>33</v>
@@ -15123,10 +15390,10 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>34</v>
@@ -15140,10 +15407,10 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>35</v>
@@ -15157,10 +15424,10 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>57</v>
@@ -15174,10 +15441,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>56</v>
@@ -15191,10 +15458,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>57</v>
@@ -15208,10 +15475,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>56</v>
@@ -15225,10 +15492,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>57</v>
@@ -15242,10 +15509,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>56</v>
@@ -15259,10 +15526,10 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>57</v>
@@ -15276,10 +15543,10 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>56</v>
@@ -15293,7 +15560,7 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>169</v>
@@ -15310,10 +15577,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>57</v>
@@ -15327,10 +15594,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>56</v>
@@ -15344,10 +15611,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="C805" s="1">
         <v>1</v>
@@ -15361,10 +15628,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="C806" s="1">
         <v>2</v>
@@ -15378,10 +15645,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -15395,10 +15662,10 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>4</v>
@@ -15412,7 +15679,7 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>59</v>
@@ -15429,7 +15696,7 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>59</v>
@@ -15445,28 +15712,28 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B811" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C811" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D811" s="1" t="s">
+      <c r="A811" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B811" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C811" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D811" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E811" s="1" t="s">
+      <c r="E811" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>4</v>
@@ -15479,28 +15746,28 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B813" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C813" s="1">
+      <c r="A813" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B813" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C813" s="8">
         <v>1</v>
       </c>
-      <c r="D813" s="1" t="s">
+      <c r="D813" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E813" s="1">
+      <c r="E813" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C814" s="1">
         <v>2</v>
@@ -15514,10 +15781,10 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C815" s="1">
         <v>3</v>
@@ -15531,10 +15798,10 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C816" s="1">
         <v>4</v>
@@ -15548,10 +15815,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C817" s="1">
         <v>5</v>
@@ -15565,10 +15832,10 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C818" s="1">
         <v>6</v>
@@ -15582,10 +15849,10 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C819" s="1">
         <v>7</v>
@@ -15599,10 +15866,10 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C820" s="1">
         <v>8</v>
@@ -15616,10 +15883,10 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C821" s="1">
         <v>9</v>
@@ -15633,10 +15900,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C822" s="1">
         <v>10</v>
@@ -15650,10 +15917,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C823" s="1">
         <v>11</v>
@@ -15667,10 +15934,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C824" s="1">
         <v>12</v>
@@ -15684,10 +15951,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C825" s="1">
         <v>13</v>
@@ -15701,10 +15968,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C826" s="1">
         <v>14</v>
@@ -15718,10 +15985,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C827" s="1">
         <v>15</v>
@@ -15735,10 +16002,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C828" s="1">
         <v>16</v>
@@ -15752,10 +16019,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C829" s="1">
         <v>17</v>
@@ -15769,10 +16036,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C830" s="1">
         <v>18</v>
@@ -15786,10 +16053,10 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C831" s="1">
         <v>19</v>
@@ -15803,10 +16070,10 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="C832" s="1">
         <v>20</v>
@@ -15819,351 +16086,351 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B833" s="1" t="s">
+      <c r="B833" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C833" s="1">
+      <c r="C833" s="8">
         <v>1</v>
       </c>
-      <c r="D833" s="1" t="s">
+      <c r="D833" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E833" s="1">
+      <c r="E833" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
+      <c r="A834" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B834" s="1" t="s">
+      <c r="B834" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C834" s="1">
+      <c r="C834" s="8">
         <v>2</v>
       </c>
-      <c r="D834" s="1" t="s">
+      <c r="D834" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E834" s="1">
+      <c r="E834" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
+      <c r="A835" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B835" s="1" t="s">
+      <c r="B835" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C835" s="1">
+      <c r="C835" s="8">
         <v>3</v>
       </c>
-      <c r="D835" s="1" t="s">
+      <c r="D835" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E835" s="1">
+      <c r="E835" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B836" s="1" t="s">
+      <c r="B836" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C836" s="1">
-        <v>4</v>
-      </c>
-      <c r="D836" s="1" t="s">
+      <c r="C836" s="8">
+        <v>4</v>
+      </c>
+      <c r="D836" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E836" s="1">
+      <c r="E836" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
+      <c r="A837" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B837" s="1" t="s">
+      <c r="B837" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C837" s="1">
+      <c r="C837" s="8">
         <v>5</v>
       </c>
-      <c r="D837" s="1" t="s">
+      <c r="D837" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E837" s="1">
+      <c r="E837" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B838" s="1" t="s">
+      <c r="B838" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C838" s="1">
+      <c r="C838" s="8">
         <v>6</v>
       </c>
-      <c r="D838" s="1" t="s">
+      <c r="D838" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E838" s="1">
+      <c r="E838" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B839" s="1" t="s">
+      <c r="B839" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C839" s="1">
+      <c r="C839" s="8">
         <v>7</v>
       </c>
-      <c r="D839" s="1" t="s">
+      <c r="D839" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E839" s="1">
+      <c r="E839" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
+      <c r="A840" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B840" s="1" t="s">
+      <c r="B840" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C840" s="1">
+      <c r="C840" s="8">
         <v>8</v>
       </c>
-      <c r="D840" s="1" t="s">
+      <c r="D840" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E840" s="1">
+      <c r="E840" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B841" s="1" t="s">
+      <c r="B841" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C841" s="1">
+      <c r="C841" s="8">
         <v>9</v>
       </c>
-      <c r="D841" s="1" t="s">
+      <c r="D841" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E841" s="1">
+      <c r="E841" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B842" s="1" t="s">
+      <c r="B842" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C842" s="1">
+      <c r="C842" s="8">
         <v>10</v>
       </c>
-      <c r="D842" s="1" t="s">
+      <c r="D842" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E842" s="1">
+      <c r="E842" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B843" s="1" t="s">
+      <c r="B843" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C843" s="1">
+      <c r="C843" s="8">
         <v>11</v>
       </c>
-      <c r="D843" s="1" t="s">
+      <c r="D843" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E843" s="1">
+      <c r="E843" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1" t="s">
+      <c r="A844" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B844" s="1" t="s">
+      <c r="B844" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C844" s="1">
+      <c r="C844" s="8">
         <v>12</v>
       </c>
-      <c r="D844" s="1" t="s">
+      <c r="D844" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E844" s="1">
+      <c r="E844" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B845" s="1" t="s">
+      <c r="B845" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C845" s="1">
+      <c r="C845" s="8">
         <v>13</v>
       </c>
-      <c r="D845" s="1" t="s">
+      <c r="D845" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E845" s="1">
+      <c r="E845" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B846" s="1" t="s">
+      <c r="B846" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C846" s="1">
+      <c r="C846" s="8">
         <v>14</v>
       </c>
-      <c r="D846" s="1" t="s">
+      <c r="D846" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E846" s="1">
+      <c r="E846" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B847" s="1" t="s">
+      <c r="B847" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C847" s="1">
+      <c r="C847" s="8">
         <v>15</v>
       </c>
-      <c r="D847" s="1" t="s">
+      <c r="D847" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E847" s="1">
+      <c r="E847" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B848" s="1" t="s">
+      <c r="B848" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C848" s="1">
+      <c r="C848" s="8">
         <v>16</v>
       </c>
-      <c r="D848" s="1" t="s">
+      <c r="D848" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E848" s="1">
+      <c r="E848" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B849" s="1" t="s">
+      <c r="B849" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C849" s="1">
+      <c r="C849" s="8">
         <v>17</v>
       </c>
-      <c r="D849" s="1" t="s">
+      <c r="D849" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E849" s="1">
+      <c r="E849" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B850" s="1" t="s">
+      <c r="B850" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C850" s="1">
+      <c r="C850" s="8">
         <v>18</v>
       </c>
-      <c r="D850" s="1" t="s">
+      <c r="D850" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E850" s="1">
+      <c r="E850" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B851" s="1" t="s">
+      <c r="B851" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C851" s="1">
+      <c r="C851" s="8">
         <v>19</v>
       </c>
-      <c r="D851" s="1" t="s">
+      <c r="D851" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E851" s="1">
+      <c r="E851" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B852" s="1" t="s">
+      <c r="B852" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C852" s="1">
+      <c r="C852" s="8">
         <v>20</v>
       </c>
-      <c r="D852" s="1" t="s">
+      <c r="D852" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E852" s="1">
+      <c r="E852" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>4</v>
@@ -16177,10 +16444,10 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>118</v>
+        <v>396</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>4</v>
@@ -16194,10 +16461,10 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>4</v>
@@ -16211,10 +16478,10 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>4</v>
@@ -16228,10 +16495,10 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>4</v>
@@ -16245,10 +16512,10 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>4</v>
@@ -16261,144 +16528,144 @@
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
+      <c r="A859" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B859" s="1" t="s">
+      <c r="B859" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C859" s="1">
+      <c r="C859" s="8">
         <v>0</v>
       </c>
-      <c r="D859" s="1" t="s">
+      <c r="D859" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E859" s="1">
+      <c r="E859" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
+      <c r="A860" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B860" s="1" t="s">
+      <c r="B860" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C860" s="1">
+      <c r="C860" s="8">
         <v>1</v>
       </c>
-      <c r="D860" s="1" t="s">
+      <c r="D860" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E860" s="1">
+      <c r="E860" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
+      <c r="A861" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B861" s="1" t="s">
+      <c r="B861" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C861" s="1">
+      <c r="C861" s="8">
         <v>2</v>
       </c>
-      <c r="D861" s="1" t="s">
+      <c r="D861" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E861" s="1">
+      <c r="E861" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
+      <c r="A862" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B862" s="1" t="s">
+      <c r="B862" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C862" s="1">
+      <c r="C862" s="8">
         <v>3</v>
       </c>
-      <c r="D862" s="1" t="s">
+      <c r="D862" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E862" s="1">
+      <c r="E862" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
+      <c r="A863" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B863" s="1" t="s">
+      <c r="B863" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C863" s="1">
+      <c r="C863" s="8">
         <v>0</v>
       </c>
-      <c r="D863" s="1" t="s">
+      <c r="D863" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E863" s="1">
+      <c r="E863" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
+      <c r="A864" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B864" s="1" t="s">
+      <c r="B864" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C864" s="1">
+      <c r="C864" s="8">
         <v>1</v>
       </c>
-      <c r="D864" s="1" t="s">
+      <c r="D864" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E864" s="1">
+      <c r="E864" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
+      <c r="A865" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B865" s="1" t="s">
+      <c r="B865" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C865" s="1">
+      <c r="C865" s="8">
         <v>2</v>
       </c>
-      <c r="D865" s="1" t="s">
+      <c r="D865" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E865" s="1">
+      <c r="E865" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
+      <c r="A866" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B866" s="1" t="s">
+      <c r="B866" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C866" s="1">
+      <c r="C866" s="8">
         <v>3</v>
       </c>
-      <c r="D866" s="1" t="s">
+      <c r="D866" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E866" s="1">
+      <c r="E866" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>8</v>
@@ -16415,7 +16682,7 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>8</v>
@@ -16432,7 +16699,7 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>8</v>
@@ -16449,7 +16716,7 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>8</v>
@@ -16466,7 +16733,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>8</v>
@@ -16483,7 +16750,7 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>77</v>
@@ -16500,7 +16767,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>77</v>
@@ -16517,10 +16784,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>4</v>
@@ -16534,10 +16801,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>4</v>
@@ -16551,10 +16818,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
@@ -16567,240 +16834,240 @@
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A877" s="1" t="s">
+      <c r="A877" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B877" s="1" t="s">
+      <c r="B877" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C877" s="1" t="s">
+      <c r="C877" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D877" s="1" t="s">
+      <c r="D877" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E877" s="1" t="s">
+      <c r="E877" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A878" s="1" t="s">
+      <c r="A878" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B878" s="1" t="s">
+      <c r="B878" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C878" s="1" t="s">
+      <c r="C878" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D878" s="1" t="s">
+      <c r="D878" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E878" s="1" t="s">
+      <c r="E878" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A879" s="1" t="s">
+      <c r="A879" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B879" s="1" t="s">
+      <c r="B879" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C879" s="1" t="s">
+      <c r="C879" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D879" s="1" t="s">
+      <c r="D879" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E879" s="1" t="s">
+      <c r="E879" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
+      <c r="A880" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B880" s="1" t="s">
+      <c r="B880" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C880" s="1" t="s">
+      <c r="C880" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D880" s="1" t="s">
+      <c r="D880" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E880" s="1" t="s">
+      <c r="E880" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A881" s="1" t="s">
+      <c r="A881" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B881" s="1" t="s">
+      <c r="B881" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C881" s="1" t="s">
+      <c r="C881" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D881" s="1" t="s">
+      <c r="D881" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E881" s="1" t="s">
+      <c r="E881" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A882" s="1" t="s">
+      <c r="A882" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B882" s="1" t="s">
+      <c r="B882" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C882" s="1" t="s">
+      <c r="C882" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D882" s="1" t="s">
+      <c r="D882" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="E882" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A883" s="1" t="s">
+      <c r="A883" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B883" s="1" t="s">
+      <c r="B883" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C883" s="1" t="s">
+      <c r="C883" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D883" s="1" t="s">
+      <c r="D883" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E883" s="1" t="s">
+      <c r="E883" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A884" s="1" t="s">
+      <c r="A884" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B884" s="1" t="s">
+      <c r="B884" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C884" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D884" s="1" t="s">
+      <c r="C884" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D884" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E884" s="1" t="s">
+      <c r="E884" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A885" s="1" t="s">
+      <c r="A885" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B885" s="1" t="s">
+      <c r="B885" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C885" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D885" s="1" t="s">
+      <c r="C885" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D885" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E885" s="1" t="s">
+      <c r="E885" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A886" s="1" t="s">
+      <c r="A886" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B886" s="1" t="s">
+      <c r="B886" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C886" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D886" s="1" t="s">
+      <c r="C886" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D886" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E886" s="1" t="s">
+      <c r="E886" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A887" s="1" t="s">
+      <c r="A887" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B887" s="1" t="s">
+      <c r="B887" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C887" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D887" s="1" t="s">
+      <c r="C887" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D887" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E887" s="1" t="s">
+      <c r="E887" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
+      <c r="A888" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B888" s="1" t="s">
+      <c r="B888" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C888" s="1" t="s">
+      <c r="C888" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D888" s="1" t="s">
+      <c r="D888" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E888" s="1" t="s">
+      <c r="E888" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A889" s="1" t="s">
+      <c r="A889" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B889" s="1" t="s">
+      <c r="B889" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C889" s="1" t="s">
+      <c r="C889" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D889" s="1" t="s">
+      <c r="D889" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E889" s="1" t="s">
+      <c r="E889" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A890" s="1" t="s">
+      <c r="A890" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B890" s="1" t="s">
+      <c r="B890" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C890" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D890" s="1" t="s">
+      <c r="C890" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D890" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E890" s="1" t="s">
+      <c r="E890" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="405">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1350,9 +1350,6 @@
     <t>BART</t>
   </si>
   <si>
-    <t>ACCESS_TO_1ST_RTE.Code.</t>
-  </si>
-  <si>
     <t>DE_ADDRESS..LAT.</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>DE_PLACE_TYPE.Code.</t>
   </si>
   <si>
-    <t>EGRESS_TO_1ST_RTE.Code.</t>
-  </si>
-  <si>
     <t>ADULTS_IN_HH.Code.</t>
   </si>
   <si>
@@ -1386,9 +1380,6 @@
     <t>HOME_ADDRESS..LONG.</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>OR_ADDRESS..LAT.</t>
   </si>
   <si>
@@ -1462,6 +1453,18 @@
   </si>
   <si>
     <t>YEAR_BORN..Year.</t>
+  </si>
+  <si>
+    <t>TRIP_END_TIME2.Code.</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY..Other.</t>
+  </si>
+  <si>
+    <t>OR_TRANSPORT.Code.</t>
+  </si>
+  <si>
+    <t>DE_TRANSPORT.Code.</t>
   </si>
 </sst>
 </file>
@@ -1928,8 +1931,8 @@
   <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A884" sqref="A884:E890"/>
+      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A878" sqref="A878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11806,7 +11809,7 @@
         <v>365</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C581" s="1">
         <v>1</v>
@@ -11823,7 +11826,7 @@
         <v>365</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C582" s="1">
         <v>2</v>
@@ -11840,7 +11843,7 @@
         <v>365</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C583" s="1">
         <v>3</v>
@@ -11857,7 +11860,7 @@
         <v>365</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C584" s="1">
         <v>4</v>
@@ -11874,7 +11877,7 @@
         <v>365</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C585" s="1">
         <v>5</v>
@@ -11891,7 +11894,7 @@
         <v>365</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C586" s="1">
         <v>6</v>
@@ -11908,7 +11911,7 @@
         <v>365</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C587" s="1">
         <v>7</v>
@@ -11925,7 +11928,7 @@
         <v>365</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C588" s="1">
         <v>8</v>
@@ -11942,7 +11945,7 @@
         <v>365</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C589" s="1">
         <v>9</v>
@@ -12027,7 +12030,7 @@
         <v>365</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>4</v>
@@ -12044,7 +12047,7 @@
         <v>365</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>4</v>
@@ -12061,7 +12064,7 @@
         <v>365</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C596" s="1">
         <v>1</v>
@@ -12078,7 +12081,7 @@
         <v>365</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C597" s="1">
         <v>2</v>
@@ -12095,7 +12098,7 @@
         <v>365</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C598" s="1">
         <v>3</v>
@@ -12112,7 +12115,7 @@
         <v>365</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C599" s="1">
         <v>4</v>
@@ -12129,7 +12132,7 @@
         <v>365</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C600" s="1">
         <v>5</v>
@@ -12146,7 +12149,7 @@
         <v>365</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C601" s="1">
         <v>6</v>
@@ -12163,7 +12166,7 @@
         <v>365</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C602" s="1">
         <v>7</v>
@@ -12180,7 +12183,7 @@
         <v>365</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C603" s="1">
         <v>8</v>
@@ -12197,7 +12200,7 @@
         <v>365</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C604" s="1">
         <v>9</v>
@@ -12214,7 +12217,7 @@
         <v>365</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C605" s="1">
         <v>10</v>
@@ -12231,7 +12234,7 @@
         <v>365</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C606" s="1">
         <v>11</v>
@@ -12248,7 +12251,7 @@
         <v>365</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C607" s="1">
         <v>12</v>
@@ -12265,7 +12268,7 @@
         <v>365</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C608" s="1">
         <v>13</v>
@@ -12282,7 +12285,7 @@
         <v>365</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C609" s="1">
         <v>14</v>
@@ -12299,7 +12302,7 @@
         <v>365</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C610" s="1">
         <v>15</v>
@@ -12316,7 +12319,7 @@
         <v>365</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C611" s="1">
         <v>16</v>
@@ -12333,7 +12336,7 @@
         <v>365</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C612" s="1">
         <v>1</v>
@@ -12350,7 +12353,7 @@
         <v>365</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C613" s="1">
         <v>2</v>
@@ -12367,7 +12370,7 @@
         <v>365</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C614" s="1">
         <v>3</v>
@@ -12384,7 +12387,7 @@
         <v>365</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C615" s="1">
         <v>4</v>
@@ -12401,7 +12404,7 @@
         <v>365</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C616" s="1">
         <v>5</v>
@@ -12418,7 +12421,7 @@
         <v>365</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C617" s="1">
         <v>6</v>
@@ -12435,7 +12438,7 @@
         <v>365</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C618" s="1">
         <v>7</v>
@@ -12452,7 +12455,7 @@
         <v>365</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C619" s="1">
         <v>8</v>
@@ -12469,7 +12472,7 @@
         <v>365</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="C620" s="1">
         <v>9</v>
@@ -12520,7 +12523,7 @@
         <v>365</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C623" s="1">
         <v>0</v>
@@ -12537,7 +12540,7 @@
         <v>365</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C624" s="1">
         <v>1</v>
@@ -12554,7 +12557,7 @@
         <v>365</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C625" s="1">
         <v>2</v>
@@ -12571,7 +12574,7 @@
         <v>365</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C626" s="1">
         <v>3</v>
@@ -12588,7 +12591,7 @@
         <v>365</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C627" s="1">
         <v>4</v>
@@ -12605,7 +12608,7 @@
         <v>365</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C628" s="1">
         <v>5</v>
@@ -12622,7 +12625,7 @@
         <v>365</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C629" s="1">
         <v>6</v>
@@ -12639,7 +12642,7 @@
         <v>365</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C630" s="1">
         <v>1</v>
@@ -12656,7 +12659,7 @@
         <v>365</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C631" s="1">
         <v>2</v>
@@ -12673,7 +12676,7 @@
         <v>365</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C632" s="1">
         <v>3</v>
@@ -12690,7 +12693,7 @@
         <v>365</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C633" s="1">
         <v>4</v>
@@ -12809,7 +12812,7 @@
         <v>365</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C640" s="1">
         <v>1</v>
@@ -12826,7 +12829,7 @@
         <v>365</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C641" s="1">
         <v>2</v>
@@ -12843,7 +12846,7 @@
         <v>365</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C642" s="1">
         <v>3</v>
@@ -12860,7 +12863,7 @@
         <v>365</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C643" s="1">
         <v>4</v>
@@ -12877,7 +12880,7 @@
         <v>365</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C644" s="1">
         <v>5</v>
@@ -12928,7 +12931,7 @@
         <v>365</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C647" s="1">
         <v>1</v>
@@ -12945,7 +12948,7 @@
         <v>365</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C648" s="1">
         <v>2</v>
@@ -12962,7 +12965,7 @@
         <v>365</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C649" s="1">
         <v>3</v>
@@ -12979,7 +12982,7 @@
         <v>365</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C650" s="1">
         <v>4</v>
@@ -12996,7 +12999,7 @@
         <v>365</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C651" s="1">
         <v>5</v>
@@ -13013,7 +13016,7 @@
         <v>365</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C652" s="1">
         <v>6</v>
@@ -13030,7 +13033,7 @@
         <v>365</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C653" s="1">
         <v>7</v>
@@ -13047,7 +13050,7 @@
         <v>365</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C654" s="1">
         <v>8</v>
@@ -13064,7 +13067,7 @@
         <v>365</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C655" s="1">
         <v>9</v>
@@ -13081,7 +13084,7 @@
         <v>365</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C656" s="1">
         <v>10</v>
@@ -13098,7 +13101,7 @@
         <v>365</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C657" s="1">
         <v>88</v>
@@ -13115,7 +13118,7 @@
         <v>365</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C658" s="1">
         <v>99</v>
@@ -13132,7 +13135,7 @@
         <v>365</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>155</v>
@@ -13149,7 +13152,7 @@
         <v>365</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>154</v>
@@ -13166,7 +13169,7 @@
         <v>365</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>4</v>
@@ -13183,7 +13186,7 @@
         <v>365</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>4</v>
@@ -13200,7 +13203,7 @@
         <v>365</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>4</v>
@@ -13251,7 +13254,7 @@
         <v>365</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>4</v>
@@ -13268,7 +13271,7 @@
         <v>365</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>4</v>
@@ -13285,7 +13288,7 @@
         <v>365</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C668" s="1">
         <v>1</v>
@@ -13302,7 +13305,7 @@
         <v>365</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C669" s="1">
         <v>2</v>
@@ -13319,7 +13322,7 @@
         <v>365</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C670" s="1">
         <v>3</v>
@@ -13336,7 +13339,7 @@
         <v>365</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C671" s="1">
         <v>4</v>
@@ -13353,7 +13356,7 @@
         <v>365</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C672" s="1">
         <v>5</v>
@@ -13370,7 +13373,7 @@
         <v>365</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C673" s="1">
         <v>6</v>
@@ -13387,7 +13390,7 @@
         <v>365</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C674" s="1">
         <v>7</v>
@@ -13404,7 +13407,7 @@
         <v>365</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C675" s="1">
         <v>8</v>
@@ -13421,7 +13424,7 @@
         <v>365</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C676" s="1">
         <v>9</v>
@@ -13438,7 +13441,7 @@
         <v>365</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C677" s="1">
         <v>10</v>
@@ -13455,7 +13458,7 @@
         <v>365</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C678" s="1">
         <v>11</v>
@@ -13472,7 +13475,7 @@
         <v>365</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C679" s="1">
         <v>12</v>
@@ -13489,7 +13492,7 @@
         <v>365</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C680" s="1">
         <v>13</v>
@@ -13506,7 +13509,7 @@
         <v>365</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C681" s="1">
         <v>14</v>
@@ -13523,7 +13526,7 @@
         <v>365</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C682" s="1">
         <v>15</v>
@@ -13540,7 +13543,7 @@
         <v>365</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C683" s="1">
         <v>16</v>
@@ -13557,7 +13560,7 @@
         <v>365</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C684" s="1">
         <v>3</v>
@@ -13574,7 +13577,7 @@
         <v>365</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C685" s="1">
         <v>7</v>
@@ -13591,7 +13594,7 @@
         <v>365</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C686" s="1">
         <v>11</v>
@@ -13608,7 +13611,7 @@
         <v>365</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C687" s="1">
         <v>13</v>
@@ -13625,7 +13628,7 @@
         <v>365</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C688" s="1">
         <v>17</v>
@@ -13642,7 +13645,7 @@
         <v>365</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C689" s="1">
         <v>18</v>
@@ -13659,7 +13662,7 @@
         <v>365</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C690" s="1">
         <v>20</v>
@@ -13676,7 +13679,7 @@
         <v>365</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C691" s="1">
         <v>30</v>
@@ -13693,7 +13696,7 @@
         <v>365</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C692" s="1">
         <v>33</v>
@@ -13710,7 +13713,7 @@
         <v>365</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C693" s="1">
         <v>34</v>
@@ -13727,7 +13730,7 @@
         <v>365</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C694" s="1">
         <v>35</v>
@@ -13744,7 +13747,7 @@
         <v>365</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C695" s="1">
         <v>37</v>
@@ -13761,7 +13764,7 @@
         <v>365</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C696" s="1">
         <v>45</v>
@@ -13778,7 +13781,7 @@
         <v>365</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C697" s="1">
         <v>51</v>
@@ -13795,7 +13798,7 @@
         <v>365</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C698" s="1">
         <v>56</v>
@@ -13812,7 +13815,7 @@
         <v>365</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C699" s="1">
         <v>58</v>
@@ -13829,7 +13832,7 @@
         <v>365</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C700" s="1">
         <v>61</v>
@@ -13846,7 +13849,7 @@
         <v>365</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C701" s="1">
         <v>63</v>
@@ -13863,7 +13866,7 @@
         <v>365</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C702" s="1">
         <v>80</v>
@@ -13880,7 +13883,7 @@
         <v>365</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C703" s="1">
         <v>84</v>
@@ -13897,7 +13900,7 @@
         <v>365</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C704" s="1">
         <v>86</v>
@@ -13914,7 +13917,7 @@
         <v>365</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C705" s="1">
         <v>95</v>
@@ -13931,7 +13934,7 @@
         <v>365</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C706" s="1">
         <v>102</v>
@@ -13948,7 +13951,7 @@
         <v>365</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C707" s="1">
         <v>104</v>
@@ -13965,7 +13968,7 @@
         <v>365</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C708" s="1">
         <v>111</v>
@@ -13982,7 +13985,7 @@
         <v>365</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C709" s="1">
         <v>129</v>
@@ -13999,7 +14002,7 @@
         <v>365</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C710" s="1">
         <v>135</v>
@@ -14016,7 +14019,7 @@
         <v>365</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C711" s="1">
         <v>138</v>
@@ -14033,7 +14036,7 @@
         <v>365</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C712" s="1">
         <v>142</v>
@@ -14050,7 +14053,7 @@
         <v>365</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C713" s="1">
         <v>143</v>
@@ -14067,7 +14070,7 @@
         <v>365</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C714" s="1">
         <v>144</v>
@@ -14084,7 +14087,7 @@
         <v>365</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C715" s="1">
         <v>146</v>
@@ -14101,7 +14104,7 @@
         <v>365</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C716" s="1">
         <v>148</v>
@@ -14118,7 +14121,7 @@
         <v>365</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C717" s="1">
         <v>150</v>
@@ -14135,7 +14138,7 @@
         <v>365</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C718" s="1">
         <v>151</v>
@@ -14152,7 +14155,7 @@
         <v>365</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C719" s="1">
         <v>152</v>
@@ -14169,7 +14172,7 @@
         <v>365</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C720" s="1">
         <v>154</v>
@@ -14186,7 +14189,7 @@
         <v>365</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C721" s="1">
         <v>156</v>
@@ -14203,7 +14206,7 @@
         <v>365</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C722" s="1">
         <v>159</v>
@@ -14220,7 +14223,7 @@
         <v>365</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C723" s="1">
         <v>161</v>
@@ -14237,7 +14240,7 @@
         <v>365</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C724" s="1">
         <v>174</v>
@@ -14254,7 +14257,7 @@
         <v>365</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C725" s="1">
         <v>175</v>
@@ -14271,7 +14274,7 @@
         <v>365</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C726" s="1">
         <v>186</v>
@@ -14288,7 +14291,7 @@
         <v>365</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C727" s="1">
         <v>200</v>
@@ -14305,7 +14308,7 @@
         <v>365</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C728" s="1">
         <v>208</v>
@@ -14322,7 +14325,7 @@
         <v>365</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C729" s="1">
         <v>220</v>
@@ -14339,7 +14342,7 @@
         <v>365</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C730" s="1">
         <v>237</v>
@@ -14356,7 +14359,7 @@
         <v>365</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C731" s="1">
         <v>238</v>
@@ -14373,7 +14376,7 @@
         <v>365</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C732" s="1">
         <v>243</v>
@@ -14390,7 +14393,7 @@
         <v>365</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C733" s="1">
         <v>279</v>
@@ -14407,7 +14410,7 @@
         <v>365</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C734" s="1">
         <v>288</v>
@@ -14424,7 +14427,7 @@
         <v>365</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C735" s="1">
         <v>297</v>
@@ -14441,7 +14444,7 @@
         <v>365</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C736" s="1">
         <v>321</v>
@@ -14458,7 +14461,7 @@
         <v>365</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C737" s="1">
         <v>325</v>
@@ -14475,7 +14478,7 @@
         <v>365</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C738" s="1">
         <v>351</v>
@@ -14492,7 +14495,7 @@
         <v>365</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C739" s="1">
         <v>351</v>
@@ -14509,7 +14512,7 @@
         <v>365</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C740" s="1">
         <v>356</v>
@@ -14526,7 +14529,7 @@
         <v>365</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C741" s="1">
         <v>358</v>
@@ -14543,7 +14546,7 @@
         <v>365</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C742" s="1">
         <v>368</v>
@@ -14560,7 +14563,7 @@
         <v>365</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C743" s="1">
         <v>378</v>
@@ -14577,7 +14580,7 @@
         <v>365</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C744" s="1">
         <v>385</v>
@@ -14594,7 +14597,7 @@
         <v>365</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C745" s="1">
         <v>393</v>
@@ -14611,7 +14614,7 @@
         <v>365</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C746" s="1">
         <v>408</v>
@@ -14628,7 +14631,7 @@
         <v>365</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C747" s="1">
         <v>426</v>
@@ -14645,7 +14648,7 @@
         <v>365</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C748" s="1">
         <v>410</v>
@@ -14662,7 +14665,7 @@
         <v>365</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C749" s="1">
         <v>419</v>
@@ -14679,7 +14682,7 @@
         <v>365</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C750" s="1">
         <v>421</v>
@@ -14696,7 +14699,7 @@
         <v>365</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C751" s="1">
         <v>432</v>
@@ -14713,7 +14716,7 @@
         <v>365</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C752" s="1">
         <v>436</v>
@@ -14730,7 +14733,7 @@
         <v>365</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C753" s="1">
         <v>441</v>
@@ -14747,7 +14750,7 @@
         <v>365</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C754" s="1">
         <v>443</v>
@@ -14764,7 +14767,7 @@
         <v>365</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C755" s="1">
         <v>446</v>
@@ -14781,7 +14784,7 @@
         <v>365</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C756" s="1">
         <v>448</v>
@@ -14798,7 +14801,7 @@
         <v>365</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C757" s="1">
         <v>452</v>
@@ -14815,7 +14818,7 @@
         <v>365</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C758" s="1">
         <v>456</v>
@@ -14832,7 +14835,7 @@
         <v>365</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C759" s="1">
         <v>465</v>
@@ -14849,7 +14852,7 @@
         <v>365</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C760" s="1">
         <v>488</v>
@@ -14866,7 +14869,7 @@
         <v>365</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C761" s="1">
         <v>489</v>
@@ -14883,7 +14886,7 @@
         <v>365</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C762" s="1">
         <v>490</v>
@@ -14900,7 +14903,7 @@
         <v>365</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C763" s="1">
         <v>491</v>
@@ -14917,7 +14920,7 @@
         <v>365</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C764" s="1">
         <v>493</v>
@@ -14934,7 +14937,7 @@
         <v>365</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C765" s="1">
         <v>498</v>
@@ -14951,7 +14954,7 @@
         <v>365</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C766" s="1">
         <v>499</v>
@@ -14968,7 +14971,7 @@
         <v>365</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C767" s="1">
         <v>501</v>
@@ -14985,7 +14988,7 @@
         <v>365</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C768" s="1">
         <v>502</v>
@@ -15002,7 +15005,7 @@
         <v>365</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C769" s="1">
         <v>503</v>
@@ -15019,7 +15022,7 @@
         <v>365</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C770" s="1">
         <v>504</v>
@@ -15036,7 +15039,7 @@
         <v>365</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C771" s="1">
         <v>600</v>
@@ -15053,7 +15056,7 @@
         <v>365</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C772" s="1">
         <v>601</v>
@@ -15070,7 +15073,7 @@
         <v>365</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C773" s="1">
         <v>602</v>
@@ -15087,7 +15090,7 @@
         <v>365</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C774" s="1">
         <v>603</v>
@@ -15104,7 +15107,7 @@
         <v>365</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C775" s="1">
         <v>604</v>
@@ -15121,7 +15124,7 @@
         <v>365</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C776" s="1">
         <v>605</v>
@@ -15138,7 +15141,7 @@
         <v>365</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C777" s="1">
         <v>1</v>
@@ -15155,7 +15158,7 @@
         <v>365</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C778" s="1">
         <v>2</v>
@@ -15172,7 +15175,7 @@
         <v>365</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C779" s="1">
         <v>3</v>
@@ -15189,7 +15192,7 @@
         <v>365</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C780" s="1">
         <v>4</v>
@@ -15206,7 +15209,7 @@
         <v>365</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C781" s="1">
         <v>5</v>
@@ -15223,7 +15226,7 @@
         <v>365</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C782" s="1">
         <v>6</v>
@@ -15240,7 +15243,7 @@
         <v>365</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C783" s="1">
         <v>7</v>
@@ -15257,7 +15260,7 @@
         <v>365</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>27</v>
@@ -15274,7 +15277,7 @@
         <v>365</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>36</v>
@@ -15291,7 +15294,7 @@
         <v>365</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>28</v>
@@ -15308,7 +15311,7 @@
         <v>365</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>29</v>
@@ -15325,7 +15328,7 @@
         <v>365</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>30</v>
@@ -15342,7 +15345,7 @@
         <v>365</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>31</v>
@@ -15359,7 +15362,7 @@
         <v>365</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>32</v>
@@ -15376,7 +15379,7 @@
         <v>365</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>33</v>
@@ -15393,7 +15396,7 @@
         <v>365</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>34</v>
@@ -15410,7 +15413,7 @@
         <v>365</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>35</v>
@@ -15427,7 +15430,7 @@
         <v>365</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>57</v>
@@ -15444,7 +15447,7 @@
         <v>365</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>56</v>
@@ -15461,7 +15464,7 @@
         <v>365</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>57</v>
@@ -15478,7 +15481,7 @@
         <v>365</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>56</v>
@@ -15495,7 +15498,7 @@
         <v>365</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>57</v>
@@ -15512,7 +15515,7 @@
         <v>365</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>56</v>
@@ -15529,7 +15532,7 @@
         <v>365</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>57</v>
@@ -15546,7 +15549,7 @@
         <v>365</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>56</v>
@@ -15563,7 +15566,7 @@
         <v>365</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>4</v>
@@ -15580,7 +15583,7 @@
         <v>365</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>57</v>
@@ -15597,7 +15600,7 @@
         <v>365</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>56</v>
@@ -15614,7 +15617,7 @@
         <v>365</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C805" s="1">
         <v>1</v>
@@ -15631,7 +15634,7 @@
         <v>365</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C806" s="1">
         <v>2</v>
@@ -15648,7 +15651,7 @@
         <v>365</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -15665,7 +15668,7 @@
         <v>365</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>4</v>
@@ -15716,7 +15719,7 @@
         <v>365</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C811" s="8" t="s">
         <v>4</v>
@@ -15733,7 +15736,7 @@
         <v>365</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>4</v>
@@ -15746,19 +15749,19 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B813" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C813" s="8">
+      <c r="A813" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B813" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C813" s="5">
         <v>1</v>
       </c>
-      <c r="D813" s="8" t="s">
+      <c r="D813" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E813" s="8">
+      <c r="E813" s="5">
         <v>4</v>
       </c>
     </row>
@@ -15767,7 +15770,7 @@
         <v>365</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C814" s="1">
         <v>2</v>
@@ -15784,7 +15787,7 @@
         <v>365</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C815" s="1">
         <v>3</v>
@@ -15801,7 +15804,7 @@
         <v>365</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C816" s="1">
         <v>4</v>
@@ -15818,7 +15821,7 @@
         <v>365</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C817" s="1">
         <v>5</v>
@@ -15835,7 +15838,7 @@
         <v>365</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C818" s="1">
         <v>6</v>
@@ -15852,7 +15855,7 @@
         <v>365</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C819" s="1">
         <v>7</v>
@@ -15869,7 +15872,7 @@
         <v>365</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C820" s="1">
         <v>8</v>
@@ -15886,7 +15889,7 @@
         <v>365</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C821" s="1">
         <v>9</v>
@@ -15903,7 +15906,7 @@
         <v>365</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C822" s="1">
         <v>10</v>
@@ -15920,7 +15923,7 @@
         <v>365</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C823" s="1">
         <v>11</v>
@@ -15937,7 +15940,7 @@
         <v>365</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C824" s="1">
         <v>12</v>
@@ -15954,7 +15957,7 @@
         <v>365</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C825" s="1">
         <v>13</v>
@@ -15971,7 +15974,7 @@
         <v>365</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C826" s="1">
         <v>14</v>
@@ -15988,7 +15991,7 @@
         <v>365</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C827" s="1">
         <v>15</v>
@@ -16005,7 +16008,7 @@
         <v>365</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C828" s="1">
         <v>16</v>
@@ -16022,7 +16025,7 @@
         <v>365</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C829" s="1">
         <v>17</v>
@@ -16039,7 +16042,7 @@
         <v>365</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C830" s="1">
         <v>18</v>
@@ -16056,7 +16059,7 @@
         <v>365</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C831" s="1">
         <v>19</v>
@@ -16073,7 +16076,7 @@
         <v>365</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C832" s="1">
         <v>20</v>
@@ -16086,342 +16089,342 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B833" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C833" s="8">
+      <c r="A833" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B833" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C833" s="5">
         <v>1</v>
       </c>
-      <c r="D833" s="8" t="s">
+      <c r="D833" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E833" s="8">
+      <c r="E833" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B834" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C834" s="8">
+      <c r="A834" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B834" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C834" s="5">
         <v>2</v>
       </c>
-      <c r="D834" s="8" t="s">
+      <c r="D834" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E834" s="8">
+      <c r="E834" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B835" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C835" s="8">
+      <c r="A835" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C835" s="5">
         <v>3</v>
       </c>
-      <c r="D835" s="8" t="s">
+      <c r="D835" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E835" s="8">
+      <c r="E835" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B836" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C836" s="8">
-        <v>4</v>
-      </c>
-      <c r="D836" s="8" t="s">
+      <c r="A836" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C836" s="5">
+        <v>4</v>
+      </c>
+      <c r="D836" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E836" s="8">
+      <c r="E836" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B837" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C837" s="8">
+      <c r="A837" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B837" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C837" s="5">
         <v>5</v>
       </c>
-      <c r="D837" s="8" t="s">
+      <c r="D837" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E837" s="8">
+      <c r="E837" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B838" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C838" s="8">
+      <c r="A838" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B838" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C838" s="5">
         <v>6</v>
       </c>
-      <c r="D838" s="8" t="s">
+      <c r="D838" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E838" s="8">
+      <c r="E838" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B839" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C839" s="8">
+      <c r="A839" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B839" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C839" s="5">
         <v>7</v>
       </c>
-      <c r="D839" s="8" t="s">
+      <c r="D839" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E839" s="8">
+      <c r="E839" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B840" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C840" s="8">
+      <c r="A840" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B840" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C840" s="5">
         <v>8</v>
       </c>
-      <c r="D840" s="8" t="s">
+      <c r="D840" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E840" s="8">
+      <c r="E840" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B841" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C841" s="8">
+      <c r="A841" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B841" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C841" s="5">
         <v>9</v>
       </c>
-      <c r="D841" s="8" t="s">
+      <c r="D841" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E841" s="8">
+      <c r="E841" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B842" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C842" s="8">
+      <c r="A842" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B842" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C842" s="5">
         <v>10</v>
       </c>
-      <c r="D842" s="8" t="s">
+      <c r="D842" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E842" s="8">
+      <c r="E842" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B843" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C843" s="8">
+      <c r="A843" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B843" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C843" s="5">
         <v>11</v>
       </c>
-      <c r="D843" s="8" t="s">
+      <c r="D843" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E843" s="8">
+      <c r="E843" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B844" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C844" s="8">
+      <c r="A844" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B844" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C844" s="5">
         <v>12</v>
       </c>
-      <c r="D844" s="8" t="s">
+      <c r="D844" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E844" s="8">
+      <c r="E844" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B845" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C845" s="8">
+      <c r="A845" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B845" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C845" s="5">
         <v>13</v>
       </c>
-      <c r="D845" s="8" t="s">
+      <c r="D845" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E845" s="8">
+      <c r="E845" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B846" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C846" s="8">
+      <c r="A846" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B846" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C846" s="5">
         <v>14</v>
       </c>
-      <c r="D846" s="8" t="s">
+      <c r="D846" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E846" s="8">
+      <c r="E846" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B847" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C847" s="8">
+      <c r="A847" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B847" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C847" s="5">
         <v>15</v>
       </c>
-      <c r="D847" s="8" t="s">
+      <c r="D847" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E847" s="8">
+      <c r="E847" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B848" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C848" s="8">
+      <c r="A848" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B848" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C848" s="5">
         <v>16</v>
       </c>
-      <c r="D848" s="8" t="s">
+      <c r="D848" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E848" s="8">
+      <c r="E848" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B849" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C849" s="8">
+      <c r="A849" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C849" s="5">
         <v>17</v>
       </c>
-      <c r="D849" s="8" t="s">
+      <c r="D849" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E849" s="8">
+      <c r="E849" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B850" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C850" s="8">
+      <c r="A850" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B850" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C850" s="5">
         <v>18</v>
       </c>
-      <c r="D850" s="8" t="s">
+      <c r="D850" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E850" s="8">
+      <c r="E850" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B851" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C851" s="8">
+      <c r="A851" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B851" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C851" s="5">
         <v>19</v>
       </c>
-      <c r="D851" s="8" t="s">
+      <c r="D851" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E851" s="8">
+      <c r="E851" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B852" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C852" s="8">
+      <c r="A852" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B852" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C852" s="5">
         <v>20</v>
       </c>
-      <c r="D852" s="8" t="s">
+      <c r="D852" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E852" s="8">
+      <c r="E852" s="5">
         <v>23</v>
       </c>
     </row>
@@ -16430,7 +16433,7 @@
         <v>365</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>4</v>
@@ -16447,7 +16450,7 @@
         <v>365</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>4</v>
@@ -16464,7 +16467,7 @@
         <v>365</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>4</v>
@@ -16481,7 +16484,7 @@
         <v>365</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>4</v>
@@ -16498,7 +16501,7 @@
         <v>365</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>4</v>
@@ -16515,7 +16518,7 @@
         <v>365</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>4</v>
@@ -16787,7 +16790,7 @@
         <v>365</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>4</v>
@@ -16804,7 +16807,7 @@
         <v>365</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>4</v>
@@ -16821,7 +16824,7 @@
         <v>365</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="411">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1338,66 +1338,9 @@
     <t>MTC_WEIGHT</t>
   </si>
   <si>
-    <t>BART Interim</t>
-  </si>
-  <si>
-    <t>FIRST_ENTERED_BART</t>
-  </si>
-  <si>
-    <t>BART_EXIT_STATION</t>
-  </si>
-  <si>
     <t>BART</t>
   </si>
   <si>
-    <t>DE_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>DE_ADDRESS..LONG.</t>
-  </si>
-  <si>
-    <t>DE_PLACE_TYPE.Code.</t>
-  </si>
-  <si>
-    <t>ADULTS_IN_HH.Code.</t>
-  </si>
-  <si>
-    <t>ENGLISH_FLUENCY.Code.</t>
-  </si>
-  <si>
-    <t>CLIPPER_REG_ADULT.Code.</t>
-  </si>
-  <si>
-    <t>HH_INCOME.Code.</t>
-  </si>
-  <si>
-    <t>HISP_LATINO_SPANISH.Code.</t>
-  </si>
-  <si>
-    <t>HOME_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>HOME_ADDRESS..LONG.</t>
-  </si>
-  <si>
-    <t>OR_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>OR_ADDRESS..LONG.</t>
-  </si>
-  <si>
-    <t>OR_PLACE_TYPE.Code.</t>
-  </si>
-  <si>
-    <t>OTHER_LANG.Code.</t>
-  </si>
-  <si>
-    <t>HOW_PAID_FARE.Code.</t>
-  </si>
-  <si>
-    <t>PPL_IN_HH.Code.</t>
-  </si>
-  <si>
     <t>RACE_OR_ETHNICITY..ASIAN.</t>
   </si>
   <si>
@@ -1413,58 +1356,133 @@
     <t>RACE_OR_ETHNICITY..WHITE.</t>
   </si>
   <si>
-    <t>RESP_GENDER.Code.</t>
-  </si>
-  <si>
-    <t>SCHOOL_NAME_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>SCHOOL_NAME_ADDRESS..LONG.</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>TRIP_START_TIME2.Code.</t>
-  </si>
-  <si>
-    <t>FROM_TRNSFR_LIST1</t>
-  </si>
-  <si>
-    <t>FROM_TRNSFR_LIST2</t>
-  </si>
-  <si>
-    <t>FROM_TRNSFR_LIST3</t>
-  </si>
-  <si>
-    <t>TO_TRNSFR_LIST1</t>
-  </si>
-  <si>
-    <t>TO_TRNSFR_LIST2</t>
-  </si>
-  <si>
-    <t>TO_TRNSFR_LIST3</t>
-  </si>
-  <si>
-    <t>WORKP_NAME_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>WORKP_NAME_ADDRESS..LONG.</t>
-  </si>
-  <si>
-    <t>YEAR_BORN..Year.</t>
-  </si>
-  <si>
-    <t>TRIP_END_TIME2.Code.</t>
-  </si>
-  <si>
-    <t>RACE_OR_ETHNICITY..Other.</t>
-  </si>
-  <si>
-    <t>OR_TRANSPORT.Code.</t>
-  </si>
-  <si>
-    <t>DE_TRANSPORT.Code.</t>
+    <t>OR_TRANSPORT_CODE</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>DE_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>DE_PLACE_TYPE_CODE_FINAL</t>
+  </si>
+  <si>
+    <t>DE_TRANSPORT_CODE</t>
+  </si>
+  <si>
+    <t>EMPLOYED_IN_HH_CODE</t>
+  </si>
+  <si>
+    <t>ENTERSTATION</t>
+  </si>
+  <si>
+    <t>EXITSTATION</t>
+  </si>
+  <si>
+    <t>CLIPPER_REG_ADULT_CODE</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>OR_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>OR_PLACE_TYPE_CODE_FINAL</t>
+  </si>
+  <si>
+    <t>OTHER_LANG</t>
+  </si>
+  <si>
+    <t>HOW_PAID_FARE_CODE</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>SCHOOL_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>SCHOOL_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>DATE_COMPLETED</t>
+  </si>
+  <si>
+    <t>TIME_COMPLETED</t>
+  </si>
+  <si>
+    <t>TRIP_START_TIME2_CODE</t>
+  </si>
+  <si>
+    <t>TRIP_END_TIME2_CODE</t>
+  </si>
+  <si>
+    <t>ACCESSTRNSFR_LIST1</t>
+  </si>
+  <si>
+    <t>ACCESSTRNSFR_LIST2</t>
+  </si>
+  <si>
+    <t>EGRESS_TRNSFR_LIST1</t>
+  </si>
+  <si>
+    <t>EGRESS_TRNSFR_LIST2</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>CATI</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>PAPER</t>
+  </si>
+  <si>
+    <t>Missing - Dummy Record</t>
+  </si>
+  <si>
+    <t>SRVY_IN_ENGL_SPANISH</t>
+  </si>
+  <si>
+    <t>FROM_TRANS_LIST1_LOC_LAT</t>
+  </si>
+  <si>
+    <t>FROM_TRANS_LIST1_LOC_LONG</t>
+  </si>
+  <si>
+    <t>PAIRED_WGHT_FCTR</t>
+  </si>
+  <si>
+    <t>RACE_OR_ETHNICITY._OTHER</t>
+  </si>
+  <si>
+    <t>ACCESSTRSNFR_LIST3</t>
+  </si>
+  <si>
+    <t>EGRESSTRNSFR_LIST3</t>
+  </si>
+  <si>
+    <t>TO_TRNS_LIST1_LOC_LAT</t>
+  </si>
+  <si>
+    <t>TO_TRNS_LIST1_LOC_LONG</t>
+  </si>
+  <si>
+    <t>WORKP_ADDRESS_LAT</t>
+  </si>
+  <si>
+    <t>WORKP_ADDRESS_LONG</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,12 +1551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,7 +1571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1580,9 +1592,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1928,11 +1937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E890"/>
+  <dimension ref="A1:E784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A878" sqref="A878"/>
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B770" sqref="B770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11806,10 +11815,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C581" s="1">
         <v>1</v>
@@ -11823,10 +11832,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C582" s="1">
         <v>2</v>
@@ -11840,10 +11849,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C583" s="1">
         <v>3</v>
@@ -11857,10 +11866,10 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C584" s="1">
         <v>4</v>
@@ -11874,10 +11883,10 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C585" s="1">
         <v>5</v>
@@ -11891,10 +11900,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C586" s="1">
         <v>6</v>
@@ -11908,10 +11917,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C587" s="1">
         <v>7</v>
@@ -11925,10 +11934,10 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C588" s="1">
         <v>8</v>
@@ -11942,10 +11951,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C589" s="1">
         <v>9</v>
@@ -11959,7 +11968,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>70</v>
@@ -11976,7 +11985,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>70</v>
@@ -11993,7 +12002,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>258</v>
@@ -12010,7 +12019,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>258</v>
@@ -12027,10 +12036,10 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>4</v>
@@ -12044,10 +12053,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>4</v>
@@ -12061,10 +12070,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C596" s="1">
         <v>1</v>
@@ -12078,10 +12087,10 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C597" s="1">
         <v>2</v>
@@ -12095,10 +12104,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C598" s="1">
         <v>3</v>
@@ -12112,10 +12121,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C599" s="1">
         <v>4</v>
@@ -12129,10 +12138,10 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C600" s="1">
         <v>5</v>
@@ -12146,10 +12155,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C601" s="1">
         <v>6</v>
@@ -12163,10 +12172,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C602" s="1">
         <v>7</v>
@@ -12180,10 +12189,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C603" s="1">
         <v>8</v>
@@ -12197,10 +12206,10 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C604" s="1">
         <v>9</v>
@@ -12214,10 +12223,10 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C605" s="1">
         <v>10</v>
@@ -12231,10 +12240,10 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C606" s="1">
         <v>11</v>
@@ -12248,10 +12257,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C607" s="1">
         <v>12</v>
@@ -12265,10 +12274,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C608" s="1">
         <v>13</v>
@@ -12282,10 +12291,10 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C609" s="1">
         <v>14</v>
@@ -12299,10 +12308,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C610" s="1">
         <v>15</v>
@@ -12316,10 +12325,10 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C611" s="1">
         <v>16</v>
@@ -12333,10 +12342,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C612" s="1">
         <v>1</v>
@@ -12350,10 +12359,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C613" s="1">
         <v>2</v>
@@ -12367,10 +12376,10 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C614" s="1">
         <v>3</v>
@@ -12384,10 +12393,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C615" s="1">
         <v>4</v>
@@ -12401,10 +12410,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C616" s="1">
         <v>5</v>
@@ -12418,10 +12427,10 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C617" s="1">
         <v>6</v>
@@ -12435,10 +12444,10 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C618" s="1">
         <v>7</v>
@@ -12452,10 +12461,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C619" s="1">
         <v>8</v>
@@ -12469,10 +12478,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C620" s="1">
         <v>9</v>
@@ -12486,7 +12495,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>55</v>
@@ -12503,7 +12512,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>55</v>
@@ -12520,10 +12529,10 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C623" s="1">
         <v>0</v>
@@ -12537,10 +12546,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C624" s="1">
         <v>1</v>
@@ -12554,10 +12563,10 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C625" s="1">
         <v>2</v>
@@ -12571,10 +12580,10 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C626" s="1">
         <v>3</v>
@@ -12588,10 +12597,10 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C627" s="1">
         <v>4</v>
@@ -12605,10 +12614,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C628" s="1">
         <v>5</v>
@@ -12622,10 +12631,10 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C629" s="1">
         <v>6</v>
@@ -12639,10 +12648,10 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="C630" s="1">
         <v>1</v>
@@ -12656,10 +12665,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="C631" s="1">
         <v>2</v>
@@ -12673,10 +12682,10 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="C632" s="1">
         <v>3</v>
@@ -12690,10 +12699,10 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="C633" s="1">
         <v>4</v>
@@ -12707,10 +12716,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>4</v>
@@ -12723,476 +12732,476 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B635" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C635" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D635" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E635" s="8" t="s">
+      <c r="A635" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E635" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B636" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C636" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D636" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E636" s="8" t="s">
-        <v>4</v>
+      <c r="A636" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C636" s="1">
+        <v>1</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>4</v>
+        <v>376</v>
+      </c>
+      <c r="C637" s="1">
+        <v>2</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B638" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C638" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D638" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E638" s="8" t="s">
-        <v>4</v>
+      <c r="A638" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C638" s="1">
+        <v>3</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B639" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C639" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D639" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E639" s="8" t="s">
-        <v>4</v>
+      <c r="A639" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C639" s="1">
+        <v>4</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C640" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C641" s="1">
-        <v>2</v>
+        <v>274</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C642" s="1">
-        <v>3</v>
+        <v>274</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="C643" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="C644" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C645" s="1" t="s">
-        <v>57</v>
+        <v>224</v>
+      </c>
+      <c r="C645" s="1">
+        <v>3</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>56</v>
+        <v>224</v>
+      </c>
+      <c r="C646" s="1">
+        <v>4</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C647" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D647" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C648" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C649" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C650" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C651" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C652" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C653" s="1">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="C654" s="1">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C655" s="1">
-        <v>9</v>
+        <v>153</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C656" s="1">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C657" s="1">
-        <v>88</v>
+        <v>377</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C658" s="1">
-        <v>99</v>
+        <v>378</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>373</v>
+        <v>5</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>373</v>
+        <v>171</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E662" s="1" t="s">
         <v>4</v>
@@ -13200,16 +13209,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>4</v>
@@ -13217,183 +13226,183 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C664" s="1" t="s">
-        <v>57</v>
+        <v>381</v>
+      </c>
+      <c r="C664" s="1">
+        <v>1</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C665" s="1" t="s">
-        <v>56</v>
+        <v>381</v>
+      </c>
+      <c r="C665" s="1">
+        <v>2</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C666" s="1" t="s">
-        <v>4</v>
+        <v>381</v>
+      </c>
+      <c r="C666" s="1">
+        <v>3</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C667" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C667" s="1">
         <v>4</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C668" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C669" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C670" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C671" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C672" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C673" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C674" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>40</v>
@@ -13404,3673 +13413,1871 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C675" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C676" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C677" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C678" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C679" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C680" s="1">
-        <v>13</v>
+        <v>382</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C681" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C682" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>54</v>
+        <v>384</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C683" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>53</v>
+        <v>340</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C684" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C685" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C686" s="1">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C687" s="1">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C688" s="1">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C689" s="1">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C690" s="1">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C691" s="1">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C692" s="1">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C693" s="1">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C694" s="1">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C695" s="1">
+        <v>26</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D695" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D695" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E695" s="1" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B696" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B696" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C696" s="1">
-        <v>45</v>
+      <c r="C696" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E696" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="E696" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B697" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B697" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C697" s="1">
-        <v>51</v>
+      <c r="C697" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E697" s="1" t="s">
-        <v>304</v>
+        <v>160</v>
+      </c>
+      <c r="E697" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C698" s="1">
-        <v>56</v>
+        <v>363</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E698" s="1" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="E698" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C699" s="1">
-        <v>58</v>
+        <v>363</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E699" s="1" t="s">
-        <v>305</v>
+        <v>162</v>
+      </c>
+      <c r="E699" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C700" s="1">
-        <v>61</v>
+        <v>364</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E700" s="1" t="s">
-        <v>306</v>
+        <v>164</v>
+      </c>
+      <c r="E700" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C701" s="1">
-        <v>63</v>
+        <v>364</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E701" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+      <c r="E701" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C702" s="1">
-        <v>80</v>
+        <v>366</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E702" s="1" t="s">
-        <v>307</v>
+        <v>166</v>
+      </c>
+      <c r="E702" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C703" s="1">
-        <v>84</v>
+        <v>366</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E703" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
+      </c>
+      <c r="E703" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C704" s="1">
-        <v>86</v>
+        <v>404</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>308</v>
+        <v>4</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C705" s="1">
-        <v>95</v>
+        <v>367</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E705" s="1" t="s">
-        <v>309</v>
+        <v>168</v>
+      </c>
+      <c r="E705" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C706" s="1">
-        <v>102</v>
+        <v>367</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E706" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
+      </c>
+      <c r="E706" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>379</v>
+        <v>235</v>
       </c>
       <c r="C707" s="1">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>379</v>
+        <v>235</v>
       </c>
       <c r="C708" s="1">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C709" s="1">
-        <v>129</v>
+        <v>385</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C710" s="1">
-        <v>135</v>
+        <v>386</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C711" s="1">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C712" s="1">
-        <v>142</v>
+        <v>59</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C713" s="1">
-        <v>143</v>
-      </c>
-      <c r="D713" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E713" s="1" t="s">
-        <v>179</v>
+      <c r="A713" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D713" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E713" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C714" s="1">
-        <v>144</v>
+        <v>388</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>313</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C715" s="1">
-        <v>146</v>
-      </c>
-      <c r="D715" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E715" s="1" t="s">
-        <v>199</v>
+      <c r="A715" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C715" s="5">
+        <v>1</v>
+      </c>
+      <c r="D715" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E715" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C716" s="1">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E716" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
+      </c>
+      <c r="E716" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C717" s="1">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E717" s="1" t="s">
-        <v>314</v>
+        <v>251</v>
+      </c>
+      <c r="E717" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C718" s="1">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E718" s="1" t="s">
-        <v>315</v>
+        <v>251</v>
+      </c>
+      <c r="E718" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C719" s="1">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E719" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
+      </c>
+      <c r="E719" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C720" s="1">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E720" s="1" t="s">
-        <v>316</v>
+        <v>251</v>
+      </c>
+      <c r="E720" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C721" s="1">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E721" s="1" t="s">
-        <v>202</v>
+        <v>251</v>
+      </c>
+      <c r="E721" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C722" s="1">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>203</v>
+        <v>251</v>
+      </c>
+      <c r="E722" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C723" s="1">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E723" s="1" t="s">
-        <v>317</v>
+        <v>251</v>
+      </c>
+      <c r="E723" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B724" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C724" s="1">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E724" s="1" t="s">
-        <v>318</v>
+        <v>251</v>
+      </c>
+      <c r="E724" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C725" s="1">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E725" s="1" t="s">
-        <v>319</v>
+        <v>251</v>
+      </c>
+      <c r="E725" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B726" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C726" s="1">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E726" s="1" t="s">
-        <v>320</v>
+        <v>251</v>
+      </c>
+      <c r="E726" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C727" s="1">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E727" s="1" t="s">
-        <v>321</v>
+        <v>251</v>
+      </c>
+      <c r="E727" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B728" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C728" s="1">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E728" s="1" t="s">
-        <v>180</v>
+        <v>251</v>
+      </c>
+      <c r="E728" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B729" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C729" s="1">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E729" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
+      </c>
+      <c r="E729" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C730" s="1">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E730" s="1" t="s">
-        <v>322</v>
+        <v>251</v>
+      </c>
+      <c r="E730" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C731" s="1">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>323</v>
+        <v>251</v>
+      </c>
+      <c r="E731" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B732" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C732" s="1">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E732" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
+      </c>
+      <c r="E732" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C733" s="1">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E733" s="1" t="s">
-        <v>205</v>
+        <v>251</v>
+      </c>
+      <c r="E733" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="C734" s="1">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E734" s="1" t="s">
-        <v>325</v>
+        <v>251</v>
+      </c>
+      <c r="E734" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C735" s="1">
-        <v>297</v>
-      </c>
-      <c r="D735" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E735" s="1" t="s">
-        <v>206</v>
+        <v>362</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C735" s="5">
+        <v>1</v>
+      </c>
+      <c r="D735" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E735" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C736" s="1">
-        <v>321</v>
-      </c>
-      <c r="D736" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E736" s="1" t="s">
-        <v>207</v>
+        <v>362</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C736" s="5">
+        <v>2</v>
+      </c>
+      <c r="D736" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E736" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C737" s="1">
-        <v>325</v>
-      </c>
-      <c r="D737" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E737" s="1" t="s">
-        <v>179</v>
+        <v>362</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C737" s="5">
+        <v>3</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E737" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B738" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C738" s="1">
-        <v>351</v>
-      </c>
-      <c r="D738" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E738" s="1" t="s">
-        <v>208</v>
+        <v>362</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C738" s="5">
+        <v>4</v>
+      </c>
+      <c r="D738" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E738" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C739" s="1">
-        <v>351</v>
-      </c>
-      <c r="D739" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E739" s="1" t="s">
-        <v>209</v>
+        <v>362</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C739" s="5">
+        <v>5</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E739" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B740" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C740" s="1">
-        <v>356</v>
-      </c>
-      <c r="D740" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E740" s="1" t="s">
-        <v>181</v>
+        <v>362</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C740" s="5">
+        <v>6</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E740" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C741" s="1">
-        <v>358</v>
-      </c>
-      <c r="D741" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E741" s="1" t="s">
-        <v>182</v>
+        <v>362</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C741" s="5">
+        <v>7</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E741" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C742" s="1">
-        <v>368</v>
-      </c>
-      <c r="D742" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E742" s="1" t="s">
-        <v>209</v>
+        <v>362</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C742" s="5">
+        <v>8</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E742" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B743" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C743" s="1">
-        <v>378</v>
-      </c>
-      <c r="D743" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E743" s="1" t="s">
-        <v>210</v>
+        <v>362</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C743" s="5">
+        <v>9</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E743" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C744" s="1">
-        <v>385</v>
-      </c>
-      <c r="D744" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E744" s="1" t="s">
-        <v>183</v>
+        <v>362</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C744" s="5">
+        <v>10</v>
+      </c>
+      <c r="D744" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E744" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C745" s="1">
-        <v>393</v>
-      </c>
-      <c r="D745" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E745" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C745" s="5">
+        <v>11</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E745" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C746" s="1">
-        <v>408</v>
-      </c>
-      <c r="D746" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E746" s="1" t="s">
-        <v>184</v>
+        <v>362</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C746" s="5">
+        <v>12</v>
+      </c>
+      <c r="D746" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E746" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C747" s="1">
-        <v>426</v>
-      </c>
-      <c r="D747" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E747" s="1" t="s">
-        <v>179</v>
+        <v>362</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C747" s="5">
+        <v>13</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E747" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C748" s="1">
-        <v>410</v>
-      </c>
-      <c r="D748" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E748" s="1" t="s">
-        <v>327</v>
+        <v>362</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C748" s="5">
+        <v>14</v>
+      </c>
+      <c r="D748" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E748" s="5">
+        <v>17</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B749" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C749" s="1">
-        <v>419</v>
-      </c>
-      <c r="D749" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E749" s="1" t="s">
-        <v>328</v>
+        <v>362</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C749" s="5">
+        <v>15</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E749" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C750" s="1">
-        <v>421</v>
-      </c>
-      <c r="D750" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E750" s="1" t="s">
-        <v>329</v>
+        <v>362</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C750" s="5">
+        <v>16</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E750" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C751" s="1">
-        <v>432</v>
-      </c>
-      <c r="D751" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E751" s="1" t="s">
-        <v>211</v>
+        <v>362</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C751" s="5">
+        <v>17</v>
+      </c>
+      <c r="D751" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E751" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C752" s="1">
-        <v>436</v>
-      </c>
-      <c r="D752" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E752" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C752" s="5">
+        <v>18</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E752" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C753" s="1">
-        <v>441</v>
-      </c>
-      <c r="D753" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E753" s="1" t="s">
-        <v>212</v>
+        <v>362</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C753" s="5">
+        <v>19</v>
+      </c>
+      <c r="D753" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E753" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C754" s="1">
-        <v>443</v>
-      </c>
-      <c r="D754" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E754" s="1" t="s">
-        <v>213</v>
+        <v>362</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C754" s="5">
+        <v>20</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E754" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C755" s="1">
-        <v>446</v>
+        <v>391</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C756" s="1">
-        <v>448</v>
+        <v>392</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>215</v>
+        <v>4</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C757" s="1">
-        <v>452</v>
+        <v>405</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C758" s="1">
-        <v>456</v>
+        <v>393</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C759" s="1">
-        <v>465</v>
+        <v>394</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C760" s="1">
-        <v>488</v>
+        <v>406</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="C761" s="1">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="C762" s="1">
-        <v>490</v>
+        <v>2</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="C763" s="1">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C764" s="1">
-        <v>493</v>
+        <v>8</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C765" s="1">
-        <v>498</v>
+        <v>8</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C766" s="1">
-        <v>499</v>
+        <v>77</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C767" s="1">
-        <v>501</v>
+        <v>77</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C768" s="1">
-        <v>502</v>
+        <v>409</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C769" s="1">
-        <v>503</v>
+        <v>410</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C770" s="1">
-        <v>504</v>
+        <v>6</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C771" s="1">
-        <v>600</v>
+        <v>395</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C772" s="1">
-        <v>601</v>
+        <v>395</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C773" s="1">
-        <v>602</v>
+        <v>395</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C774" s="1">
-        <v>603</v>
+        <v>395</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C775" s="1">
-        <v>604</v>
-      </c>
-      <c r="D775" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E775" s="1" t="s">
-        <v>338</v>
+      <c r="A775" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C775" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E775" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C776" s="1">
-        <v>605</v>
-      </c>
-      <c r="D776" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E776" s="1" t="s">
-        <v>339</v>
+      <c r="A776" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B776" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D776" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E776" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C777" s="1">
-        <v>1</v>
-      </c>
-      <c r="D777" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E777" s="1" t="s">
-        <v>143</v>
+      <c r="A777" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C777" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D777" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E777" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C778" s="1">
-        <v>2</v>
-      </c>
-      <c r="D778" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E778" s="1" t="s">
-        <v>141</v>
+      <c r="A778" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B778" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D778" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E778" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C779" s="1">
-        <v>3</v>
-      </c>
-      <c r="D779" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E779" s="1" t="s">
-        <v>142</v>
+      <c r="A779" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B779" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C779" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D779" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E779" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C780" s="1">
-        <v>4</v>
-      </c>
-      <c r="D780" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E780" s="1" t="s">
-        <v>144</v>
+      <c r="A780" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C780" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D780" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E780" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C781" s="1">
-        <v>5</v>
-      </c>
-      <c r="D781" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E781" s="1" t="s">
-        <v>145</v>
+      <c r="A781" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B781" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C781" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D781" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E781" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C782" s="1">
-        <v>6</v>
-      </c>
-      <c r="D782" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E782" s="1" t="s">
-        <v>146</v>
+      <c r="A782" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D782" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E782" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C783" s="1">
-        <v>7</v>
-      </c>
-      <c r="D783" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E783" s="1" t="s">
-        <v>340</v>
+      <c r="A783" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C783" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D783" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E783" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C784" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D784" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E784" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C785" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D785" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E785" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C786" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D786" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E786" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B787" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C787" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D787" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E787" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C788" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D788" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E788" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C789" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D789" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E789" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C790" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D790" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E790" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B791" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C791" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D791" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E791" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C792" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D792" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E792" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B793" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C793" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D793" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E793" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B794" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C794" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D794" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E794" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C795" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D795" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E795" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C796" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D796" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E796" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C797" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D797" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E797" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C798" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D798" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E798" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B799" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C799" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D799" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E799" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C800" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D800" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E800" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C801" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D801" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E801" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B802" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C802" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D802" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E802" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C803" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D803" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E803" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B804" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C804" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D804" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E804" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B805" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C805" s="1">
-        <v>1</v>
-      </c>
-      <c r="D805" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E805" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B806" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C806" s="1">
-        <v>2</v>
-      </c>
-      <c r="D806" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E806" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B807" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C807" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D807" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E807" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B808" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C808" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D808" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E808" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C809" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D809" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E809" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B810" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C810" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D810" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E810" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B811" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C811" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D811" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E811" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C812" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D812" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E812" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B813" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C813" s="5">
-        <v>1</v>
-      </c>
-      <c r="D813" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E813" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B814" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C814" s="1">
-        <v>2</v>
-      </c>
-      <c r="D814" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E814" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B815" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C815" s="1">
-        <v>3</v>
-      </c>
-      <c r="D815" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E815" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B816" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C816" s="1">
-        <v>4</v>
-      </c>
-      <c r="D816" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E816" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B817" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C817" s="1">
-        <v>5</v>
-      </c>
-      <c r="D817" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E817" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B818" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C818" s="1">
-        <v>6</v>
-      </c>
-      <c r="D818" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E818" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B819" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C819" s="1">
-        <v>7</v>
-      </c>
-      <c r="D819" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E819" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B820" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C820" s="1">
-        <v>8</v>
-      </c>
-      <c r="D820" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E820" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B821" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C821" s="1">
-        <v>9</v>
-      </c>
-      <c r="D821" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E821" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B822" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C822" s="1">
-        <v>10</v>
-      </c>
-      <c r="D822" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E822" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B823" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C823" s="1">
-        <v>11</v>
-      </c>
-      <c r="D823" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E823" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B824" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C824" s="1">
-        <v>12</v>
-      </c>
-      <c r="D824" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E824" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B825" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C825" s="1">
-        <v>13</v>
-      </c>
-      <c r="D825" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E825" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C826" s="1">
-        <v>14</v>
-      </c>
-      <c r="D826" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E826" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C827" s="1">
-        <v>15</v>
-      </c>
-      <c r="D827" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E827" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B828" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C828" s="1">
-        <v>16</v>
-      </c>
-      <c r="D828" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E828" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B829" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C829" s="1">
-        <v>17</v>
-      </c>
-      <c r="D829" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E829" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B830" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C830" s="1">
-        <v>18</v>
-      </c>
-      <c r="D830" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E830" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C831" s="1">
-        <v>19</v>
-      </c>
-      <c r="D831" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E831" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C832" s="1">
-        <v>20</v>
-      </c>
-      <c r="D832" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E832" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B833" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C833" s="5">
-        <v>1</v>
-      </c>
-      <c r="D833" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E833" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B834" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C834" s="5">
-        <v>2</v>
-      </c>
-      <c r="D834" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E834" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B835" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C835" s="5">
-        <v>3</v>
-      </c>
-      <c r="D835" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E835" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B836" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C836" s="5">
-        <v>4</v>
-      </c>
-      <c r="D836" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E836" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B837" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C837" s="5">
-        <v>5</v>
-      </c>
-      <c r="D837" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E837" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B838" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C838" s="5">
-        <v>6</v>
-      </c>
-      <c r="D838" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E838" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B839" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C839" s="5">
-        <v>7</v>
-      </c>
-      <c r="D839" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E839" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B840" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C840" s="5">
-        <v>8</v>
-      </c>
-      <c r="D840" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E840" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B841" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C841" s="5">
-        <v>9</v>
-      </c>
-      <c r="D841" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E841" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B842" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C842" s="5">
-        <v>10</v>
-      </c>
-      <c r="D842" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E842" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B843" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C843" s="5">
-        <v>11</v>
-      </c>
-      <c r="D843" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E843" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B844" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C844" s="5">
-        <v>12</v>
-      </c>
-      <c r="D844" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E844" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B845" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C845" s="5">
-        <v>13</v>
-      </c>
-      <c r="D845" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E845" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B846" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C846" s="5">
-        <v>14</v>
-      </c>
-      <c r="D846" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E846" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B847" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C847" s="5">
-        <v>15</v>
-      </c>
-      <c r="D847" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E847" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B848" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C848" s="5">
-        <v>16</v>
-      </c>
-      <c r="D848" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E848" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B849" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C849" s="5">
-        <v>17</v>
-      </c>
-      <c r="D849" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E849" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B850" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C850" s="5">
-        <v>18</v>
-      </c>
-      <c r="D850" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E850" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B851" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C851" s="5">
-        <v>19</v>
-      </c>
-      <c r="D851" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E851" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B852" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C852" s="5">
-        <v>20</v>
-      </c>
-      <c r="D852" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E852" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B853" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C853" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D853" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E853" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B854" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C854" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D854" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E854" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C855" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D855" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E855" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B856" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C856" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D856" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E856" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C857" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D857" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E857" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B858" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C858" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D858" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E858" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B859" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C859" s="8">
-        <v>0</v>
-      </c>
-      <c r="D859" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E859" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B860" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C860" s="8">
-        <v>1</v>
-      </c>
-      <c r="D860" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E860" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B861" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C861" s="8">
-        <v>2</v>
-      </c>
-      <c r="D861" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E861" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B862" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C862" s="8">
-        <v>3</v>
-      </c>
-      <c r="D862" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E862" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B863" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C863" s="8">
-        <v>0</v>
-      </c>
-      <c r="D863" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E863" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B864" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C864" s="8">
-        <v>1</v>
-      </c>
-      <c r="D864" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E864" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B865" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C865" s="8">
-        <v>2</v>
-      </c>
-      <c r="D865" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E865" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B866" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C866" s="8">
-        <v>3</v>
-      </c>
-      <c r="D866" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E866" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B867" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C867" s="1">
-        <v>1</v>
-      </c>
-      <c r="D867" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E867" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B868" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C868" s="1">
-        <v>2</v>
-      </c>
-      <c r="D868" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E868" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B869" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C869" s="1">
-        <v>3</v>
-      </c>
-      <c r="D869" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E869" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B870" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C870" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D870" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E870" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B871" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C871" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D871" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E871" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C872" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D872" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E872" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B873" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C873" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D873" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E873" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B874" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C874" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D874" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E874" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B875" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C875" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D875" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E875" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B876" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C876" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D876" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E876" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A877" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B877" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C877" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D877" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E877" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A878" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B878" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C878" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D878" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E878" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A879" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B879" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C879" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D879" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E879" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A880" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B880" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C880" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D880" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E880" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A881" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B881" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C881" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D881" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E881" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A882" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B882" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C882" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D882" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E882" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A883" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B883" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C883" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D883" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E883" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A884" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B884" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C884" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D884" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E884" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A885" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B885" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C885" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D885" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E885" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A886" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B886" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C886" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D886" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E886" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A887" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B887" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C887" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D887" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E887" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A888" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B888" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C888" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D888" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E888" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A889" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B889" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C889" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D889" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E889" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A890" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B890" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C890" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D890" s="8" t="s">
+      <c r="A784" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B784" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C784" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D784" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E890" s="8" t="s">
+      <c r="E784" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="412">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1380,9 +1380,6 @@
     <t>EXITSTATION</t>
   </si>
   <si>
-    <t>CLIPPER_REG_ADULT_CODE</t>
-  </si>
-  <si>
     <t>HOME_ADDRESS_LAT</t>
   </si>
   <si>
@@ -1483,6 +1480,12 @@
   </si>
   <si>
     <t>WORKP_ADDRESS_LONG</t>
+  </si>
+  <si>
+    <t>BART_TICKET_CODE</t>
+  </si>
+  <si>
+    <t>USED_CLIPPER_CODE</t>
   </si>
 </sst>
 </file>
@@ -1937,11 +1940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E784"/>
+  <dimension ref="A1:E790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B770" sqref="B770"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C647" sqref="C647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12753,7 +12756,7 @@
         <v>362</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C636" s="1">
         <v>1</v>
@@ -12770,7 +12773,7 @@
         <v>362</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C637" s="1">
         <v>2</v>
@@ -12787,7 +12790,7 @@
         <v>362</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C638" s="1">
         <v>3</v>
@@ -12796,7 +12799,7 @@
         <v>148</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -12804,7 +12807,7 @@
         <v>362</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C639" s="1">
         <v>4</v>
@@ -12813,7 +12816,7 @@
         <v>148</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12821,16 +12824,16 @@
         <v>362</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C640" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -12838,16 +12841,16 @@
         <v>362</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>57</v>
+        <v>410</v>
+      </c>
+      <c r="C641" s="1">
+        <v>2</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -12855,16 +12858,16 @@
         <v>362</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="C642" s="1">
+        <v>3</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -12872,16 +12875,16 @@
         <v>362</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="C643" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -12889,16 +12892,16 @@
         <v>362</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="C644" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -12906,16 +12909,16 @@
         <v>362</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="C645" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -12923,16 +12926,16 @@
         <v>362</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="C646" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -12940,16 +12943,16 @@
         <v>362</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C647" s="1">
-        <v>5</v>
+        <v>274</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -12957,16 +12960,16 @@
         <v>362</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C648" s="1">
-        <v>6</v>
+        <v>274</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -12977,13 +12980,13 @@
         <v>224</v>
       </c>
       <c r="C649" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -12994,13 +12997,13 @@
         <v>224</v>
       </c>
       <c r="C650" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -13011,13 +13014,13 @@
         <v>224</v>
       </c>
       <c r="C651" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -13028,13 +13031,13 @@
         <v>224</v>
       </c>
       <c r="C652" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -13045,13 +13048,13 @@
         <v>224</v>
       </c>
       <c r="C653" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -13062,13 +13065,13 @@
         <v>224</v>
       </c>
       <c r="C654" s="1">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -13076,16 +13079,16 @@
         <v>362</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
+      </c>
+      <c r="C655" s="1">
+        <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,16 +13096,16 @@
         <v>362</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
+      </c>
+      <c r="C656" s="1">
+        <v>8</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13110,16 +13113,16 @@
         <v>362</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="C657" s="1">
+        <v>9</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -13127,16 +13130,16 @@
         <v>362</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="C658" s="1">
+        <v>10</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -13144,16 +13147,16 @@
         <v>362</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C659" s="1" t="s">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="C659" s="1">
+        <v>88</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13161,16 +13164,16 @@
         <v>362</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>57</v>
+        <v>224</v>
+      </c>
+      <c r="C660" s="1">
+        <v>99</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -13178,16 +13181,16 @@
         <v>362</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -13195,16 +13198,16 @@
         <v>362</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -13212,13 +13215,13 @@
         <v>362</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>4</v>
@@ -13229,16 +13232,16 @@
         <v>362</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C664" s="1">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13246,16 +13249,16 @@
         <v>362</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C665" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13263,16 +13266,16 @@
         <v>362</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C666" s="1">
-        <v>3</v>
+        <v>171</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13280,16 +13283,16 @@
         <v>362</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C667" s="1">
-        <v>4</v>
+        <v>171</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -13297,16 +13300,16 @@
         <v>362</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C668" s="1">
-        <v>5</v>
+        <v>378</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -13314,16 +13317,16 @@
         <v>362</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C669" s="1">
-        <v>6</v>
+        <v>379</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -13331,16 +13334,16 @@
         <v>362</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C670" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13348,16 +13351,16 @@
         <v>362</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C671" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13365,16 +13368,16 @@
         <v>362</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C672" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13382,16 +13385,16 @@
         <v>362</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C673" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -13399,16 +13402,16 @@
         <v>362</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C674" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -13416,16 +13419,16 @@
         <v>362</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C675" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -13433,10 +13436,10 @@
         <v>362</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C676" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>40</v>
@@ -13450,16 +13453,16 @@
         <v>362</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C677" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -13467,16 +13470,16 @@
         <v>362</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C678" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -13484,16 +13487,16 @@
         <v>362</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C679" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -13501,16 +13504,16 @@
         <v>362</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C680" s="1" t="s">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="C680" s="1">
+        <v>11</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -13518,16 +13521,16 @@
         <v>362</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C681" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -13535,16 +13538,16 @@
         <v>362</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C682" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>384</v>
+        <v>49</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -13552,16 +13555,16 @@
         <v>362</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C683" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -13569,16 +13572,16 @@
         <v>362</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C684" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>340</v>
+        <v>54</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -13586,16 +13589,16 @@
         <v>362</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C685" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -13603,16 +13606,16 @@
         <v>362</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -13620,16 +13623,16 @@
         <v>362</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>36</v>
+        <v>382</v>
+      </c>
+      <c r="C687" s="1">
+        <v>1</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -13637,16 +13640,16 @@
         <v>362</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C688" s="1" t="s">
-        <v>28</v>
+        <v>382</v>
+      </c>
+      <c r="C688" s="1">
+        <v>2</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -13654,16 +13657,16 @@
         <v>362</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>29</v>
+        <v>382</v>
+      </c>
+      <c r="C689" s="1">
+        <v>3</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
@@ -13671,16 +13674,16 @@
         <v>362</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C690" s="1" t="s">
-        <v>30</v>
+        <v>382</v>
+      </c>
+      <c r="C690" s="1">
+        <v>4</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
@@ -13688,16 +13691,16 @@
         <v>362</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>31</v>
+        <v>382</v>
+      </c>
+      <c r="C691" s="1">
+        <v>5</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>17</v>
+        <v>340</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -13708,13 +13711,13 @@
         <v>26</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -13725,13 +13728,13 @@
         <v>26</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D693" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -13742,13 +13745,13 @@
         <v>26</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D694" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -13759,13 +13762,13 @@
         <v>26</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -13773,16 +13776,16 @@
         <v>362</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>365</v>
+        <v>26</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E696" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -13790,16 +13793,16 @@
         <v>362</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>365</v>
+        <v>26</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E697" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -13807,16 +13810,16 @@
         <v>362</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E698" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -13824,16 +13827,16 @@
         <v>362</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E699" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -13841,16 +13844,16 @@
         <v>362</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E700" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -13858,16 +13861,16 @@
         <v>362</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E701" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
@@ -13875,13 +13878,13 @@
         <v>362</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E702" s="1">
         <v>0</v>
@@ -13892,13 +13895,13 @@
         <v>362</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E703" s="1">
         <v>1</v>
@@ -13909,16 +13912,16 @@
         <v>362</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E704" s="1" t="s">
-        <v>4</v>
+        <v>162</v>
+      </c>
+      <c r="E704" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
@@ -13926,16 +13929,16 @@
         <v>362</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E705" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
@@ -13943,16 +13946,16 @@
         <v>362</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E706" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -13960,16 +13963,16 @@
         <v>362</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C707" s="1">
+        <v>364</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E707" s="1">
         <v>1</v>
-      </c>
-      <c r="D707" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E707" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -13977,16 +13980,16 @@
         <v>362</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C708" s="1">
-        <v>2</v>
+        <v>366</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E708" s="1" t="s">
-        <v>238</v>
+        <v>166</v>
+      </c>
+      <c r="E708" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -13994,16 +13997,16 @@
         <v>362</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E709" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="E709" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -14011,13 +14014,13 @@
         <v>362</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="E710" s="1" t="s">
         <v>4</v>
@@ -14028,16 +14031,16 @@
         <v>362</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>59</v>
+        <v>367</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E711" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
+      </c>
+      <c r="E711" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -14045,33 +14048,33 @@
         <v>362</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>59</v>
+        <v>367</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E712" s="1" t="s">
-        <v>138</v>
+        <v>168</v>
+      </c>
+      <c r="E712" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B713" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C713" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D713" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E713" s="5" t="s">
-        <v>4</v>
+      <c r="A713" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C713" s="1">
+        <v>1</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -14079,32 +14082,32 @@
         <v>362</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C714" s="1" t="s">
-        <v>4</v>
+        <v>235</v>
+      </c>
+      <c r="C714" s="1">
+        <v>2</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B715" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C715" s="5">
-        <v>1</v>
-      </c>
-      <c r="D715" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E715" s="5">
+      <c r="A715" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E715" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14112,102 +14115,102 @@
       <c r="A716" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B716" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C716" s="1">
-        <v>2</v>
+      <c r="B716" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E716" s="1">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B717" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C717" s="1">
-        <v>3</v>
+      <c r="B717" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E717" s="1">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B718" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C718" s="1">
-        <v>4</v>
+      <c r="B718" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E718" s="1">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C719" s="1">
-        <v>5</v>
-      </c>
-      <c r="D719" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E719" s="1">
-        <v>8</v>
+        <v>386</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D719" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E719" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B720" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C720" s="1">
-        <v>6</v>
+      <c r="B720" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D720" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C721" s="5">
+        <v>1</v>
+      </c>
+      <c r="D721" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E720" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B721" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C721" s="1">
-        <v>7</v>
-      </c>
-      <c r="D721" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E721" s="1">
-        <v>10</v>
+      <c r="E721" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -14215,16 +14218,16 @@
         <v>362</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C722" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D722" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E722" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -14232,16 +14235,16 @@
         <v>362</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C723" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D723" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E723" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -14249,16 +14252,16 @@
         <v>362</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C724" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E724" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -14266,16 +14269,16 @@
         <v>362</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C725" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E725" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -14283,16 +14286,16 @@
         <v>362</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C726" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D726" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E726" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -14300,16 +14303,16 @@
         <v>362</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C727" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E727" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -14317,16 +14320,16 @@
         <v>362</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C728" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D728" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E728" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -14334,16 +14337,16 @@
         <v>362</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C729" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E729" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -14351,16 +14354,16 @@
         <v>362</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C730" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E730" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -14368,16 +14371,16 @@
         <v>362</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C731" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D731" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E731" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
@@ -14385,16 +14388,16 @@
         <v>362</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C732" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E732" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
@@ -14402,16 +14405,16 @@
         <v>362</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C733" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E733" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
@@ -14419,16 +14422,16 @@
         <v>362</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C734" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E734" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -14436,16 +14439,16 @@
         <v>362</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C735" s="5">
-        <v>1</v>
-      </c>
-      <c r="D735" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E735" s="5">
-        <v>4</v>
+        <v>388</v>
+      </c>
+      <c r="C735" s="1">
+        <v>15</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E735" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
@@ -14453,16 +14456,16 @@
         <v>362</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C736" s="5">
-        <v>2</v>
-      </c>
-      <c r="D736" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E736" s="5">
-        <v>5</v>
+        <v>388</v>
+      </c>
+      <c r="C736" s="1">
+        <v>16</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E736" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
@@ -14470,16 +14473,16 @@
         <v>362</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C737" s="5">
-        <v>3</v>
-      </c>
-      <c r="D737" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E737" s="5">
-        <v>6</v>
+        <v>388</v>
+      </c>
+      <c r="C737" s="1">
+        <v>17</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E737" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -14487,16 +14490,16 @@
         <v>362</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C738" s="5">
-        <v>4</v>
-      </c>
-      <c r="D738" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E738" s="5">
-        <v>7</v>
+        <v>388</v>
+      </c>
+      <c r="C738" s="1">
+        <v>18</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E738" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -14504,16 +14507,16 @@
         <v>362</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C739" s="5">
-        <v>5</v>
-      </c>
-      <c r="D739" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E739" s="5">
-        <v>8</v>
+        <v>388</v>
+      </c>
+      <c r="C739" s="1">
+        <v>19</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E739" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -14521,16 +14524,16 @@
         <v>362</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C740" s="5">
-        <v>6</v>
-      </c>
-      <c r="D740" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E740" s="5">
-        <v>9</v>
+        <v>388</v>
+      </c>
+      <c r="C740" s="1">
+        <v>20</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E740" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -14538,16 +14541,16 @@
         <v>362</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C741" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D741" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E741" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -14555,16 +14558,16 @@
         <v>362</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C742" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D742" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E742" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -14572,16 +14575,16 @@
         <v>362</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C743" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D743" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E743" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -14589,16 +14592,16 @@
         <v>362</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C744" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D744" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E744" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -14606,16 +14609,16 @@
         <v>362</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C745" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D745" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E745" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
@@ -14623,16 +14626,16 @@
         <v>362</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C746" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D746" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E746" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
@@ -14640,16 +14643,16 @@
         <v>362</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C747" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D747" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E747" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -14657,16 +14660,16 @@
         <v>362</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C748" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D748" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E748" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -14674,16 +14677,16 @@
         <v>362</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C749" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D749" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E749" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
@@ -14691,16 +14694,16 @@
         <v>362</v>
       </c>
       <c r="B750" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C750" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D750" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E750" s="5">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -14708,16 +14711,16 @@
         <v>362</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C751" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D751" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E751" s="5">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -14725,16 +14728,16 @@
         <v>362</v>
       </c>
       <c r="B752" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C752" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D752" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E752" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -14742,16 +14745,16 @@
         <v>362</v>
       </c>
       <c r="B753" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C753" s="5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D753" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E753" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -14759,118 +14762,118 @@
         <v>362</v>
       </c>
       <c r="B754" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C754" s="5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D754" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E754" s="5">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B755" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C755" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D755" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E755" s="1" t="s">
-        <v>4</v>
+      <c r="B755" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C755" s="5">
+        <v>15</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E755" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B756" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C756" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D756" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E756" s="1" t="s">
-        <v>4</v>
+      <c r="B756" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C756" s="5">
+        <v>16</v>
+      </c>
+      <c r="D756" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E756" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B757" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C757" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D757" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E757" s="1" t="s">
-        <v>4</v>
+      <c r="B757" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C757" s="5">
+        <v>17</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E757" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B758" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C758" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D758" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E758" s="1" t="s">
-        <v>4</v>
+      <c r="B758" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C758" s="5">
+        <v>18</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E758" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B759" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C759" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D759" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E759" s="1" t="s">
-        <v>4</v>
+      <c r="B759" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C759" s="5">
+        <v>19</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E759" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B760" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C760" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D760" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E760" s="1" t="s">
-        <v>4</v>
+      <c r="B760" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C760" s="5">
+        <v>20</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E760" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
@@ -14878,16 +14881,16 @@
         <v>362</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C761" s="1">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -14895,16 +14898,16 @@
         <v>362</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C762" s="1">
-        <v>2</v>
+        <v>391</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
@@ -14912,16 +14915,16 @@
         <v>362</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C763" s="1">
-        <v>3</v>
+        <v>404</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
@@ -14929,16 +14932,16 @@
         <v>362</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>8</v>
+        <v>392</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
@@ -14946,16 +14949,16 @@
         <v>362</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
@@ -14963,16 +14966,16 @@
         <v>362</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -14980,16 +14983,16 @@
         <v>362</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C767" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="C767" s="1">
+        <v>1</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -14997,16 +15000,16 @@
         <v>362</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C768" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C768" s="1">
+        <v>2</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -15014,16 +15017,16 @@
         <v>362</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C769" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C769" s="1">
+        <v>3</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
@@ -15031,16 +15034,16 @@
         <v>362</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
@@ -15048,16 +15051,16 @@
         <v>362</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -15065,16 +15068,16 @@
         <v>362</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>397</v>
+        <v>57</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -15082,16 +15085,16 @@
         <v>362</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -15099,118 +15102,118 @@
         <v>362</v>
       </c>
       <c r="B774" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C777" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C774" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D774" s="1" t="s">
+      <c r="D777" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E774" s="1" t="s">
+      <c r="E777" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E780" s="1" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B775" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C775" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D775" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E775" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B776" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C776" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D776" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E776" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B777" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C777" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D777" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E777" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B778" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C778" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D778" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E778" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B779" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C779" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D779" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E779" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B780" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C780" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D780" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E780" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -15218,16 +15221,16 @@
         <v>362</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C781" s="5" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="E781" s="5" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -15235,16 +15238,16 @@
         <v>362</v>
       </c>
       <c r="B782" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C782" s="5" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="D782" s="5" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="E782" s="5" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -15252,16 +15255,16 @@
         <v>362</v>
       </c>
       <c r="B783" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C783" s="5" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="D783" s="5" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="E783" s="5" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -15269,15 +15272,117 @@
         <v>362</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C784" s="5" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="D784" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E784" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C785" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D785" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C786" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D786" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E786" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D787" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E787" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B788" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D788" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E788" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B789" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D789" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E789" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B790" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C790" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D790" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E784" s="5" t="s">
+      <c r="E790" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="422">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1486,6 +1486,36 @@
   </si>
   <si>
     <t>USED_CLIPPER_CODE</t>
+  </si>
+  <si>
+    <t>ENTERSTATION_LAT</t>
+  </si>
+  <si>
+    <t>ENTERSTATION_LON</t>
+  </si>
+  <si>
+    <t>EXITSTATION_LAT</t>
+  </si>
+  <si>
+    <t>EXITSTATION_LON</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>$35,000 to $40,000</t>
+  </si>
+  <si>
+    <t>$40,000 to $50,000</t>
+  </si>
+  <si>
+    <t>$50,000 to $60,000</t>
+  </si>
+  <si>
+    <t>$60,000 to $75,000</t>
   </si>
 </sst>
 </file>
@@ -1940,11 +1970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E790"/>
+  <dimension ref="A1:E794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C647" sqref="C647"/>
+      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D791" sqref="D791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12221,7 +12251,7 @@
         <v>52</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12272,7 +12302,7 @@
         <v>52</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12306,7 +12336,7 @@
         <v>52</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -12348,16 +12378,16 @@
         <v>362</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C612" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12368,13 +12398,13 @@
         <v>372</v>
       </c>
       <c r="C613" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -12385,13 +12415,13 @@
         <v>372</v>
       </c>
       <c r="C614" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D614" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12402,7 +12432,7 @@
         <v>372</v>
       </c>
       <c r="C615" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>135</v>
@@ -12419,7 +12449,7 @@
         <v>372</v>
       </c>
       <c r="C616" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D616" s="1" t="s">
         <v>135</v>
@@ -12436,7 +12466,7 @@
         <v>372</v>
       </c>
       <c r="C617" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D617" s="1" t="s">
         <v>135</v>
@@ -12453,13 +12483,13 @@
         <v>372</v>
       </c>
       <c r="C618" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12470,7 +12500,7 @@
         <v>372</v>
       </c>
       <c r="C619" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>135</v>
@@ -12487,7 +12517,7 @@
         <v>372</v>
       </c>
       <c r="C620" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>135</v>
@@ -12501,16 +12531,16 @@
         <v>362</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>57</v>
+        <v>372</v>
+      </c>
+      <c r="C621" s="1">
+        <v>9</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12521,13 +12551,13 @@
         <v>55</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12535,16 +12565,16 @@
         <v>362</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C623" s="1">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12555,13 +12585,13 @@
         <v>373</v>
       </c>
       <c r="C624" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12572,13 +12602,13 @@
         <v>373</v>
       </c>
       <c r="C625" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D625" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12589,13 +12619,13 @@
         <v>373</v>
       </c>
       <c r="C626" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D626" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12606,13 +12636,13 @@
         <v>373</v>
       </c>
       <c r="C627" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D627" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12623,13 +12653,13 @@
         <v>373</v>
       </c>
       <c r="C628" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D628" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12640,13 +12670,13 @@
         <v>373</v>
       </c>
       <c r="C629" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D629" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12654,16 +12684,16 @@
         <v>362</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="C630" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12674,13 +12704,13 @@
         <v>239</v>
       </c>
       <c r="C631" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12691,13 +12721,13 @@
         <v>239</v>
       </c>
       <c r="C632" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12708,13 +12738,13 @@
         <v>239</v>
       </c>
       <c r="C633" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,16 +12752,16 @@
         <v>362</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C634" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C634" s="1">
         <v>4</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -12739,13 +12769,13 @@
         <v>362</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E635" s="1" t="s">
         <v>4</v>
@@ -12756,16 +12786,16 @@
         <v>362</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C636" s="1">
-        <v>1</v>
+        <v>375</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -12776,13 +12806,13 @@
         <v>411</v>
       </c>
       <c r="C637" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -12793,13 +12823,13 @@
         <v>411</v>
       </c>
       <c r="C638" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -12810,13 +12840,13 @@
         <v>411</v>
       </c>
       <c r="C639" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12824,16 +12854,16 @@
         <v>362</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C640" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -12844,7 +12874,7 @@
         <v>410</v>
       </c>
       <c r="C641" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>148</v>
@@ -12861,13 +12891,13 @@
         <v>410</v>
       </c>
       <c r="C642" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D642" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -12878,13 +12908,13 @@
         <v>410</v>
       </c>
       <c r="C643" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -12895,13 +12925,13 @@
         <v>410</v>
       </c>
       <c r="C644" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -12912,13 +12942,13 @@
         <v>410</v>
       </c>
       <c r="C645" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D645" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -12929,13 +12959,13 @@
         <v>410</v>
       </c>
       <c r="C646" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -12943,16 +12973,16 @@
         <v>362</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>57</v>
+        <v>410</v>
+      </c>
+      <c r="C647" s="1">
+        <v>7</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -12963,13 +12993,13 @@
         <v>274</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -12977,16 +13007,16 @@
         <v>362</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C649" s="1">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -12997,13 +13027,13 @@
         <v>224</v>
       </c>
       <c r="C650" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -13014,13 +13044,13 @@
         <v>224</v>
       </c>
       <c r="C651" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -13031,13 +13061,13 @@
         <v>224</v>
       </c>
       <c r="C652" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -13048,13 +13078,13 @@
         <v>224</v>
       </c>
       <c r="C653" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>229</v>
+        <v>418</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -13065,13 +13095,13 @@
         <v>224</v>
       </c>
       <c r="C654" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -13082,13 +13112,13 @@
         <v>224</v>
       </c>
       <c r="C655" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D655" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -13099,13 +13129,13 @@
         <v>224</v>
       </c>
       <c r="C656" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13116,13 +13146,13 @@
         <v>224</v>
       </c>
       <c r="C657" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D657" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -13133,13 +13163,13 @@
         <v>224</v>
       </c>
       <c r="C658" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -13150,13 +13180,13 @@
         <v>224</v>
       </c>
       <c r="C659" s="1">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13164,16 +13194,16 @@
         <v>362</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C660" s="1">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -13184,13 +13214,13 @@
         <v>153</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -13198,16 +13228,16 @@
         <v>362</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -13215,13 +13245,13 @@
         <v>362</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>4</v>
@@ -13232,13 +13262,13 @@
         <v>362</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E664" s="1" t="s">
         <v>4</v>
@@ -13249,16 +13279,16 @@
         <v>362</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13269,13 +13299,13 @@
         <v>171</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13283,16 +13313,16 @@
         <v>362</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -13300,13 +13330,13 @@
         <v>362</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E668" s="1" t="s">
         <v>4</v>
@@ -13317,16 +13347,16 @@
         <v>362</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C669" s="1" t="s">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="C669" s="1">
+        <v>1</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -13337,13 +13367,13 @@
         <v>380</v>
       </c>
       <c r="C670" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13354,13 +13384,13 @@
         <v>380</v>
       </c>
       <c r="C671" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13371,13 +13401,13 @@
         <v>380</v>
       </c>
       <c r="C672" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13388,13 +13418,13 @@
         <v>380</v>
       </c>
       <c r="C673" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -13405,13 +13435,13 @@
         <v>380</v>
       </c>
       <c r="C674" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -13422,13 +13452,13 @@
         <v>380</v>
       </c>
       <c r="C675" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -13439,13 +13469,13 @@
         <v>380</v>
       </c>
       <c r="C676" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -13456,13 +13486,13 @@
         <v>380</v>
       </c>
       <c r="C677" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -13473,13 +13503,13 @@
         <v>380</v>
       </c>
       <c r="C678" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -13490,13 +13520,13 @@
         <v>380</v>
       </c>
       <c r="C679" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -13507,7 +13537,7 @@
         <v>380</v>
       </c>
       <c r="C680" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>40</v>
@@ -13524,13 +13554,13 @@
         <v>380</v>
       </c>
       <c r="C681" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D681" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -13541,13 +13571,13 @@
         <v>380</v>
       </c>
       <c r="C682" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D682" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -13558,13 +13588,13 @@
         <v>380</v>
       </c>
       <c r="C683" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -13575,13 +13605,13 @@
         <v>380</v>
       </c>
       <c r="C684" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D684" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -13592,13 +13622,13 @@
         <v>380</v>
       </c>
       <c r="C685" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -15383,6 +15413,74 @@
         <v>342</v>
       </c>
       <c r="E790" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D791" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E791" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D792" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E792" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D793" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E793" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D794" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E794" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="418">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1488,34 +1488,22 @@
     <t>USED_CLIPPER_CODE</t>
   </si>
   <si>
-    <t>ENTERSTATION_LAT</t>
-  </si>
-  <si>
-    <t>ENTERSTATION_LON</t>
-  </si>
-  <si>
-    <t>EXITSTATION_LAT</t>
-  </si>
-  <si>
-    <t>EXITSTATION_LON</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>$35,000 to $40,000</t>
-  </si>
-  <si>
-    <t>$40,000 to $50,000</t>
-  </si>
-  <si>
-    <t>$50,000 to $60,000</t>
-  </si>
-  <si>
-    <t>$60,000 to $75,000</t>
+    <t>FIRST_ENTER_BART_LAT</t>
+  </si>
+  <si>
+    <t>FIRST_ENTER_BART_LON</t>
+  </si>
+  <si>
+    <t>BART_EXIT_LAT</t>
+  </si>
+  <si>
+    <t>BART_EXIT_LON</t>
   </si>
 </sst>
 </file>
@@ -1973,8 +1961,8 @@
   <dimension ref="A1:E794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D791" sqref="D791"/>
+      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E651" sqref="E651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13083,8 +13071,8 @@
       <c r="D653" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E653" s="1" t="s">
-        <v>418</v>
+      <c r="E653" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -13100,8 +13088,8 @@
       <c r="D654" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E654" s="1" t="s">
-        <v>419</v>
+      <c r="E654" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -13117,8 +13105,8 @@
       <c r="D655" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E655" s="1" t="s">
-        <v>420</v>
+      <c r="E655" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -13134,8 +13122,8 @@
       <c r="D656" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E656" s="1" t="s">
-        <v>421</v>
+      <c r="E656" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13197,7 +13185,7 @@
         <v>153</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D660" s="1" t="s">
         <v>156</v>
@@ -13214,7 +13202,7 @@
         <v>153</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>156</v>
@@ -15421,7 +15409,7 @@
         <v>362</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C791" s="5" t="s">
         <v>4</v>
@@ -15438,7 +15426,7 @@
         <v>362</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C792" s="5" t="s">
         <v>4</v>
@@ -15455,7 +15443,7 @@
         <v>362</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C793" s="5" t="s">
         <v>4</v>
@@ -15472,7 +15460,7 @@
         <v>362</v>
       </c>
       <c r="B794" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C794" s="5" t="s">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\GitHub\onboard-surveys\make-uniform\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dory\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="429">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1504,6 +1504,39 @@
   </si>
   <si>
     <t>BART_EXIT_LON</t>
+  </si>
+  <si>
+    <t>SF Muni</t>
+  </si>
+  <si>
+    <t>Walked all the way</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Drove alone and parked</t>
+  </si>
+  <si>
+    <t>Bike (PERSONAL BIKE)</t>
+  </si>
+  <si>
+    <t>Drove or rode with others and parked</t>
+  </si>
+  <si>
+    <t>Was dropped off (Not a service)</t>
+  </si>
+  <si>
+    <t>Used Uber or similar service</t>
+  </si>
+  <si>
+    <t>ACCESS_MODE</t>
+  </si>
+  <si>
+    <t>WENT2SCHL_B4_TRIP</t>
+  </si>
+  <si>
+    <t>WORKED_BEFORE_TRIP</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1572,6 +1605,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1637,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1612,7 +1657,14 @@
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1958,18 +2010,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E794"/>
+  <dimension ref="A1:E1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E651" sqref="E651"/>
+      <pane ySplit="1" topLeftCell="A796" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A806" sqref="A806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
   </cols>
@@ -11835,3640 +11887,6642 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B581" s="7" t="s">
+      <c r="A581" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B581" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C581" s="1">
+      <c r="C581" s="7">
         <v>1</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="D581" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E581" s="1" t="s">
+      <c r="E581" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B582" s="7" t="s">
+      <c r="A582" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B582" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C582" s="1">
+      <c r="C582" s="7">
         <v>2</v>
       </c>
-      <c r="D582" s="1" t="s">
+      <c r="D582" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E582" s="1" t="s">
+      <c r="E582" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B583" s="7" t="s">
+      <c r="A583" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B583" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C583" s="1">
+      <c r="C583" s="7">
         <v>3</v>
       </c>
-      <c r="D583" s="1" t="s">
+      <c r="D583" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E583" s="1" t="s">
+      <c r="E583" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B584" s="7" t="s">
+      <c r="A584" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B584" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C584" s="1">
-        <v>4</v>
-      </c>
-      <c r="D584" s="1" t="s">
+      <c r="C584" s="7">
+        <v>4</v>
+      </c>
+      <c r="D584" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E584" s="1" t="s">
+      <c r="E584" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B585" s="7" t="s">
+      <c r="A585" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B585" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C585" s="1">
+      <c r="C585" s="7">
         <v>5</v>
       </c>
-      <c r="D585" s="1" t="s">
+      <c r="D585" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E585" s="1" t="s">
+      <c r="E585" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B586" s="7" t="s">
+      <c r="A586" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B586" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C586" s="1">
+      <c r="C586" s="7">
         <v>6</v>
       </c>
-      <c r="D586" s="1" t="s">
+      <c r="D586" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E586" s="1" t="s">
+      <c r="E586" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B587" s="7" t="s">
+      <c r="A587" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B587" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C587" s="1">
+      <c r="C587" s="7">
         <v>7</v>
       </c>
-      <c r="D587" s="1" t="s">
+      <c r="D587" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E587" s="1" t="s">
+      <c r="E587" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B588" s="7" t="s">
+      <c r="A588" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B588" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C588" s="1">
+      <c r="C588" s="7">
         <v>8</v>
       </c>
-      <c r="D588" s="1" t="s">
+      <c r="D588" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E588" s="1" t="s">
+      <c r="E588" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B589" s="7" t="s">
+      <c r="A589" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B589" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C589" s="1">
+      <c r="C589" s="7">
         <v>9</v>
       </c>
-      <c r="D589" s="1" t="s">
+      <c r="D589" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E589" s="1" t="s">
+      <c r="E589" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B590" s="1" t="s">
+      <c r="A590" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B590" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C590" s="1" t="s">
+      <c r="C590" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D590" s="1" t="s">
+      <c r="D590" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E590" s="1" t="s">
+      <c r="E590" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B591" s="1" t="s">
+      <c r="A591" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B591" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C591" s="1" t="s">
+      <c r="C591" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D591" s="1" t="s">
+      <c r="D591" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E591" s="1" t="s">
+      <c r="E591" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B592" s="1" t="s">
+      <c r="A592" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B592" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C592" s="1" t="s">
+      <c r="C592" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D592" s="1" t="s">
+      <c r="D592" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E592" s="1" t="s">
+      <c r="E592" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B593" s="1" t="s">
+      <c r="A593" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B593" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C593" s="1" t="s">
+      <c r="C593" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D593" s="1" t="s">
+      <c r="D593" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E593" s="1" t="s">
+      <c r="E593" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B594" s="1" t="s">
+      <c r="A594" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B594" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C594" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D594" s="1" t="s">
+      <c r="C594" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D594" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E594" s="1" t="s">
+      <c r="E594" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B595" s="1" t="s">
+      <c r="A595" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B595" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C595" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D595" s="1" t="s">
+      <c r="C595" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E595" s="1" t="s">
+      <c r="E595" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B596" s="1" t="s">
+      <c r="A596" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B596" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C596" s="1">
+      <c r="C596" s="7">
         <v>1</v>
       </c>
-      <c r="D596" s="1" t="s">
+      <c r="D596" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E596" s="1" t="s">
+      <c r="E596" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B597" s="1" t="s">
+      <c r="A597" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B597" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C597" s="1">
+      <c r="C597" s="7">
         <v>2</v>
       </c>
-      <c r="D597" s="1" t="s">
+      <c r="D597" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E597" s="1" t="s">
+      <c r="E597" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B598" s="1" t="s">
+      <c r="A598" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B598" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C598" s="1">
+      <c r="C598" s="7">
         <v>3</v>
       </c>
-      <c r="D598" s="1" t="s">
+      <c r="D598" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E598" s="1" t="s">
+      <c r="E598" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B599" s="1" t="s">
+      <c r="A599" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B599" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C599" s="1">
-        <v>4</v>
-      </c>
-      <c r="D599" s="1" t="s">
+      <c r="C599" s="7">
+        <v>4</v>
+      </c>
+      <c r="D599" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E599" s="1" t="s">
+      <c r="E599" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B600" s="1" t="s">
+      <c r="A600" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B600" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C600" s="1">
+      <c r="C600" s="7">
         <v>5</v>
       </c>
-      <c r="D600" s="1" t="s">
+      <c r="D600" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E600" s="1" t="s">
+      <c r="E600" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B601" s="1" t="s">
+      <c r="A601" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B601" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C601" s="1">
+      <c r="C601" s="7">
         <v>6</v>
       </c>
-      <c r="D601" s="1" t="s">
+      <c r="D601" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E601" s="1" t="s">
+      <c r="E601" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B602" s="1" t="s">
+      <c r="A602" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B602" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C602" s="1">
+      <c r="C602" s="7">
         <v>7</v>
       </c>
-      <c r="D602" s="1" t="s">
+      <c r="D602" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E602" s="1" t="s">
+      <c r="E602" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B603" s="1" t="s">
+      <c r="A603" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B603" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C603" s="1">
+      <c r="C603" s="7">
         <v>8</v>
       </c>
-      <c r="D603" s="1" t="s">
+      <c r="D603" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E603" s="1" t="s">
+      <c r="E603" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B604" s="1" t="s">
+      <c r="A604" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B604" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C604" s="1">
+      <c r="C604" s="7">
         <v>9</v>
       </c>
-      <c r="D604" s="1" t="s">
+      <c r="D604" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E604" s="1" t="s">
+      <c r="E604" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B605" s="1" t="s">
+      <c r="A605" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B605" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C605" s="1">
+      <c r="C605" s="7">
         <v>10</v>
       </c>
-      <c r="D605" s="1" t="s">
+      <c r="D605" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E605" s="1" t="s">
+      <c r="E605" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B606" s="1" t="s">
+      <c r="A606" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B606" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C606" s="1">
+      <c r="C606" s="7">
         <v>11</v>
       </c>
-      <c r="D606" s="1" t="s">
+      <c r="D606" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E606" s="1" t="s">
+      <c r="E606" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B607" s="1" t="s">
+      <c r="A607" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B607" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C607" s="1">
+      <c r="C607" s="7">
         <v>12</v>
       </c>
-      <c r="D607" s="1" t="s">
+      <c r="D607" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E607" s="1" t="s">
+      <c r="E607" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B608" s="1" t="s">
+      <c r="A608" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B608" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C608" s="1">
+      <c r="C608" s="7">
         <v>13</v>
       </c>
-      <c r="D608" s="1" t="s">
+      <c r="D608" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E608" s="1" t="s">
+      <c r="E608" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B609" s="1" t="s">
+      <c r="A609" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B609" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C609" s="1">
+      <c r="C609" s="7">
         <v>14</v>
       </c>
-      <c r="D609" s="1" t="s">
+      <c r="D609" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E609" s="1" t="s">
+      <c r="E609" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B610" s="1" t="s">
+      <c r="A610" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B610" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C610" s="1">
+      <c r="C610" s="7">
         <v>15</v>
       </c>
-      <c r="D610" s="1" t="s">
+      <c r="D610" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E610" s="1" t="s">
+      <c r="E610" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B611" s="1" t="s">
+      <c r="A611" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B611" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C611" s="1">
+      <c r="C611" s="7">
         <v>16</v>
       </c>
-      <c r="D611" s="1" t="s">
+      <c r="D611" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E611" s="1" t="s">
+      <c r="E611" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B612" s="1" t="s">
+      <c r="A612" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B612" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C612" s="1">
+      <c r="C612" s="7">
         <v>17</v>
       </c>
-      <c r="D612" s="1" t="s">
+      <c r="D612" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E612" s="1" t="s">
+      <c r="E612" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B613" s="1" t="s">
+      <c r="A613" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B613" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C613" s="1">
+      <c r="C613" s="7">
         <v>1</v>
       </c>
-      <c r="D613" s="1" t="s">
+      <c r="D613" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E613" s="1" t="s">
+      <c r="E613" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B614" s="1" t="s">
+      <c r="A614" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B614" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C614" s="1">
+      <c r="C614" s="7">
         <v>2</v>
       </c>
-      <c r="D614" s="1" t="s">
+      <c r="D614" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E614" s="1" t="s">
+      <c r="E614" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B615" s="1" t="s">
+      <c r="A615" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B615" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C615" s="1">
+      <c r="C615" s="7">
         <v>3</v>
       </c>
-      <c r="D615" s="1" t="s">
+      <c r="D615" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E615" s="1" t="s">
+      <c r="E615" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B616" s="1" t="s">
+      <c r="A616" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B616" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C616" s="1">
-        <v>4</v>
-      </c>
-      <c r="D616" s="1" t="s">
+      <c r="C616" s="7">
+        <v>4</v>
+      </c>
+      <c r="D616" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E616" s="1" t="s">
+      <c r="E616" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B617" s="1" t="s">
+      <c r="A617" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B617" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C617" s="1">
+      <c r="C617" s="7">
         <v>5</v>
       </c>
-      <c r="D617" s="1" t="s">
+      <c r="D617" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E617" s="1" t="s">
+      <c r="E617" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B618" s="1" t="s">
+      <c r="A618" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B618" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C618" s="1">
+      <c r="C618" s="7">
         <v>6</v>
       </c>
-      <c r="D618" s="1" t="s">
+      <c r="D618" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E618" s="1" t="s">
+      <c r="E618" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B619" s="1" t="s">
+      <c r="A619" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B619" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C619" s="1">
+      <c r="C619" s="7">
         <v>7</v>
       </c>
-      <c r="D619" s="1" t="s">
+      <c r="D619" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E619" s="1" t="s">
+      <c r="E619" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B620" s="1" t="s">
+      <c r="A620" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B620" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C620" s="1">
+      <c r="C620" s="7">
         <v>8</v>
       </c>
-      <c r="D620" s="1" t="s">
+      <c r="D620" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E620" s="1" t="s">
+      <c r="E620" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B621" s="1" t="s">
+      <c r="A621" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B621" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C621" s="1">
+      <c r="C621" s="7">
         <v>9</v>
       </c>
-      <c r="D621" s="1" t="s">
+      <c r="D621" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E621" s="1" t="s">
+      <c r="E621" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B622" s="1" t="s">
+      <c r="A622" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B622" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C622" s="1" t="s">
+      <c r="C622" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D622" s="1" t="s">
+      <c r="D622" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E622" s="1" t="s">
+      <c r="E622" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B623" s="1" t="s">
+      <c r="A623" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B623" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C623" s="1" t="s">
+      <c r="C623" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D623" s="1" t="s">
+      <c r="D623" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E623" s="1" t="s">
+      <c r="E623" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B624" s="1" t="s">
+      <c r="A624" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B624" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C624" s="1">
+      <c r="C624" s="7">
         <v>0</v>
       </c>
-      <c r="D624" s="1" t="s">
+      <c r="D624" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E624" s="1" t="s">
+      <c r="E624" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B625" s="1" t="s">
+      <c r="A625" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B625" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C625" s="1">
+      <c r="C625" s="7">
         <v>1</v>
       </c>
-      <c r="D625" s="1" t="s">
+      <c r="D625" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E625" s="1" t="s">
+      <c r="E625" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B626" s="1" t="s">
+      <c r="A626" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B626" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C626" s="1">
+      <c r="C626" s="7">
         <v>2</v>
       </c>
-      <c r="D626" s="1" t="s">
+      <c r="D626" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E626" s="1" t="s">
+      <c r="E626" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B627" s="1" t="s">
+      <c r="A627" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B627" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C627" s="1">
+      <c r="C627" s="7">
         <v>3</v>
       </c>
-      <c r="D627" s="1" t="s">
+      <c r="D627" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E627" s="1" t="s">
+      <c r="E627" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B628" s="1" t="s">
+      <c r="A628" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B628" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C628" s="1">
-        <v>4</v>
-      </c>
-      <c r="D628" s="1" t="s">
+      <c r="C628" s="7">
+        <v>4</v>
+      </c>
+      <c r="D628" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E628" s="1" t="s">
+      <c r="E628" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B629" s="1" t="s">
+      <c r="A629" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B629" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C629" s="1">
+      <c r="C629" s="7">
         <v>5</v>
       </c>
-      <c r="D629" s="1" t="s">
+      <c r="D629" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E629" s="1" t="s">
+      <c r="E629" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B630" s="1" t="s">
+      <c r="A630" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B630" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C630" s="1">
+      <c r="C630" s="7">
         <v>6</v>
       </c>
-      <c r="D630" s="1" t="s">
+      <c r="D630" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E630" s="1" t="s">
+      <c r="E630" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B631" s="1" t="s">
+      <c r="A631" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B631" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C631" s="1">
+      <c r="C631" s="7">
         <v>1</v>
       </c>
-      <c r="D631" s="1" t="s">
+      <c r="D631" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E631" s="1" t="s">
+      <c r="E631" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B632" s="1" t="s">
+      <c r="A632" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B632" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C632" s="1">
+      <c r="C632" s="7">
         <v>2</v>
       </c>
-      <c r="D632" s="1" t="s">
+      <c r="D632" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E632" s="1" t="s">
+      <c r="E632" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B633" s="1" t="s">
+      <c r="A633" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B633" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C633" s="1">
+      <c r="C633" s="7">
         <v>3</v>
       </c>
-      <c r="D633" s="1" t="s">
+      <c r="D633" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E633" s="1" t="s">
+      <c r="E633" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B634" s="1" t="s">
+      <c r="A634" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B634" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C634" s="1">
-        <v>4</v>
-      </c>
-      <c r="D634" s="1" t="s">
+      <c r="C634" s="7">
+        <v>4</v>
+      </c>
+      <c r="D634" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E634" s="1" t="s">
+      <c r="E634" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B635" s="1" t="s">
+      <c r="A635" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B635" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C635" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D635" s="1" t="s">
+      <c r="C635" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D635" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E635" s="1" t="s">
+      <c r="E635" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B636" s="1" t="s">
+      <c r="A636" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B636" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C636" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D636" s="1" t="s">
+      <c r="C636" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E636" s="1" t="s">
+      <c r="E636" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B637" s="1" t="s">
+      <c r="A637" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B637" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C637" s="1">
+      <c r="C637" s="7">
         <v>1</v>
       </c>
-      <c r="D637" s="1" t="s">
+      <c r="D637" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E637" s="1" t="s">
+      <c r="E637" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B638" s="1" t="s">
+      <c r="A638" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B638" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C638" s="1">
+      <c r="C638" s="7">
         <v>2</v>
       </c>
-      <c r="D638" s="1" t="s">
+      <c r="D638" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E638" s="1" t="s">
+      <c r="E638" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B639" s="1" t="s">
+      <c r="A639" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B639" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C639" s="1">
+      <c r="C639" s="7">
         <v>3</v>
       </c>
-      <c r="D639" s="1" t="s">
+      <c r="D639" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E639" s="1" t="s">
+      <c r="E639" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B640" s="1" t="s">
+      <c r="A640" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B640" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C640" s="1">
-        <v>4</v>
-      </c>
-      <c r="D640" s="1" t="s">
+      <c r="C640" s="7">
+        <v>4</v>
+      </c>
+      <c r="D640" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E640" s="1" t="s">
+      <c r="E640" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B641" s="1" t="s">
+      <c r="A641" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B641" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C641" s="1">
+      <c r="C641" s="7">
         <v>1</v>
       </c>
-      <c r="D641" s="1" t="s">
+      <c r="D641" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E641" s="1" t="s">
+      <c r="E641" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B642" s="1" t="s">
+      <c r="A642" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B642" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C642" s="1">
+      <c r="C642" s="7">
         <v>2</v>
       </c>
-      <c r="D642" s="1" t="s">
+      <c r="D642" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E642" s="1" t="s">
+      <c r="E642" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B643" s="1" t="s">
+      <c r="A643" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B643" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C643" s="1">
+      <c r="C643" s="7">
         <v>3</v>
       </c>
-      <c r="D643" s="1" t="s">
+      <c r="D643" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E643" s="1" t="s">
+      <c r="E643" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B644" s="1" t="s">
+      <c r="A644" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B644" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C644" s="1">
-        <v>4</v>
-      </c>
-      <c r="D644" s="1" t="s">
+      <c r="C644" s="7">
+        <v>4</v>
+      </c>
+      <c r="D644" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E644" s="1" t="s">
+      <c r="E644" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B645" s="1" t="s">
+      <c r="A645" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B645" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C645" s="1">
+      <c r="C645" s="7">
         <v>5</v>
       </c>
-      <c r="D645" s="1" t="s">
+      <c r="D645" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E645" s="1" t="s">
+      <c r="E645" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B646" s="1" t="s">
+      <c r="A646" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B646" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C646" s="1">
+      <c r="C646" s="7">
         <v>6</v>
       </c>
-      <c r="D646" s="1" t="s">
+      <c r="D646" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E646" s="1" t="s">
+      <c r="E646" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B647" s="1" t="s">
+      <c r="A647" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B647" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C647" s="1">
+      <c r="C647" s="7">
         <v>7</v>
       </c>
-      <c r="D647" s="1" t="s">
+      <c r="D647" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E647" s="1" t="s">
+      <c r="E647" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B648" s="1" t="s">
+      <c r="A648" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B648" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C648" s="1" t="s">
+      <c r="C648" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D648" s="1" t="s">
+      <c r="D648" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E648" s="1" t="s">
+      <c r="E648" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B649" s="1" t="s">
+      <c r="A649" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B649" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C649" s="1" t="s">
+      <c r="C649" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D649" s="1" t="s">
+      <c r="D649" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E649" s="1" t="s">
+      <c r="E649" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B650" s="1" t="s">
+      <c r="A650" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B650" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C650" s="1">
+      <c r="C650" s="7">
         <v>1</v>
       </c>
-      <c r="D650" s="1" t="s">
+      <c r="D650" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E650" s="1" t="s">
+      <c r="E650" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B651" s="1" t="s">
+      <c r="A651" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B651" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C651" s="1">
+      <c r="C651" s="7">
         <v>2</v>
       </c>
-      <c r="D651" s="1" t="s">
+      <c r="D651" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E651" s="1" t="s">
+      <c r="E651" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B652" s="1" t="s">
+      <c r="A652" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B652" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C652" s="1">
+      <c r="C652" s="7">
         <v>3</v>
       </c>
-      <c r="D652" s="1" t="s">
+      <c r="D652" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E652" s="1" t="s">
+      <c r="E652" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B653" s="1" t="s">
+      <c r="A653" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B653" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C653" s="1">
-        <v>4</v>
-      </c>
-      <c r="D653" s="1" t="s">
+      <c r="C653" s="7">
+        <v>4</v>
+      </c>
+      <c r="D653" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E653" t="s">
+      <c r="E653" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B654" s="1" t="s">
+      <c r="A654" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B654" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C654" s="1">
+      <c r="C654" s="7">
         <v>5</v>
       </c>
-      <c r="D654" s="1" t="s">
+      <c r="D654" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E654" t="s">
+      <c r="E654" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B655" s="1" t="s">
+      <c r="A655" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B655" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C655" s="1">
+      <c r="C655" s="7">
         <v>6</v>
       </c>
-      <c r="D655" s="1" t="s">
+      <c r="D655" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E655" t="s">
+      <c r="E655" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B656" s="1" t="s">
+      <c r="A656" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B656" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C656" s="1">
+      <c r="C656" s="7">
         <v>7</v>
       </c>
-      <c r="D656" s="1" t="s">
+      <c r="D656" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E656" t="s">
+      <c r="E656" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B657" s="1" t="s">
+      <c r="A657" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B657" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C657" s="1">
+      <c r="C657" s="7">
         <v>8</v>
       </c>
-      <c r="D657" s="1" t="s">
+      <c r="D657" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E657" s="1" t="s">
+      <c r="E657" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B658" s="1" t="s">
+      <c r="A658" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B658" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C658" s="1">
+      <c r="C658" s="7">
         <v>9</v>
       </c>
-      <c r="D658" s="1" t="s">
+      <c r="D658" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E658" s="1" t="s">
+      <c r="E658" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B659" s="1" t="s">
+      <c r="A659" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B659" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C659" s="1">
+      <c r="C659" s="7">
         <v>10</v>
       </c>
-      <c r="D659" s="1" t="s">
+      <c r="D659" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E659" s="1" t="s">
+      <c r="E659" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B660" s="1" t="s">
+      <c r="A660" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B660" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C660" s="1" t="s">
+      <c r="C660" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D660" s="1" t="s">
+      <c r="D660" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E660" s="1" t="s">
+      <c r="E660" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B661" s="1" t="s">
+      <c r="A661" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B661" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C661" s="1" t="s">
+      <c r="C661" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="D661" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E661" s="1" t="s">
+      <c r="E661" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B662" s="1" t="s">
+      <c r="A662" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B662" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C662" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D662" s="1" t="s">
+      <c r="C662" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D662" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E662" s="1" t="s">
+      <c r="E662" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B663" s="1" t="s">
+      <c r="A663" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B663" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C663" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D663" s="1" t="s">
+      <c r="C663" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D663" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E663" s="1" t="s">
+      <c r="E663" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B664" s="1" t="s">
+      <c r="A664" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B664" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C664" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D664" s="1" t="s">
+      <c r="C664" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D664" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E664" s="1" t="s">
+      <c r="E664" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B665" s="1" t="s">
+      <c r="A665" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B665" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C665" s="1" t="s">
+      <c r="C665" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D665" s="1" t="s">
+      <c r="D665" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E665" s="1" t="s">
+      <c r="E665" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B666" s="1" t="s">
+      <c r="A666" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B666" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C666" s="1" t="s">
+      <c r="C666" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D666" s="1" t="s">
+      <c r="D666" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E666" s="1" t="s">
+      <c r="E666" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B667" s="1" t="s">
+      <c r="A667" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B667" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C667" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D667" s="1" t="s">
+      <c r="C667" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D667" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E667" s="1" t="s">
+      <c r="E667" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B668" s="1" t="s">
+      <c r="A668" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B668" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C668" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D668" s="1" t="s">
+      <c r="C668" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D668" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E668" s="1" t="s">
+      <c r="E668" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B669" s="1" t="s">
+      <c r="A669" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B669" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C669" s="1">
+      <c r="C669" s="7">
         <v>1</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="D669" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E669" s="1" t="s">
+      <c r="E669" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B670" s="1" t="s">
+      <c r="A670" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B670" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C670" s="1">
+      <c r="C670" s="7">
         <v>2</v>
       </c>
-      <c r="D670" s="1" t="s">
+      <c r="D670" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E670" s="1" t="s">
+      <c r="E670" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B671" s="1" t="s">
+      <c r="A671" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B671" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C671" s="1">
+      <c r="C671" s="7">
         <v>3</v>
       </c>
-      <c r="D671" s="1" t="s">
+      <c r="D671" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E671" s="1" t="s">
+      <c r="E671" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B672" s="1" t="s">
+      <c r="A672" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B672" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C672" s="1">
-        <v>4</v>
-      </c>
-      <c r="D672" s="1" t="s">
+      <c r="C672" s="7">
+        <v>4</v>
+      </c>
+      <c r="D672" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E672" s="1" t="s">
+      <c r="E672" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B673" s="1" t="s">
+      <c r="A673" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B673" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C673" s="1">
+      <c r="C673" s="7">
         <v>5</v>
       </c>
-      <c r="D673" s="1" t="s">
+      <c r="D673" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E673" s="1" t="s">
+      <c r="E673" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B674" s="1" t="s">
+      <c r="A674" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B674" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C674" s="1">
+      <c r="C674" s="7">
         <v>6</v>
       </c>
-      <c r="D674" s="1" t="s">
+      <c r="D674" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E674" s="1" t="s">
+      <c r="E674" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B675" s="1" t="s">
+      <c r="A675" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B675" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C675" s="1">
+      <c r="C675" s="7">
         <v>7</v>
       </c>
-      <c r="D675" s="1" t="s">
+      <c r="D675" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E675" s="1" t="s">
+      <c r="E675" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B676" s="1" t="s">
+      <c r="A676" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B676" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C676" s="1">
+      <c r="C676" s="7">
         <v>8</v>
       </c>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E676" s="1" t="s">
+      <c r="E676" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B677" s="1" t="s">
+      <c r="A677" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B677" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C677" s="1">
+      <c r="C677" s="7">
         <v>9</v>
       </c>
-      <c r="D677" s="1" t="s">
+      <c r="D677" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E677" s="1" t="s">
+      <c r="E677" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B678" s="1" t="s">
+      <c r="A678" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B678" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C678" s="1">
+      <c r="C678" s="7">
         <v>10</v>
       </c>
-      <c r="D678" s="1" t="s">
+      <c r="D678" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E678" s="1" t="s">
+      <c r="E678" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B679" s="1" t="s">
+      <c r="A679" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B679" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C679" s="1">
+      <c r="C679" s="7">
         <v>11</v>
       </c>
-      <c r="D679" s="1" t="s">
+      <c r="D679" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E679" s="1" t="s">
+      <c r="E679" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B680" s="1" t="s">
+      <c r="A680" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B680" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C680" s="1">
+      <c r="C680" s="7">
         <v>12</v>
       </c>
-      <c r="D680" s="1" t="s">
+      <c r="D680" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E680" s="1" t="s">
+      <c r="E680" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B681" s="1" t="s">
+      <c r="A681" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B681" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C681" s="1">
+      <c r="C681" s="7">
         <v>13</v>
       </c>
-      <c r="D681" s="1" t="s">
+      <c r="D681" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E681" s="1" t="s">
+      <c r="E681" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B682" s="1" t="s">
+      <c r="A682" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B682" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C682" s="1">
+      <c r="C682" s="7">
         <v>14</v>
       </c>
-      <c r="D682" s="1" t="s">
+      <c r="D682" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E682" s="1" t="s">
+      <c r="E682" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B683" s="1" t="s">
+      <c r="A683" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B683" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C683" s="1">
+      <c r="C683" s="7">
         <v>15</v>
       </c>
-      <c r="D683" s="1" t="s">
+      <c r="D683" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E683" s="1" t="s">
+      <c r="E683" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B684" s="1" t="s">
+      <c r="A684" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B684" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C684" s="1">
+      <c r="C684" s="7">
         <v>16</v>
       </c>
-      <c r="D684" s="1" t="s">
+      <c r="D684" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E684" s="1" t="s">
+      <c r="E684" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B685" s="1" t="s">
+      <c r="A685" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B685" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C685" s="1">
+      <c r="C685" s="7">
         <v>17</v>
       </c>
-      <c r="D685" s="1" t="s">
+      <c r="D685" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E685" s="1" t="s">
+      <c r="E685" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B686" s="1" t="s">
+      <c r="A686" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B686" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C686" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D686" s="1" t="s">
+      <c r="C686" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D686" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E686" s="1" t="s">
+      <c r="E686" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B687" s="1" t="s">
+      <c r="A687" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B687" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C687" s="1">
+      <c r="C687" s="7">
         <v>1</v>
       </c>
-      <c r="D687" s="1" t="s">
+      <c r="D687" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E687" s="1" t="s">
+      <c r="E687" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B688" s="1" t="s">
+      <c r="A688" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B688" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C688" s="1">
+      <c r="C688" s="7">
         <v>2</v>
       </c>
-      <c r="D688" s="1" t="s">
+      <c r="D688" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E688" s="1" t="s">
+      <c r="E688" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B689" s="1" t="s">
+      <c r="A689" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B689" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C689" s="1">
+      <c r="C689" s="7">
         <v>3</v>
       </c>
-      <c r="D689" s="1" t="s">
+      <c r="D689" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E689" s="1" t="s">
+      <c r="E689" s="7" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B690" s="1" t="s">
+      <c r="A690" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B690" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C690" s="1">
-        <v>4</v>
-      </c>
-      <c r="D690" s="1" t="s">
+      <c r="C690" s="7">
+        <v>4</v>
+      </c>
+      <c r="D690" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E690" s="1" t="s">
+      <c r="E690" s="7" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B691" s="1" t="s">
+      <c r="A691" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B691" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C691" s="1">
+      <c r="C691" s="7">
         <v>5</v>
       </c>
-      <c r="D691" s="1" t="s">
+      <c r="D691" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E691" s="1" t="s">
+      <c r="E691" s="7" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B692" s="1" t="s">
+      <c r="A692" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B692" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C692" s="1" t="s">
+      <c r="C692" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D692" s="1" t="s">
+      <c r="D692" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E692" s="1" t="s">
+      <c r="E692" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B693" s="1" t="s">
+      <c r="A693" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B693" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C693" s="1" t="s">
+      <c r="C693" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D693" s="1" t="s">
+      <c r="D693" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E693" s="1" t="s">
+      <c r="E693" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B694" s="1" t="s">
+      <c r="A694" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B694" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C694" s="1" t="s">
+      <c r="C694" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D694" s="1" t="s">
+      <c r="D694" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E694" s="1" t="s">
+      <c r="E694" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B695" s="1" t="s">
+      <c r="A695" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B695" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C695" s="1" t="s">
+      <c r="C695" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D695" s="1" t="s">
+      <c r="D695" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E695" s="1" t="s">
+      <c r="E695" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B696" s="1" t="s">
+      <c r="A696" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B696" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C696" s="1" t="s">
+      <c r="C696" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D696" s="1" t="s">
+      <c r="D696" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E696" s="1" t="s">
+      <c r="E696" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B697" s="1" t="s">
+      <c r="A697" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B697" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="C697" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D697" s="1" t="s">
+      <c r="D697" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E697" s="1" t="s">
+      <c r="E697" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B698" s="1" t="s">
+      <c r="A698" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B698" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C698" s="1" t="s">
+      <c r="C698" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D698" s="1" t="s">
+      <c r="D698" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E698" s="1" t="s">
+      <c r="E698" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B699" s="1" t="s">
+      <c r="A699" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B699" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C699" s="1" t="s">
+      <c r="C699" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D699" s="1" t="s">
+      <c r="D699" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E699" s="1" t="s">
+      <c r="E699" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B700" s="1" t="s">
+      <c r="A700" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B700" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C700" s="1" t="s">
+      <c r="C700" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D700" s="1" t="s">
+      <c r="D700" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E700" s="1" t="s">
+      <c r="E700" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B701" s="1" t="s">
+      <c r="A701" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B701" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C701" s="1" t="s">
+      <c r="C701" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D701" s="1" t="s">
+      <c r="D701" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E701" s="1" t="s">
+      <c r="E701" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B702" s="1" t="s">
+      <c r="A702" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B702" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C702" s="1" t="s">
+      <c r="C702" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D702" s="1" t="s">
+      <c r="D702" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E702" s="1">
+      <c r="E702" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B703" s="1" t="s">
+      <c r="A703" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B703" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C703" s="1" t="s">
+      <c r="C703" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D703" s="1" t="s">
+      <c r="D703" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E703" s="1">
+      <c r="E703" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B704" s="1" t="s">
+      <c r="A704" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B704" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C704" s="1" t="s">
+      <c r="C704" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D704" s="1" t="s">
+      <c r="D704" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E704" s="1">
+      <c r="E704" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B705" s="1" t="s">
+      <c r="A705" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B705" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C705" s="1" t="s">
+      <c r="C705" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="D705" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E705" s="1">
+      <c r="E705" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B706" s="1" t="s">
+      <c r="A706" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B706" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C706" s="1" t="s">
+      <c r="C706" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D706" s="1" t="s">
+      <c r="D706" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E706" s="1">
+      <c r="E706" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B707" s="1" t="s">
+      <c r="A707" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B707" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C707" s="1" t="s">
+      <c r="C707" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D707" s="1" t="s">
+      <c r="D707" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E707" s="1">
+      <c r="E707" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B708" s="1" t="s">
+      <c r="A708" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B708" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C708" s="1" t="s">
+      <c r="C708" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D708" s="1" t="s">
+      <c r="D708" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E708" s="1">
+      <c r="E708" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B709" s="1" t="s">
+      <c r="A709" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B709" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C709" s="1" t="s">
+      <c r="C709" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D709" s="1" t="s">
+      <c r="D709" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E709" s="1">
+      <c r="E709" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B710" s="1" t="s">
+      <c r="A710" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B710" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C710" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D710" s="1" t="s">
+      <c r="C710" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D710" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E710" s="1" t="s">
+      <c r="E710" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B711" s="1" t="s">
+      <c r="A711" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B711" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C711" s="1" t="s">
+      <c r="C711" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D711" s="1" t="s">
+      <c r="D711" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E711" s="1">
+      <c r="E711" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B712" s="1" t="s">
+      <c r="A712" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B712" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C712" s="1" t="s">
+      <c r="C712" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D712" s="1" t="s">
+      <c r="D712" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E712" s="1">
+      <c r="E712" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B713" s="1" t="s">
+      <c r="A713" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B713" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C713" s="1">
+      <c r="C713" s="7">
         <v>1</v>
       </c>
-      <c r="D713" s="1" t="s">
+      <c r="D713" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E713" s="1" t="s">
+      <c r="E713" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B714" s="1" t="s">
+      <c r="A714" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B714" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C714" s="1">
+      <c r="C714" s="7">
         <v>2</v>
       </c>
-      <c r="D714" s="1" t="s">
+      <c r="D714" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E714" s="1" t="s">
+      <c r="E714" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B715" s="1" t="s">
+      <c r="A715" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B715" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C715" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D715" s="1" t="s">
+      <c r="C715" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D715" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E715" s="1" t="s">
+      <c r="E715" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B716" s="1" t="s">
+      <c r="A716" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B716" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C716" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D716" s="1" t="s">
+      <c r="C716" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D716" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E716" s="1" t="s">
+      <c r="E716" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B717" s="1" t="s">
+      <c r="A717" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B717" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C717" s="1" t="s">
+      <c r="C717" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D717" s="1" t="s">
+      <c r="D717" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E717" s="1" t="s">
+      <c r="E717" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B718" s="1" t="s">
+      <c r="A718" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B718" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C718" s="1" t="s">
+      <c r="C718" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D718" s="1" t="s">
+      <c r="D718" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E718" s="1" t="s">
+      <c r="E718" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B719" s="5" t="s">
+      <c r="A719" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B719" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C719" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D719" s="5" t="s">
+      <c r="C719" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D719" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E719" s="5" t="s">
+      <c r="E719" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B720" s="1" t="s">
+      <c r="A720" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B720" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C720" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D720" s="1" t="s">
+      <c r="C720" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D720" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E720" s="1" t="s">
+      <c r="E720" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B721" s="5" t="s">
+      <c r="A721" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B721" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C721" s="5">
+      <c r="C721" s="7">
         <v>1</v>
       </c>
-      <c r="D721" s="5" t="s">
+      <c r="D721" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E721" s="5">
+      <c r="E721" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B722" s="5" t="s">
+      <c r="A722" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B722" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C722" s="1">
+      <c r="C722" s="7">
         <v>2</v>
       </c>
-      <c r="D722" s="1" t="s">
+      <c r="D722" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E722" s="1">
+      <c r="E722" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B723" s="5" t="s">
+      <c r="A723" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B723" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C723" s="1">
+      <c r="C723" s="7">
         <v>3</v>
       </c>
-      <c r="D723" s="1" t="s">
+      <c r="D723" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E723" s="1">
+      <c r="E723" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B724" s="5" t="s">
+      <c r="A724" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B724" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C724" s="1">
-        <v>4</v>
-      </c>
-      <c r="D724" s="1" t="s">
+      <c r="C724" s="7">
+        <v>4</v>
+      </c>
+      <c r="D724" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E724" s="1">
+      <c r="E724" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B725" s="5" t="s">
+      <c r="A725" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B725" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C725" s="1">
+      <c r="C725" s="7">
         <v>5</v>
       </c>
-      <c r="D725" s="1" t="s">
+      <c r="D725" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E725" s="1">
+      <c r="E725" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B726" s="5" t="s">
+      <c r="A726" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B726" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C726" s="1">
+      <c r="C726" s="7">
         <v>6</v>
       </c>
-      <c r="D726" s="1" t="s">
+      <c r="D726" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E726" s="1">
+      <c r="E726" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B727" s="5" t="s">
+      <c r="A727" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B727" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C727" s="1">
+      <c r="C727" s="7">
         <v>7</v>
       </c>
-      <c r="D727" s="1" t="s">
+      <c r="D727" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E727" s="1">
+      <c r="E727" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B728" s="5" t="s">
+      <c r="A728" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B728" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C728" s="1">
+      <c r="C728" s="7">
         <v>8</v>
       </c>
-      <c r="D728" s="1" t="s">
+      <c r="D728" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E728" s="1">
+      <c r="E728" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B729" s="5" t="s">
+      <c r="A729" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B729" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C729" s="1">
+      <c r="C729" s="7">
         <v>9</v>
       </c>
-      <c r="D729" s="1" t="s">
+      <c r="D729" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E729" s="1">
+      <c r="E729" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B730" s="5" t="s">
+      <c r="A730" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B730" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C730" s="1">
+      <c r="C730" s="7">
         <v>10</v>
       </c>
-      <c r="D730" s="1" t="s">
+      <c r="D730" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E730" s="1">
+      <c r="E730" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B731" s="5" t="s">
+      <c r="A731" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B731" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C731" s="1">
+      <c r="C731" s="7">
         <v>11</v>
       </c>
-      <c r="D731" s="1" t="s">
+      <c r="D731" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E731" s="1">
+      <c r="E731" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B732" s="5" t="s">
+      <c r="A732" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B732" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C732" s="1">
+      <c r="C732" s="7">
         <v>12</v>
       </c>
-      <c r="D732" s="1" t="s">
+      <c r="D732" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E732" s="1">
+      <c r="E732" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B733" s="5" t="s">
+      <c r="A733" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B733" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C733" s="1">
+      <c r="C733" s="7">
         <v>13</v>
       </c>
-      <c r="D733" s="1" t="s">
+      <c r="D733" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E733" s="1">
+      <c r="E733" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B734" s="5" t="s">
+      <c r="A734" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B734" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C734" s="1">
+      <c r="C734" s="7">
         <v>14</v>
       </c>
-      <c r="D734" s="1" t="s">
+      <c r="D734" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E734" s="1">
+      <c r="E734" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B735" s="5" t="s">
+      <c r="A735" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B735" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C735" s="1">
+      <c r="C735" s="7">
         <v>15</v>
       </c>
-      <c r="D735" s="1" t="s">
+      <c r="D735" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E735" s="1">
+      <c r="E735" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B736" s="5" t="s">
+      <c r="A736" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B736" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C736" s="1">
+      <c r="C736" s="7">
         <v>16</v>
       </c>
-      <c r="D736" s="1" t="s">
+      <c r="D736" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E736" s="1">
+      <c r="E736" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B737" s="5" t="s">
+      <c r="A737" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B737" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C737" s="1">
+      <c r="C737" s="7">
         <v>17</v>
       </c>
-      <c r="D737" s="1" t="s">
+      <c r="D737" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E737" s="1">
+      <c r="E737" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B738" s="5" t="s">
+      <c r="A738" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B738" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C738" s="1">
+      <c r="C738" s="7">
         <v>18</v>
       </c>
-      <c r="D738" s="1" t="s">
+      <c r="D738" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E738" s="1">
+      <c r="E738" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B739" s="5" t="s">
+      <c r="A739" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B739" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C739" s="1">
+      <c r="C739" s="7">
         <v>19</v>
       </c>
-      <c r="D739" s="1" t="s">
+      <c r="D739" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E739" s="1">
+      <c r="E739" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B740" s="5" t="s">
+      <c r="A740" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B740" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C740" s="1">
+      <c r="C740" s="7">
         <v>20</v>
       </c>
-      <c r="D740" s="1" t="s">
+      <c r="D740" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E740" s="1">
+      <c r="E740" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B741" s="5" t="s">
+      <c r="A741" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B741" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C741" s="5">
+      <c r="C741" s="7">
         <v>1</v>
       </c>
-      <c r="D741" s="5" t="s">
+      <c r="D741" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E741" s="5">
+      <c r="E741" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B742" s="5" t="s">
+      <c r="A742" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B742" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C742" s="5">
+      <c r="C742" s="7">
         <v>2</v>
       </c>
-      <c r="D742" s="5" t="s">
+      <c r="D742" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E742" s="5">
+      <c r="E742" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B743" s="5" t="s">
+      <c r="A743" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B743" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C743" s="5">
+      <c r="C743" s="7">
         <v>3</v>
       </c>
-      <c r="D743" s="5" t="s">
+      <c r="D743" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E743" s="5">
+      <c r="E743" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B744" s="5" t="s">
+      <c r="A744" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B744" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C744" s="5">
-        <v>4</v>
-      </c>
-      <c r="D744" s="5" t="s">
+      <c r="C744" s="7">
+        <v>4</v>
+      </c>
+      <c r="D744" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E744" s="5">
+      <c r="E744" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B745" s="5" t="s">
+      <c r="A745" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B745" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C745" s="5">
+      <c r="C745" s="7">
         <v>5</v>
       </c>
-      <c r="D745" s="5" t="s">
+      <c r="D745" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E745" s="5">
+      <c r="E745" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B746" s="5" t="s">
+      <c r="A746" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B746" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C746" s="5">
+      <c r="C746" s="7">
         <v>6</v>
       </c>
-      <c r="D746" s="5" t="s">
+      <c r="D746" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E746" s="5">
+      <c r="E746" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B747" s="5" t="s">
+      <c r="A747" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B747" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C747" s="5">
+      <c r="C747" s="7">
         <v>7</v>
       </c>
-      <c r="D747" s="5" t="s">
+      <c r="D747" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E747" s="5">
+      <c r="E747" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B748" s="5" t="s">
+      <c r="A748" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B748" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C748" s="5">
+      <c r="C748" s="7">
         <v>8</v>
       </c>
-      <c r="D748" s="5" t="s">
+      <c r="D748" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E748" s="5">
+      <c r="E748" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B749" s="5" t="s">
+      <c r="A749" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B749" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C749" s="5">
+      <c r="C749" s="7">
         <v>9</v>
       </c>
-      <c r="D749" s="5" t="s">
+      <c r="D749" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E749" s="5">
+      <c r="E749" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B750" s="5" t="s">
+      <c r="A750" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B750" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C750" s="5">
+      <c r="C750" s="7">
         <v>10</v>
       </c>
-      <c r="D750" s="5" t="s">
+      <c r="D750" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E750" s="5">
+      <c r="E750" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B751" s="5" t="s">
+      <c r="A751" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B751" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C751" s="5">
+      <c r="C751" s="7">
         <v>11</v>
       </c>
-      <c r="D751" s="5" t="s">
+      <c r="D751" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E751" s="5">
+      <c r="E751" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B752" s="5" t="s">
+      <c r="A752" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B752" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C752" s="5">
+      <c r="C752" s="7">
         <v>12</v>
       </c>
-      <c r="D752" s="5" t="s">
+      <c r="D752" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E752" s="5">
+      <c r="E752" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B753" s="5" t="s">
+      <c r="A753" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B753" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C753" s="5">
+      <c r="C753" s="7">
         <v>13</v>
       </c>
-      <c r="D753" s="5" t="s">
+      <c r="D753" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E753" s="5">
+      <c r="E753" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B754" s="5" t="s">
+      <c r="A754" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B754" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C754" s="5">
+      <c r="C754" s="7">
         <v>14</v>
       </c>
-      <c r="D754" s="5" t="s">
+      <c r="D754" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E754" s="5">
+      <c r="E754" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B755" s="5" t="s">
+      <c r="A755" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B755" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C755" s="5">
+      <c r="C755" s="7">
         <v>15</v>
       </c>
-      <c r="D755" s="5" t="s">
+      <c r="D755" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E755" s="5">
+      <c r="E755" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B756" s="5" t="s">
+      <c r="A756" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B756" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C756" s="5">
+      <c r="C756" s="7">
         <v>16</v>
       </c>
-      <c r="D756" s="5" t="s">
+      <c r="D756" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E756" s="5">
+      <c r="E756" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B757" s="5" t="s">
+      <c r="A757" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B757" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C757" s="5">
+      <c r="C757" s="7">
         <v>17</v>
       </c>
-      <c r="D757" s="5" t="s">
+      <c r="D757" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E757" s="5">
+      <c r="E757" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B758" s="5" t="s">
+      <c r="A758" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B758" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C758" s="5">
+      <c r="C758" s="7">
         <v>18</v>
       </c>
-      <c r="D758" s="5" t="s">
+      <c r="D758" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E758" s="5">
+      <c r="E758" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B759" s="5" t="s">
+      <c r="A759" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B759" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C759" s="5">
+      <c r="C759" s="7">
         <v>19</v>
       </c>
-      <c r="D759" s="5" t="s">
+      <c r="D759" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E759" s="5">
+      <c r="E759" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B760" s="5" t="s">
+      <c r="A760" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B760" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C760" s="5">
+      <c r="C760" s="7">
         <v>20</v>
       </c>
-      <c r="D760" s="5" t="s">
+      <c r="D760" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E760" s="5">
+      <c r="E760" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B761" s="1" t="s">
+      <c r="A761" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B761" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C761" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D761" s="1" t="s">
+      <c r="C761" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D761" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E761" s="1" t="s">
+      <c r="E761" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B762" s="1" t="s">
+      <c r="A762" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B762" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C762" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D762" s="1" t="s">
+      <c r="C762" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D762" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E762" s="1" t="s">
+      <c r="E762" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B763" s="1" t="s">
+      <c r="A763" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B763" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C763" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D763" s="1" t="s">
+      <c r="C763" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D763" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E763" s="1" t="s">
+      <c r="E763" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B764" s="1" t="s">
+      <c r="A764" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B764" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C764" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D764" s="1" t="s">
+      <c r="C764" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D764" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E764" s="1" t="s">
+      <c r="E764" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B765" s="1" t="s">
+      <c r="A765" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B765" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C765" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D765" s="1" t="s">
+      <c r="C765" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D765" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E765" s="1" t="s">
+      <c r="E765" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B766" s="1" t="s">
+      <c r="A766" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B766" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C766" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D766" s="1" t="s">
+      <c r="C766" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D766" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E766" s="1" t="s">
+      <c r="E766" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B767" s="1" t="s">
+      <c r="A767" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B767" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C767" s="1">
+      <c r="C767" s="7">
         <v>1</v>
       </c>
-      <c r="D767" s="1" t="s">
+      <c r="D767" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E767" s="1" t="s">
+      <c r="E767" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B768" s="1" t="s">
+      <c r="A768" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B768" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C768" s="1">
+      <c r="C768" s="7">
         <v>2</v>
       </c>
-      <c r="D768" s="1" t="s">
+      <c r="D768" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E768" s="1" t="s">
+      <c r="E768" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B769" s="1" t="s">
+      <c r="A769" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B769" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C769" s="1">
+      <c r="C769" s="7">
         <v>3</v>
       </c>
-      <c r="D769" s="1" t="s">
+      <c r="D769" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E769" s="1" t="s">
+      <c r="E769" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B770" s="1" t="s">
+      <c r="A770" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B770" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C770" s="1" t="s">
+      <c r="C770" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D770" s="1" t="s">
+      <c r="D770" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E770" s="1" t="s">
+      <c r="E770" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B771" s="1" t="s">
+      <c r="A771" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B771" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C771" s="1" t="s">
+      <c r="C771" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D771" s="1" t="s">
+      <c r="D771" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E771" s="1" t="s">
+      <c r="E771" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B772" s="1" t="s">
+      <c r="A772" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B772" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C772" s="1" t="s">
+      <c r="C772" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D772" s="1" t="s">
+      <c r="D772" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E772" s="1" t="s">
+      <c r="E772" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B773" s="1" t="s">
+      <c r="A773" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B773" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C773" s="1" t="s">
+      <c r="C773" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D773" s="1" t="s">
+      <c r="D773" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E773" s="1" t="s">
+      <c r="E773" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B774" s="1" t="s">
+      <c r="A774" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B774" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C774" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D774" s="1" t="s">
+      <c r="C774" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D774" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E774" s="1" t="s">
+      <c r="E774" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B775" s="1" t="s">
+      <c r="A775" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B775" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C775" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D775" s="1" t="s">
+      <c r="C775" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D775" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E775" s="1" t="s">
+      <c r="E775" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B776" s="1" t="s">
+      <c r="A776" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B776" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C776" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D776" s="1" t="s">
+      <c r="C776" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D776" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E776" s="1" t="s">
+      <c r="E776" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B777" s="1" t="s">
+      <c r="A777" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B777" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C777" s="1" t="s">
+      <c r="C777" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D777" s="1" t="s">
+      <c r="D777" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E777" s="1" t="s">
+      <c r="E777" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B778" s="1" t="s">
+      <c r="A778" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B778" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C778" s="1" t="s">
+      <c r="C778" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D778" s="1" t="s">
+      <c r="D778" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E778" s="1" t="s">
+      <c r="E778" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B779" s="1" t="s">
+      <c r="A779" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B779" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C779" s="1" t="s">
+      <c r="C779" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D779" s="1" t="s">
+      <c r="D779" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E779" s="1" t="s">
+      <c r="E779" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B780" s="1" t="s">
+      <c r="A780" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B780" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C780" s="1" t="s">
+      <c r="C780" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D780" s="1" t="s">
+      <c r="D780" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E780" s="1" t="s">
+      <c r="E780" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B781" s="5" t="s">
+      <c r="A781" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B781" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C781" s="5" t="s">
+      <c r="C781" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D781" s="5" t="s">
+      <c r="D781" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E781" s="5" t="s">
+      <c r="E781" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B782" s="5" t="s">
+      <c r="A782" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B782" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C782" s="5" t="s">
+      <c r="C782" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D782" s="5" t="s">
+      <c r="D782" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E782" s="5" t="s">
+      <c r="E782" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B783" s="5" t="s">
+      <c r="A783" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B783" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C783" s="5" t="s">
+      <c r="C783" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D783" s="5" t="s">
+      <c r="D783" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E783" s="5" t="s">
+      <c r="E783" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B784" s="5" t="s">
+      <c r="A784" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B784" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C784" s="5" t="s">
+      <c r="C784" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D784" s="5" t="s">
+      <c r="D784" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E784" s="5" t="s">
+      <c r="E784" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B785" s="5" t="s">
+      <c r="A785" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B785" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C785" s="5" t="s">
+      <c r="C785" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D785" s="5" t="s">
+      <c r="D785" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E785" s="5" t="s">
+      <c r="E785" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B786" s="5" t="s">
+      <c r="A786" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B786" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C786" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D786" s="5" t="s">
+      <c r="C786" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D786" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E786" s="5" t="s">
+      <c r="E786" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B787" s="5" t="s">
+      <c r="A787" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B787" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C787" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D787" s="5" t="s">
+      <c r="C787" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D787" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E787" s="5" t="s">
+      <c r="E787" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B788" s="5" t="s">
+      <c r="A788" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B788" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C788" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D788" s="5" t="s">
+      <c r="C788" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D788" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E788" s="5" t="s">
+      <c r="E788" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B789" s="5" t="s">
+      <c r="A789" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B789" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C789" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D789" s="5" t="s">
+      <c r="C789" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D789" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E789" s="5" t="s">
+      <c r="E789" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B790" s="5" t="s">
+      <c r="A790" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B790" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C790" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D790" s="5" t="s">
+      <c r="C790" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D790" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E790" s="5" t="s">
+      <c r="E790" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B791" s="5" t="s">
+      <c r="A791" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B791" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C791" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D791" s="5" t="s">
+      <c r="C791" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D791" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E791" s="5" t="s">
+      <c r="E791" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B792" s="5" t="s">
+      <c r="A792" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B792" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C792" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D792" s="5" t="s">
+      <c r="C792" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D792" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E792" s="5" t="s">
+      <c r="E792" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B793" s="5" t="s">
+      <c r="A793" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B793" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C793" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D793" s="5" t="s">
+      <c r="C793" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D793" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E793" s="5" t="s">
+      <c r="E793" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B794" s="5" t="s">
+      <c r="A794" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B794" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C794" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D794" s="5" t="s">
+      <c r="C794" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D794" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E794" s="5" t="s">
+      <c r="E794" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" s="10"/>
+      <c r="B806" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B807" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B808" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C808" s="1">
+        <v>1</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B809" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C809" s="1">
+        <v>2</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B810" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C810" s="1">
+        <v>3</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B811" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C811" s="1">
+        <v>4</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B812" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C812" s="1">
+        <v>5</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B813" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C813" s="1">
+        <v>6</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B814" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C814" s="1">
+        <v>7</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B815" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C815" s="1">
+        <v>8</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B816" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C816" s="1">
+        <v>9</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="817" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B817" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C817" s="1">
+        <v>10</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="818" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B818" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C818" s="1">
+        <v>11</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="819" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B819" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C819" s="1">
+        <v>12</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="820" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B820" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C820" s="1">
+        <v>13</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="821" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B821" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C821" s="1">
+        <v>14</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="822" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B822" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C822" s="1">
+        <v>15</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="823" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B823" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C823" s="1">
+        <v>16</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="824" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B824" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C824" s="1">
+        <v>17</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="825" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B825" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C825" s="1">
+        <v>1</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="826" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B826" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C826" s="1">
+        <v>2</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="827" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B827" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C827" s="1">
+        <v>3</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="828" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B828" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C828" s="1">
+        <v>4</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="829" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B829" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C829" s="1">
+        <v>5</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="830" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B830" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C830" s="1">
+        <v>6</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="831" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B831" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C831" s="1">
+        <v>7</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="832" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B832" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C832" s="1">
+        <v>8</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="833" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B833" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C833" s="1">
+        <v>9</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="834" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B834" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B835" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B836" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C836" s="1">
+        <v>0</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="837" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B837" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C837" s="1">
+        <v>1</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="838" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B838" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C838" s="1">
+        <v>2</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="839" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B839" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C839" s="1">
+        <v>3</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B840" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C840" s="1">
+        <v>4</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B841" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C841" s="1">
+        <v>5</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="842" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B842" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C842" s="1">
+        <v>6</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="843" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B843" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C843" s="1">
+        <v>1</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B844" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C844" s="1">
+        <v>2</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="845" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B845" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C845" s="1">
+        <v>3</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="846" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B846" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C846" s="1">
+        <v>4</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="847" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B847" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B848" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B849" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C849" s="1">
+        <v>1</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="850" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B850" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C850" s="1">
+        <v>2</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="851" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B851" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C851" s="1">
+        <v>3</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="852" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B852" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C852" s="1">
+        <v>4</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="853" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B853" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C853" s="1">
+        <v>1</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="854" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B854" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C854" s="1">
+        <v>2</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B855" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C855" s="1">
+        <v>3</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="856" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B856" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C856" s="1">
+        <v>4</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="857" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B857" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C857" s="1">
+        <v>5</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="858" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B858" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C858" s="1">
+        <v>6</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="859" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B859" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C859" s="1">
+        <v>7</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="860" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B860" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="861" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B861" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B862" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C862" s="1">
+        <v>1</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B863" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C863" s="1">
+        <v>2</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="864" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B864" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C864" s="1">
+        <v>3</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="865" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B865" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C865" s="1">
+        <v>4</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="866" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B866" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C866" s="1">
+        <v>5</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="867" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B867" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C867" s="1">
+        <v>6</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="868" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B868" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C868" s="1">
+        <v>7</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="869" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B869" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C869" s="1">
+        <v>8</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="870" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B870" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C870" s="1">
+        <v>9</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="871" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B871" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C871" s="1">
+        <v>10</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="872" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B872" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="873" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B873" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="874" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B874" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B875" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B876" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B877" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="878" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B878" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="879" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B879" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B880" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="881" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B881" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C881" s="1">
+        <v>1</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="882" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B882" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C882" s="1">
+        <v>2</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="883" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B883" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C883" s="1">
+        <v>3</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="884" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B884" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C884" s="1">
+        <v>4</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="885" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B885" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C885" s="1">
+        <v>5</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="886" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B886" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C886" s="1">
+        <v>6</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="887" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B887" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C887" s="1">
+        <v>7</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="888" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B888" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C888" s="1">
+        <v>8</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="889" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B889" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C889" s="1">
+        <v>9</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="890" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B890" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C890" s="1">
+        <v>10</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="891" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B891" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C891" s="1">
+        <v>11</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="892" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B892" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C892" s="1">
+        <v>12</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="893" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B893" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C893" s="1">
+        <v>13</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="894" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B894" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C894" s="1">
+        <v>14</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="895" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B895" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C895" s="1">
+        <v>15</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="896" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B896" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C896" s="1">
+        <v>16</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="897" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B897" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C897" s="1">
+        <v>17</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="898" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B898" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B899" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C899" s="1">
+        <v>1</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="900" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B900" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C900" s="1">
+        <v>2</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="901" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B901" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C901" s="1">
+        <v>3</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="902" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B902" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C902" s="1">
+        <v>4</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="903" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B903" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C903" s="1">
+        <v>5</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="904" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B904" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="905" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B905" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B906" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="907" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B907" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="908" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B908" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B909" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B910" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="911" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B911" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="912" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B912" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="913" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B913" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="914" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B914" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E914" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B915" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E915" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B916" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E916" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B917" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E917" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B918" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E918" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B919" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E919" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B920" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E920" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B921" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E921" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B922" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="923" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B923" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E923" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B924" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E924" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B925" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C925" s="1">
+        <v>1</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="926" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B926" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C926" s="1">
+        <v>2</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="927" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B927" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="928" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B928" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="929" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B929" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="930" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B930" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="931" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B931" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B932" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="933" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B933" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C933" s="1">
+        <v>1</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E933" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B934" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C934" s="1">
+        <v>2</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E934" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B935" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C935" s="1">
+        <v>3</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E935" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="936" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B936" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C936" s="1">
+        <v>4</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E936" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="937" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B937" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C937" s="1">
+        <v>5</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E937" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="938" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B938" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C938" s="1">
+        <v>6</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E938" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="939" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B939" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C939" s="1">
+        <v>7</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E939" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="940" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B940" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C940" s="1">
+        <v>8</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E940" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B941" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C941" s="1">
+        <v>9</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E941" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="942" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B942" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C942" s="1">
+        <v>10</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E942" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="943" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B943" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C943" s="1">
+        <v>11</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E943" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="944" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B944" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C944" s="1">
+        <v>12</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E944" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="945" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B945" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C945" s="1">
+        <v>13</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E945" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="946" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B946" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C946" s="1">
+        <v>14</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E946" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="947" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B947" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C947" s="1">
+        <v>15</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E947" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="948" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B948" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C948" s="1">
+        <v>16</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E948" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="949" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B949" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C949" s="1">
+        <v>17</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E949" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="950" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B950" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C950" s="1">
+        <v>18</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E950" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="951" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B951" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C951" s="1">
+        <v>19</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E951" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="952" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B952" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C952" s="1">
+        <v>20</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E952" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="953" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B953" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C953" s="1">
+        <v>1</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E953" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B954" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C954" s="1">
+        <v>2</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E954" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="955" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B955" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C955" s="1">
+        <v>3</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E955" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="956" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B956" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C956" s="1">
+        <v>4</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E956" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="957" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B957" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C957" s="1">
+        <v>5</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E957" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="958" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B958" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C958" s="1">
+        <v>6</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E958" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="959" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B959" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C959" s="1">
+        <v>7</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E959" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="960" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B960" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C960" s="1">
+        <v>8</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E960" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B961" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C961" s="1">
+        <v>9</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E961" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="962" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B962" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C962" s="1">
+        <v>10</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E962" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="963" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B963" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C963" s="1">
+        <v>11</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E963" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="964" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B964" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C964" s="1">
+        <v>12</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E964" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="965" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B965" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C965" s="1">
+        <v>13</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E965" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="966" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B966" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C966" s="1">
+        <v>14</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E966" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="967" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B967" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C967" s="1">
+        <v>15</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E967" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="968" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B968" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C968" s="1">
+        <v>16</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E968" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="969" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B969" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C969" s="1">
+        <v>17</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E969" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="970" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B970" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C970" s="1">
+        <v>18</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E970" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="971" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B971" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C971" s="1">
+        <v>19</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E971" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="972" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B972" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C972" s="1">
+        <v>20</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E972" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="973" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B973" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="974" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B974" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B975" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B976" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B977" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B978" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B979" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C979" s="1">
+        <v>1</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="980" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B980" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C980" s="1">
+        <v>2</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B981" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C981" s="1">
+        <v>3</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="982" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B982" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="983" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B983" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="984" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B984" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="985" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B985" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="986" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B986" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B987" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B988" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B989" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="990" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B990" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="991" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B991" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="992" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B992" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="993" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B993" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="994" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B994" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="995" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B995" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="996" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B996" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="997" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B997" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="998" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B998" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="999" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B999" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1000" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1001" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1002" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1003" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1004" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1005" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1006" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1006" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="463">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1537,6 +1537,108 @@
   </si>
   <si>
     <t>WORKED_BEFORE_TRIP</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DESTIN_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>DESTIN_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>DESTIN_PLACE_TYPE.Code.</t>
+  </si>
+  <si>
+    <t>Walk all the way</t>
+  </si>
+  <si>
+    <t>Be picked up by Uber or similar service</t>
+  </si>
+  <si>
+    <t>Be picked up by someone (Not a service)</t>
+  </si>
+  <si>
+    <t>Get in a parked vehicle and drive alone</t>
+  </si>
+  <si>
+    <t>Get in a parked vehicle and drive with others</t>
+  </si>
+  <si>
+    <t>DESTIN_TRANSPORT</t>
+  </si>
+  <si>
+    <t>STATUS_EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>COUNT_EMPLOYED_HH.Code.</t>
+  </si>
+  <si>
+    <t>ENGLISH_ABILITY.Code.</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Free Muni for People with Disabilities</t>
+  </si>
+  <si>
+    <t>Low Income (Lifeline) Pass</t>
+  </si>
+  <si>
+    <t>Disabled/Medicare Card Holder</t>
+  </si>
+  <si>
+    <t>Free Muni for Seniors</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>Free Muni for Youth</t>
+  </si>
+  <si>
+    <t>FARE_CATEGORY</t>
+  </si>
+  <si>
+    <t>Under $10,000</t>
+  </si>
+  <si>
+    <t>$10,000 to $24,999</t>
+  </si>
+  <si>
+    <t>$25,000 to $34,999</t>
+  </si>
+  <si>
+    <t>$35,000 - $49,999</t>
+  </si>
+  <si>
+    <t>$50,000 - $64,999</t>
+  </si>
+  <si>
+    <t>$65,000 - $74,999</t>
+  </si>
+  <si>
+    <t>$75,000 - $84,999</t>
+  </si>
+  <si>
+    <t>$85,000 - $99,999</t>
+  </si>
+  <si>
+    <t>$100,000 - $124,999</t>
+  </si>
+  <si>
+    <t>$125,000 - $149,999</t>
+  </si>
+  <si>
+    <t>$150,000 OR OVER</t>
+  </si>
+  <si>
+    <t>INCOME</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,18 +2112,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1006"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A796" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A806" sqref="A806"/>
+      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A868" sqref="A868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
   </cols>
@@ -15712,9 +15814,11 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="10"/>
+      <c r="A806" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B806" s="1" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -15727,8 +15831,11 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B807" s="1" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -15741,8 +15848,11 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B808" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C808" s="1">
         <v>1</v>
@@ -15755,8 +15865,11 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B809" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C809" s="1">
         <v>2</v>
@@ -15769,8 +15882,11 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B810" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C810" s="1">
         <v>3</v>
@@ -15783,8 +15899,11 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B811" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C811" s="1">
         <v>4</v>
@@ -15797,8 +15916,11 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B812" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C812" s="1">
         <v>5</v>
@@ -15811,8 +15933,11 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B813" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C813" s="1">
         <v>6</v>
@@ -15825,8 +15950,11 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B814" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C814" s="1">
         <v>7</v>
@@ -15839,8 +15967,11 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B815" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C815" s="1">
         <v>8</v>
@@ -15853,8 +15984,11 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B816" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C816" s="1">
         <v>9</v>
@@ -15866,9 +16000,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="817" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B817" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C817" s="1">
         <v>10</v>
@@ -15880,9 +16017,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="818" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B818" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C818" s="1">
         <v>11</v>
@@ -15894,9 +16034,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="819" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B819" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C819" s="1">
         <v>12</v>
@@ -15908,9 +16051,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="820" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B820" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C820" s="1">
         <v>13</v>
@@ -15922,9 +16068,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="821" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B821" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C821" s="1">
         <v>14</v>
@@ -15936,9 +16085,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="822" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B822" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C822" s="1">
         <v>15</v>
@@ -15950,9 +16102,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="823" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B823" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C823" s="1">
         <v>16</v>
@@ -15964,9 +16119,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="824" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B824" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="C824" s="1">
         <v>17</v>
@@ -15978,12 +16136,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="825" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B825" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C825" s="1">
-        <v>1</v>
+        <v>438</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
@@ -15992,82 +16153,100 @@
         <v>130</v>
       </c>
     </row>
-    <row r="826" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B826" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C826" s="1">
-        <v>2</v>
+        <v>438</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D826" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="827" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B827" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C827" s="1">
-        <v>3</v>
+        <v>438</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="828" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B828" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C828" s="1">
-        <v>4</v>
+        <v>438</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="829" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B829" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C829" s="1">
-        <v>5</v>
+        <v>438</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="830" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B830" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C830" s="1">
-        <v>6</v>
+        <v>438</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="831" spans="2:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B831" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C831" s="1">
-        <v>7</v>
+        <v>438</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>135</v>
@@ -16076,37 +16255,46 @@
         <v>133</v>
       </c>
     </row>
-    <row r="832" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B832" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C832" s="1">
-        <v>8</v>
+        <v>438</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="833" spans="2:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B833" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C833" s="1">
-        <v>9</v>
+        <v>438</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="834" spans="2:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B834" s="1" t="s">
-        <v>55</v>
+        <v>439</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>57</v>
@@ -16118,9 +16306,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="835" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B835" s="1" t="s">
-        <v>55</v>
+        <v>439</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>56</v>
@@ -16132,9 +16323,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="836" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B836" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C836" s="1">
         <v>0</v>
@@ -16146,9 +16340,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="837" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B837" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C837" s="1">
         <v>1</v>
@@ -16160,9 +16357,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B838" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C838" s="1">
         <v>2</v>
@@ -16174,9 +16374,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="839" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B839" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C839" s="1">
         <v>3</v>
@@ -16188,9 +16391,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B840" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C840" s="1">
         <v>4</v>
@@ -16202,9 +16408,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="841" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B841" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C841" s="1">
         <v>5</v>
@@ -16216,9 +16425,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="842" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B842" s="1" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="C842" s="1">
         <v>6</v>
@@ -16230,9 +16442,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="843" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B843" s="1" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="C843" s="1">
         <v>1</v>
@@ -16244,9 +16459,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="844" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B844" s="1" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="C844" s="1">
         <v>2</v>
@@ -16258,9 +16476,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="845" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B845" s="1" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="C845" s="1">
         <v>3</v>
@@ -16272,9 +16493,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="846" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B846" s="1" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="C846" s="1">
         <v>4</v>
@@ -16286,54 +16510,66 @@
         <v>243</v>
       </c>
     </row>
-    <row r="847" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B847" s="1" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="848" spans="2:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B848" s="1" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="849" spans="2:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B849" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C849" s="1">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="850" spans="2:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B850" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C850" s="1">
-        <v>2</v>
+        <v>450</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16342,12 +16578,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="851" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B851" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C851" s="1">
-        <v>3</v>
+        <v>450</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16356,410 +16595,469 @@
         <v>151</v>
       </c>
     </row>
-    <row r="852" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B852" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C852" s="1">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="853" spans="2:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B853" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C853" s="1">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="854" spans="2:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B854" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C854" s="1">
-        <v>2</v>
+        <v>450</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="855" spans="2:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B855" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C855" s="1">
-        <v>3</v>
+        <v>274</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="856" spans="2:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B856" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C856" s="1">
-        <v>4</v>
+        <v>274</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="857" spans="2:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B857" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C857" s="1">
-        <v>5</v>
+        <v>462</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="858" spans="2:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="F857" s="1"/>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B858" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C858" s="1">
-        <v>6</v>
+        <v>462</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="859" spans="2:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F858" s="1"/>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B859" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C859" s="1">
-        <v>7</v>
+        <v>462</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="860" spans="2:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="F859" s="1"/>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B860" s="1" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="861" spans="2:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F860" s="1"/>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B861" s="1" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>56</v>
+        <v>455</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F861" s="1"/>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B862" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C862" s="1">
-        <v>1</v>
+        <v>462</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="863" spans="2:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F862" s="1"/>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B863" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C863" s="1">
-        <v>2</v>
+        <v>462</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="864" spans="2:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="F863" s="1"/>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B864" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C864" s="1">
-        <v>3</v>
+        <v>462</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="865" spans="2:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="F864" s="1"/>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B865" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C865" s="1">
-        <v>4</v>
+        <v>462</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="866" spans="2:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="F865" s="1"/>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B866" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C866" s="1">
-        <v>5</v>
+        <v>462</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="867" spans="2:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="F866" s="1"/>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B867" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C867" s="1">
-        <v>6</v>
-      </c>
-      <c r="D867" s="1" t="s">
-        <v>225</v>
+        <v>462</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="868" spans="2:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="10"/>
       <c r="B868" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C868" s="1">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="869" spans="2:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B869" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C869" s="1">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="870" spans="2:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B870" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C870" s="1">
-        <v>9</v>
+        <v>376</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="871" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B871" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C871" s="1">
-        <v>10</v>
+        <v>377</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="872" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B872" s="1" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>412</v>
+        <v>4</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="873" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B873" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="874" spans="2:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B874" s="1" t="s">
-        <v>376</v>
+        <v>171</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="875" spans="2:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B875" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E875" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="876" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B876" s="1" t="s">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E876" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B877" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C877" s="1" t="s">
-        <v>57</v>
+        <v>380</v>
+      </c>
+      <c r="C877" s="1">
+        <v>1</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="878" spans="2:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B878" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C878" s="1" t="s">
-        <v>56</v>
+        <v>380</v>
+      </c>
+      <c r="C878" s="1">
+        <v>2</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="879" spans="2:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B879" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C879" s="1" t="s">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="C879" s="1">
+        <v>3</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="880" spans="2:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B880" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C880" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C880" s="1">
         <v>4</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="881" spans="2:5" x14ac:dyDescent="0.25">
@@ -16767,13 +17065,13 @@
         <v>380</v>
       </c>
       <c r="C881" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="882" spans="2:5" x14ac:dyDescent="0.25">
@@ -16781,13 +17079,13 @@
         <v>380</v>
       </c>
       <c r="C882" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="883" spans="2:5" x14ac:dyDescent="0.25">
@@ -16795,13 +17093,13 @@
         <v>380</v>
       </c>
       <c r="C883" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="884" spans="2:5" x14ac:dyDescent="0.25">
@@ -16809,13 +17107,13 @@
         <v>380</v>
       </c>
       <c r="C884" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="885" spans="2:5" x14ac:dyDescent="0.25">
@@ -16823,13 +17121,13 @@
         <v>380</v>
       </c>
       <c r="C885" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="886" spans="2:5" x14ac:dyDescent="0.25">
@@ -16837,13 +17135,13 @@
         <v>380</v>
       </c>
       <c r="C886" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="887" spans="2:5" x14ac:dyDescent="0.25">
@@ -16851,7 +17149,7 @@
         <v>380</v>
       </c>
       <c r="C887" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -16865,13 +17163,13 @@
         <v>380</v>
       </c>
       <c r="C888" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="889" spans="2:5" x14ac:dyDescent="0.25">
@@ -16879,7 +17177,7 @@
         <v>380</v>
       </c>
       <c r="C889" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -16893,13 +17191,13 @@
         <v>380</v>
       </c>
       <c r="C890" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="891" spans="2:5" x14ac:dyDescent="0.25">
@@ -16907,13 +17205,13 @@
         <v>380</v>
       </c>
       <c r="C891" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="892" spans="2:5" x14ac:dyDescent="0.25">
@@ -16921,13 +17219,13 @@
         <v>380</v>
       </c>
       <c r="C892" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="893" spans="2:5" x14ac:dyDescent="0.25">
@@ -16935,83 +17233,83 @@
         <v>380</v>
       </c>
       <c r="C893" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="894" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B894" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C894" s="1">
-        <v>14</v>
+        <v>381</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D894" s="1" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B895" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C895" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="896" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B896" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C896" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>53</v>
+        <v>383</v>
       </c>
     </row>
     <row r="897" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B897" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C897" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>49</v>
+        <v>340</v>
       </c>
     </row>
     <row r="898" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B898" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C898" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C898" s="1">
         <v>4</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
     </row>
     <row r="899" spans="2:5" x14ac:dyDescent="0.25">
@@ -17019,69 +17317,69 @@
         <v>382</v>
       </c>
       <c r="C899" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
     </row>
     <row r="900" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B900" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C900" s="1">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>383</v>
+        <v>14</v>
       </c>
     </row>
     <row r="901" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B901" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C901" s="1">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
     </row>
     <row r="902" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B902" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C902" s="1">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
     </row>
     <row r="903" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B903" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C903" s="1">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
     </row>
     <row r="904" spans="2:5" x14ac:dyDescent="0.25">
@@ -17089,13 +17387,13 @@
         <v>26</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="905" spans="2:5" x14ac:dyDescent="0.25">
@@ -17103,13 +17401,13 @@
         <v>26</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D905" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="906" spans="2:5" x14ac:dyDescent="0.25">
@@ -17117,13 +17415,13 @@
         <v>26</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D906" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="907" spans="2:5" x14ac:dyDescent="0.25">
@@ -17131,13 +17429,13 @@
         <v>26</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="908" spans="2:5" x14ac:dyDescent="0.25">
@@ -17145,13 +17443,13 @@
         <v>26</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D908" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="909" spans="2:5" x14ac:dyDescent="0.25">
@@ -17159,80 +17457,80 @@
         <v>26</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D909" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="910" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B910" s="1" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E910" s="1" t="s">
-        <v>18</v>
+        <v>160</v>
+      </c>
+      <c r="E910" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B911" s="1" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E911" s="1" t="s">
-        <v>21</v>
+        <v>160</v>
+      </c>
+      <c r="E911" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B912" s="1" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E912" s="1" t="s">
-        <v>22</v>
+        <v>162</v>
+      </c>
+      <c r="E912" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B913" s="1" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E913" s="1" t="s">
-        <v>23</v>
+        <v>162</v>
+      </c>
+      <c r="E913" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B914" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E914" s="1">
         <v>0</v>
@@ -17240,13 +17538,13 @@
     </row>
     <row r="915" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B915" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E915" s="1">
         <v>1</v>
@@ -17254,13 +17552,13 @@
     </row>
     <row r="916" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B916" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E916" s="1">
         <v>0</v>
@@ -17268,13 +17566,13 @@
     </row>
     <row r="917" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B917" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E917" s="1">
         <v>1</v>
@@ -17282,139 +17580,139 @@
     </row>
     <row r="918" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B918" s="1" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E918" s="1">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="919" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B919" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E919" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B920" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E920" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B921" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C921" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
+      </c>
+      <c r="C921" s="1">
+        <v>1</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E921" s="1">
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="922" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B922" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C922" s="1" t="s">
-        <v>4</v>
+        <v>235</v>
+      </c>
+      <c r="C922" s="1">
+        <v>2</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="E922" s="1" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="923" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B923" s="1" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E923" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="924" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B924" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E924" s="1">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="925" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B925" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C925" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
     </row>
     <row r="926" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B926" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C926" s="1">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
     </row>
     <row r="927" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B927" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>4</v>
@@ -17422,13 +17720,13 @@
     </row>
     <row r="928" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B928" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="E928" s="1" t="s">
         <v>4</v>
@@ -17436,58 +17734,58 @@
     </row>
     <row r="929" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B929" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C929" s="1" t="s">
-        <v>57</v>
+        <v>388</v>
+      </c>
+      <c r="C929" s="1">
+        <v>1</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E929" s="1" t="s">
-        <v>61</v>
+        <v>251</v>
+      </c>
+      <c r="E929" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="930" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B930" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C930" s="1" t="s">
-        <v>56</v>
+        <v>388</v>
+      </c>
+      <c r="C930" s="1">
+        <v>2</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E930" s="1" t="s">
-        <v>138</v>
+        <v>251</v>
+      </c>
+      <c r="E930" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="931" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B931" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C931" s="1" t="s">
-        <v>4</v>
+        <v>388</v>
+      </c>
+      <c r="C931" s="1">
+        <v>3</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E931" s="1" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E931" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="932" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B932" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C932" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C932" s="1">
         <v>4</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E932" s="1" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E932" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="933" spans="2:5" x14ac:dyDescent="0.25">
@@ -17495,13 +17793,13 @@
         <v>388</v>
       </c>
       <c r="C933" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D933" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E933" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="934" spans="2:5" x14ac:dyDescent="0.25">
@@ -17509,13 +17807,13 @@
         <v>388</v>
       </c>
       <c r="C934" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D934" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E934" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="935" spans="2:5" x14ac:dyDescent="0.25">
@@ -17523,13 +17821,13 @@
         <v>388</v>
       </c>
       <c r="C935" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E935" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="936" spans="2:5" x14ac:dyDescent="0.25">
@@ -17537,13 +17835,13 @@
         <v>388</v>
       </c>
       <c r="C936" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E936" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="937" spans="2:5" x14ac:dyDescent="0.25">
@@ -17551,13 +17849,13 @@
         <v>388</v>
       </c>
       <c r="C937" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E937" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="938" spans="2:5" x14ac:dyDescent="0.25">
@@ -17565,13 +17863,13 @@
         <v>388</v>
       </c>
       <c r="C938" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E938" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="939" spans="2:5" x14ac:dyDescent="0.25">
@@ -17579,13 +17877,13 @@
         <v>388</v>
       </c>
       <c r="C939" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E939" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="940" spans="2:5" x14ac:dyDescent="0.25">
@@ -17593,13 +17891,13 @@
         <v>388</v>
       </c>
       <c r="C940" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E940" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="941" spans="2:5" x14ac:dyDescent="0.25">
@@ -17607,13 +17905,13 @@
         <v>388</v>
       </c>
       <c r="C941" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E941" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="942" spans="2:5" x14ac:dyDescent="0.25">
@@ -17621,13 +17919,13 @@
         <v>388</v>
       </c>
       <c r="C942" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E942" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="943" spans="2:5" x14ac:dyDescent="0.25">
@@ -17635,13 +17933,13 @@
         <v>388</v>
       </c>
       <c r="C943" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E943" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="944" spans="2:5" x14ac:dyDescent="0.25">
@@ -17649,13 +17947,13 @@
         <v>388</v>
       </c>
       <c r="C944" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E944" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="945" spans="2:5" x14ac:dyDescent="0.25">
@@ -17663,13 +17961,13 @@
         <v>388</v>
       </c>
       <c r="C945" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E945" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="946" spans="2:5" x14ac:dyDescent="0.25">
@@ -17677,13 +17975,13 @@
         <v>388</v>
       </c>
       <c r="C946" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E946" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="947" spans="2:5" x14ac:dyDescent="0.25">
@@ -17691,13 +17989,13 @@
         <v>388</v>
       </c>
       <c r="C947" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E947" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="948" spans="2:5" x14ac:dyDescent="0.25">
@@ -17705,69 +18003,69 @@
         <v>388</v>
       </c>
       <c r="C948" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E948" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="949" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B949" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C949" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E949" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="950" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B950" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C950" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E950" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="951" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B951" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C951" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E951" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="952" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B952" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C952" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E952" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="953" spans="2:5" x14ac:dyDescent="0.25">
@@ -17775,13 +18073,13 @@
         <v>389</v>
       </c>
       <c r="C953" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E953" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="954" spans="2:5" x14ac:dyDescent="0.25">
@@ -17789,13 +18087,13 @@
         <v>389</v>
       </c>
       <c r="C954" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E954" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="955" spans="2:5" x14ac:dyDescent="0.25">
@@ -17803,13 +18101,13 @@
         <v>389</v>
       </c>
       <c r="C955" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E955" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="956" spans="2:5" x14ac:dyDescent="0.25">
@@ -17817,13 +18115,13 @@
         <v>389</v>
       </c>
       <c r="C956" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E956" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="957" spans="2:5" x14ac:dyDescent="0.25">
@@ -17831,13 +18129,13 @@
         <v>389</v>
       </c>
       <c r="C957" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E957" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="958" spans="2:5" x14ac:dyDescent="0.25">
@@ -17845,13 +18143,13 @@
         <v>389</v>
       </c>
       <c r="C958" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E958" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="959" spans="2:5" x14ac:dyDescent="0.25">
@@ -17859,13 +18157,13 @@
         <v>389</v>
       </c>
       <c r="C959" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E959" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="960" spans="2:5" x14ac:dyDescent="0.25">
@@ -17873,13 +18171,13 @@
         <v>389</v>
       </c>
       <c r="C960" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E960" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="961" spans="2:5" x14ac:dyDescent="0.25">
@@ -17887,13 +18185,13 @@
         <v>389</v>
       </c>
       <c r="C961" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E961" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="962" spans="2:5" x14ac:dyDescent="0.25">
@@ -17901,13 +18199,13 @@
         <v>389</v>
       </c>
       <c r="C962" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E962" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="963" spans="2:5" x14ac:dyDescent="0.25">
@@ -17915,13 +18213,13 @@
         <v>389</v>
       </c>
       <c r="C963" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E963" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="964" spans="2:5" x14ac:dyDescent="0.25">
@@ -17929,13 +18227,13 @@
         <v>389</v>
       </c>
       <c r="C964" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E964" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="965" spans="2:5" x14ac:dyDescent="0.25">
@@ -17943,13 +18241,13 @@
         <v>389</v>
       </c>
       <c r="C965" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E965" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="966" spans="2:5" x14ac:dyDescent="0.25">
@@ -17957,13 +18255,13 @@
         <v>389</v>
       </c>
       <c r="C966" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E966" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="967" spans="2:5" x14ac:dyDescent="0.25">
@@ -17971,13 +18269,13 @@
         <v>389</v>
       </c>
       <c r="C967" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E967" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="968" spans="2:5" x14ac:dyDescent="0.25">
@@ -17985,80 +18283,80 @@
         <v>389</v>
       </c>
       <c r="C968" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E968" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="969" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B969" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C969" s="1">
-        <v>17</v>
+        <v>390</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E969" s="1">
-        <v>20</v>
+        <v>117</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="970" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B970" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C970" s="1">
-        <v>18</v>
+        <v>391</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E970" s="1">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="971" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B971" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C971" s="1">
-        <v>19</v>
+        <v>404</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E971" s="1">
-        <v>22</v>
+        <v>121</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="972" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B972" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C972" s="1">
-        <v>20</v>
+        <v>392</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E972" s="1">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="973" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B973" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>4</v>
@@ -18066,13 +18364,13 @@
     </row>
     <row r="974" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B974" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>4</v>
@@ -18080,254 +18378,254 @@
     </row>
     <row r="975" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B975" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C975" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C975" s="1">
+        <v>1</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E975" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="976" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B976" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C976" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C976" s="1">
+        <v>2</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="E976" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="977" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B977" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C977" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C977" s="1">
+        <v>3</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="978" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B978" s="1" t="s">
-        <v>405</v>
+        <v>8</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="979" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B979" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C979" s="1">
-        <v>1</v>
+      <c r="C979" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="980" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B980" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C980" s="1">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="981" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B981" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C981" s="1">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E981" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="982" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B982" s="1" t="s">
-        <v>8</v>
+        <v>408</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="983" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B983" s="1" t="s">
-        <v>8</v>
+        <v>409</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="984" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B984" s="1" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="985" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B985" s="1" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
     </row>
     <row r="986" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B986" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="E986" s="1" t="s">
-        <v>4</v>
+        <v>285</v>
       </c>
     </row>
     <row r="987" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B987" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="E987" s="1" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
     </row>
     <row r="988" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B988" s="1" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
     </row>
     <row r="989" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B989" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E989" s="1" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
     </row>
     <row r="990" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B990" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="991" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B991" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
     </row>
     <row r="992" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B992" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
     </row>
     <row r="993" spans="2:5" x14ac:dyDescent="0.25">
@@ -18335,80 +18633,80 @@
         <v>399</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="D993" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
     </row>
     <row r="994" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B994" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C994" s="1" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="D994" s="1" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
     </row>
     <row r="995" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B995" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="996" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B996" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="E996" s="1" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
     </row>
     <row r="997" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B997" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
     </row>
     <row r="998" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B998" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C998" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="E998" s="1" t="s">
         <v>4</v>
@@ -18416,13 +18714,13 @@
     </row>
     <row r="999" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B999" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C999" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D999" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E999" s="1" t="s">
         <v>4</v>
@@ -18430,13 +18728,13 @@
     </row>
     <row r="1000" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1000" s="1" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E1000" s="1" t="s">
         <v>4</v>
@@ -18444,13 +18742,13 @@
     </row>
     <row r="1001" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1001" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C1001" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>4</v>
@@ -18458,71 +18756,15 @@
     </row>
     <row r="1002" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1002" s="1" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C1002" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1003" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1003" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C1003" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1003" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1003" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1004" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1004" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1004" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1004" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1004" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1005" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1005" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1005" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1005" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1005" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1006" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1006" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1006" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1006" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1006" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="582">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1539,18 +1539,12 @@
     <t>WORKED_BEFORE_TRIP</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>DESTIN_ADDRESS..LAT.</t>
   </si>
   <si>
     <t>DESTIN_ADDRESS..LONG.</t>
   </si>
   <si>
-    <t>DESTIN_PLACE_TYPE.Code.</t>
-  </si>
-  <si>
     <t>Walk all the way</t>
   </si>
   <si>
@@ -1572,12 +1566,6 @@
     <t>STATUS_EMPLOYMENT</t>
   </si>
   <si>
-    <t>COUNT_EMPLOYED_HH.Code.</t>
-  </si>
-  <si>
-    <t>ENGLISH_ABILITY.Code.</t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
@@ -1639,6 +1627,375 @@
   </si>
   <si>
     <t>INCOME</t>
+  </si>
+  <si>
+    <t>HISP_LAT_SPA</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>HOME_LANG_OTHER</t>
+  </si>
+  <si>
+    <t>ORIGIN_ADDRESS..LAT.</t>
+  </si>
+  <si>
+    <t>ORIGIN_ADDRESS..LONG.</t>
+  </si>
+  <si>
+    <t>ORIGIN_PLACE_TYPE</t>
+  </si>
+  <si>
+    <t>Your usual WORKPLACE</t>
+  </si>
+  <si>
+    <t>Work related</t>
+  </si>
+  <si>
+    <t>Your HOME</t>
+  </si>
+  <si>
+    <t>Your Hotel</t>
+  </si>
+  <si>
+    <t>Social or recreational</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>School (K-12) (student only)</t>
+  </si>
+  <si>
+    <t>College or University (students only)</t>
+  </si>
+  <si>
+    <t>Medical or dental</t>
+  </si>
+  <si>
+    <t>Dining or coffee</t>
+  </si>
+  <si>
+    <t>Escorting others (e.g. children or elderly)</t>
+  </si>
+  <si>
+    <t>Maintenance or personal business</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Airport (airline passengers only)</t>
+  </si>
+  <si>
+    <t>DESTIN_PLACE_TYPE</t>
+  </si>
+  <si>
+    <t>Very well</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Less than well</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>ENGLISH_ABILITY</t>
+  </si>
+  <si>
+    <t>HOME_OTHER_LANG</t>
+  </si>
+  <si>
+    <t>OTHER PASS</t>
+  </si>
+  <si>
+    <t>BY CLIPPER</t>
+  </si>
+  <si>
+    <t>BY CASH OR PAPER</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>clipper</t>
+  </si>
+  <si>
+    <t>HOW_PAID_FOR_TRIP</t>
+  </si>
+  <si>
+    <t>PM1_CLIPPER</t>
+  </si>
+  <si>
+    <t>CASH VALUE ON CLIPPER</t>
+  </si>
+  <si>
+    <t>"M" MONTHLY PASS ON CLIPPER</t>
+  </si>
+  <si>
+    <t>"A" MONTHLY PASS ON CLIPPER</t>
+  </si>
+  <si>
+    <t>clipper_detail</t>
+  </si>
+  <si>
+    <t>clipper (pass)</t>
+  </si>
+  <si>
+    <t>One (1)</t>
+  </si>
+  <si>
+    <t>Two (2)</t>
+  </si>
+  <si>
+    <t>Three (3)</t>
+  </si>
+  <si>
+    <t>Four (4)</t>
+  </si>
+  <si>
+    <t>Five (5)</t>
+  </si>
+  <si>
+    <t>Six (6)</t>
+  </si>
+  <si>
+    <t>Seven (7)</t>
+  </si>
+  <si>
+    <t>Eight (8)</t>
+  </si>
+  <si>
+    <t>Nine (9)</t>
+  </si>
+  <si>
+    <t>Ten or More (10+)</t>
+  </si>
+  <si>
+    <t>COUNT_MEMBER_HH</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..Other.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..1.</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..2.</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..3.</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..4.</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND..5.</t>
+  </si>
+  <si>
+    <t>YOUR_GENDER</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>YOUR_SCHOOL..LAT.</t>
+  </si>
+  <si>
+    <t>YOUR_SCHOOL..LONG.</t>
+  </si>
+  <si>
+    <t>Not a student</t>
+  </si>
+  <si>
+    <t>Part Time college/university</t>
+  </si>
+  <si>
+    <t>Full Time college/university</t>
+  </si>
+  <si>
+    <t>9-12 grade</t>
+  </si>
+  <si>
+    <t>Vocational/technical/trade school</t>
+  </si>
+  <si>
+    <t>K-5 grade</t>
+  </si>
+  <si>
+    <t>TIME_LEFT_HOME</t>
+  </si>
+  <si>
+    <t>Before 5 am</t>
+  </si>
+  <si>
+    <t>5 - 5:59 am</t>
+  </si>
+  <si>
+    <t>6 - 6:59 am</t>
+  </si>
+  <si>
+    <t>7 - 7:59 am</t>
+  </si>
+  <si>
+    <t>8 - 8:59 am</t>
+  </si>
+  <si>
+    <t>9 - 9:59 am</t>
+  </si>
+  <si>
+    <t>10 - 10:59 am</t>
+  </si>
+  <si>
+    <t>11 - 11:59 am</t>
+  </si>
+  <si>
+    <t>12 - 12:59 pm</t>
+  </si>
+  <si>
+    <t>1 - 1:59 pm</t>
+  </si>
+  <si>
+    <t>2 - 2:59 pm</t>
+  </si>
+  <si>
+    <t>3 - 3:59 pm</t>
+  </si>
+  <si>
+    <t>4 - 4:59 pm</t>
+  </si>
+  <si>
+    <t>5 - 5:59 pm</t>
+  </si>
+  <si>
+    <t>6 - 6:59 pm</t>
+  </si>
+  <si>
+    <t>7 - 7:59 pm</t>
+  </si>
+  <si>
+    <t>8 - 8:59 pm</t>
+  </si>
+  <si>
+    <t>9 - 9:59 pm</t>
+  </si>
+  <si>
+    <t>10 - 10:59 pm</t>
+  </si>
+  <si>
+    <t>11 pm or later</t>
+  </si>
+  <si>
+    <t>TIME_ARRIVE_HOME</t>
+  </si>
+  <si>
+    <t>TRIP_NEXT_ROUTE</t>
+  </si>
+  <si>
+    <t>TRIP_AFTER_ROUTE</t>
+  </si>
+  <si>
+    <t>TRIP_THIRD_ROUTE</t>
+  </si>
+  <si>
+    <t>TRIP_FIRST_ROUTE</t>
+  </si>
+  <si>
+    <t>TRIP_SECOND_ROUTE</t>
+  </si>
+  <si>
+    <t>COUNT_VH_HH</t>
+  </si>
+  <si>
+    <t>None (0)</t>
+  </si>
+  <si>
+    <t>COUNT_EMPLOYED_HH</t>
+  </si>
+  <si>
+    <t>GO2SCHL_AFTR_TRIP</t>
+  </si>
+  <si>
+    <t>YOUR_WORK..LAT.</t>
+  </si>
+  <si>
+    <t>YOUR_WORK..LONG.</t>
+  </si>
+  <si>
+    <t>AGE..AGE.</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>SPANI</t>
+  </si>
+  <si>
+    <t>RUSSI</t>
+  </si>
+  <si>
+    <t>TAGAL</t>
+  </si>
+  <si>
+    <t>DATE_DATE</t>
+  </si>
+  <si>
+    <t>DATE_TIME</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>STOP_ON..LAT.</t>
+  </si>
+  <si>
+    <t>STOP_ON..LONG.</t>
+  </si>
+  <si>
+    <t>STOP_OFF..LAT.</t>
+  </si>
+  <si>
+    <t>STOP_OFF..LONG.</t>
+  </si>
+  <si>
+    <t>VAL_LAST_NEXT_LAT</t>
+  </si>
+  <si>
+    <t>VAL_LAST_NEXT_LON</t>
+  </si>
+  <si>
+    <t>FIRST_BOARD_LAT</t>
+  </si>
+  <si>
+    <t>FIRST_BOARD_LONG</t>
+  </si>
+  <si>
+    <t>SELECT_LANGUAGE.Code.</t>
+  </si>
+  <si>
+    <t>ROUTE_SURVEYED</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +2054,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,12 +2070,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +2090,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1766,9 +2117,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2112,11 +2462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1002"/>
+  <dimension ref="A1:E1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A868" sqref="A868"/>
+      <pane ySplit="1" topLeftCell="A978" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1016" sqref="A1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15801,7 +16151,7 @@
         <v>418</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -15818,7 +16168,7 @@
         <v>418</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -15835,7 +16185,7 @@
         <v>418</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -15852,16 +16202,16 @@
         <v>418</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C808" s="1">
-        <v>1</v>
+        <v>481</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
@@ -15869,16 +16219,16 @@
         <v>418</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C809" s="1">
-        <v>2</v>
+        <v>481</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
@@ -15886,16 +16236,16 @@
         <v>418</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C810" s="1">
-        <v>3</v>
+        <v>481</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
@@ -15903,16 +16253,16 @@
         <v>418</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C811" s="1">
-        <v>4</v>
+        <v>481</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
@@ -15920,16 +16270,16 @@
         <v>418</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C812" s="1">
-        <v>5</v>
+        <v>481</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
@@ -15937,10 +16287,10 @@
         <v>418</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C813" s="1">
-        <v>6</v>
+        <v>481</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -15954,16 +16304,16 @@
         <v>418</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C814" s="1">
-        <v>7</v>
+        <v>481</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
@@ -15971,16 +16321,16 @@
         <v>418</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C815" s="1">
-        <v>8</v>
+        <v>481</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
@@ -15988,10 +16338,10 @@
         <v>418</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C816" s="1">
-        <v>9</v>
+        <v>481</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16005,16 +16355,16 @@
         <v>418</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C817" s="1">
-        <v>10</v>
+        <v>481</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
@@ -16022,16 +16372,16 @@
         <v>418</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C818" s="1">
-        <v>11</v>
+        <v>481</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
@@ -16039,16 +16389,16 @@
         <v>418</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C819" s="1">
-        <v>12</v>
+        <v>481</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
@@ -16056,16 +16406,16 @@
         <v>418</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C820" s="1">
-        <v>13</v>
+        <v>481</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
@@ -16073,16 +16423,16 @@
         <v>418</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C821" s="1">
-        <v>14</v>
+        <v>481</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
@@ -16090,16 +16440,16 @@
         <v>418</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C822" s="1">
-        <v>15</v>
+        <v>436</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
@@ -16107,16 +16457,16 @@
         <v>418</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C823" s="1">
-        <v>16</v>
+        <v>436</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
@@ -16124,16 +16474,16 @@
         <v>418</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C824" s="1">
-        <v>17</v>
+        <v>436</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
@@ -16141,16 +16491,16 @@
         <v>418</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
@@ -16158,7 +16508,7 @@
         <v>418</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16175,16 +16525,16 @@
         <v>418</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
@@ -16192,16 +16542,16 @@
         <v>418</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
@@ -16209,16 +16559,16 @@
         <v>418</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
@@ -16226,16 +16576,16 @@
         <v>418</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
@@ -16243,16 +16593,16 @@
         <v>418</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>435</v>
+        <v>57</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
@@ -16260,16 +16610,16 @@
         <v>418</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>436</v>
+        <v>56</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
@@ -16277,16 +16627,16 @@
         <v>418</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>438</v>
+        <v>558</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
@@ -16294,16 +16644,16 @@
         <v>418</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>57</v>
+        <v>500</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
@@ -16311,16 +16661,16 @@
         <v>418</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>56</v>
+        <v>501</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
@@ -16328,16 +16678,16 @@
         <v>418</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C836" s="1">
-        <v>0</v>
+        <v>558</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
@@ -16345,16 +16695,16 @@
         <v>418</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C837" s="1">
-        <v>1</v>
+        <v>558</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
@@ -16362,16 +16712,16 @@
         <v>418</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C838" s="1">
-        <v>2</v>
+        <v>558</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
@@ -16379,16 +16729,16 @@
         <v>418</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C839" s="1">
-        <v>3</v>
+        <v>558</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
@@ -16396,16 +16746,16 @@
         <v>418</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C840" s="1">
-        <v>4</v>
+        <v>558</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
@@ -16413,16 +16763,16 @@
         <v>418</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C841" s="1">
-        <v>5</v>
+        <v>558</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
@@ -16430,10 +16780,10 @@
         <v>418</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C842" s="1">
-        <v>6</v>
+        <v>558</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16447,16 +16797,16 @@
         <v>418</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C843" s="1">
-        <v>1</v>
+        <v>558</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
@@ -16464,16 +16814,16 @@
         <v>418</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C844" s="1">
-        <v>2</v>
+        <v>486</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
@@ -16481,16 +16831,16 @@
         <v>418</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C845" s="1">
-        <v>3</v>
+        <v>486</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
@@ -16498,16 +16848,16 @@
         <v>418</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C846" s="1">
-        <v>4</v>
+        <v>486</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
@@ -16515,16 +16865,16 @@
         <v>418</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
@@ -16532,27 +16882,27 @@
         <v>418</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16561,46 +16911,46 @@
         <v>152</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>445</v>
@@ -16609,61 +16959,61 @@
         <v>148</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E854" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E855" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C855" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D855" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E855" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>418</v>
       </c>
@@ -16671,114 +17021,109 @@
         <v>274</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E856" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E857" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C857" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D857" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E857" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F857" s="1"/>
-    </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F858" s="1"/>
-    </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F859" s="1"/>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F860" s="1"/>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F861" s="1"/>
-    </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -16786,35 +17131,33 @@
       <c r="E862" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F862" s="1"/>
-    </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F863" s="1"/>
-    </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -16822,35 +17165,33 @@
       <c r="E864" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F864" s="1"/>
-    </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F865" s="1"/>
-    </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -16858,172 +17199,203 @@
       <c r="E866" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F866" s="1"/>
-    </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E867" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E868" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A868" s="10"/>
-      <c r="B868" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C868" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D868" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E868" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B869" s="1" t="s">
-        <v>153</v>
+        <v>459</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E869" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E870" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B870" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C870" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D870" s="1" t="s">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D871" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E870" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B871" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C871" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D871" s="1" t="s">
+      <c r="E871" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D872" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E871" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C872" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D872" s="1" t="s">
+      <c r="E872" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B873" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E872" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B873" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C873" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C874" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D873" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E873" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B874" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C874" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E874" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E875" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B875" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C875" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D875" s="1" t="s">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D876" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E875" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B876" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C876" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D876" s="1" t="s">
+      <c r="E876" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D877" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E876" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B877" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C877" s="1">
-        <v>1</v>
-      </c>
-      <c r="D877" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E877" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B878" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C878" s="1">
-        <v>2</v>
+        <v>465</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>40</v>
@@ -17032,12 +17404,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B879" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C879" s="1">
-        <v>3</v>
+        <v>465</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17046,516 +17421,627 @@
         <v>43</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B880" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C880" s="1">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="881" spans="2:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B881" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C881" s="1">
-        <v>5</v>
+        <v>465</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="882" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B882" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C882" s="1">
-        <v>6</v>
+        <v>465</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="883" spans="2:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B883" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C883" s="1">
-        <v>7</v>
+        <v>465</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="884" spans="2:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B884" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C884" s="1">
-        <v>8</v>
+        <v>465</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="885" spans="2:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B885" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C885" s="1">
-        <v>9</v>
+        <v>465</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="886" spans="2:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B886" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C886" s="1">
-        <v>10</v>
+        <v>465</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="887" spans="2:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B887" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C887" s="1">
-        <v>11</v>
+        <v>465</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="888" spans="2:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B888" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C888" s="1">
-        <v>12</v>
+        <v>465</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="889" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B889" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C889" s="1">
-        <v>13</v>
+        <v>465</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="890" spans="2:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B890" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C890" s="1">
-        <v>14</v>
+        <v>465</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="891" spans="2:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B891" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C891" s="1">
-        <v>15</v>
+        <v>487</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="892" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B892" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C892" s="1">
-        <v>16</v>
+        <v>493</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="893" spans="2:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B893" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C893" s="1">
+        <v>493</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B895" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B896" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B897" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A898" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B898" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B899" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E899" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D893" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E893" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="894" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B894" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C894" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D894" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E894" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="895" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B895" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C895" s="1">
-        <v>1</v>
-      </c>
-      <c r="D895" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E895" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="896" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B896" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C896" s="1">
-        <v>2</v>
-      </c>
-      <c r="D896" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E896" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="897" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B897" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C897" s="1">
-        <v>3</v>
-      </c>
-      <c r="D897" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E897" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="898" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B898" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C898" s="1">
-        <v>4</v>
-      </c>
-      <c r="D898" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E898" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="899" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B899" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C899" s="1">
-        <v>5</v>
-      </c>
-      <c r="D899" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E899" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="900" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B900" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B900" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>27</v>
+        <v>505</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="901" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B901" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B901" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>36</v>
+        <v>506</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="902" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B902" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B902" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>28</v>
+        <v>507</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="903" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B903" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B903" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="904" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B904" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B904" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>30</v>
+        <v>509</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="905" spans="2:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B905" s="1" t="s">
-        <v>26</v>
+        <v>513</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E905" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="906" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E905" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B906" s="1" t="s">
-        <v>26</v>
+        <v>513</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E906" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="907" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E906" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B907" s="1" t="s">
-        <v>26</v>
+        <v>513</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>33</v>
+        <v>512</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E907" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="908" spans="2:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E907" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B908" s="1" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E908" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="909" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E908" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B909" s="1" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E909" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="910" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E909" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B910" s="1" t="s">
-        <v>365</v>
+        <v>514</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>57</v>
+        <v>512</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E910" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B911" s="1" t="s">
-        <v>365</v>
+        <v>515</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E911" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B912" s="1" t="s">
-        <v>363</v>
+        <v>515</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E912" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B913" s="1" t="s">
-        <v>363</v>
+        <v>515</v>
       </c>
       <c r="C913" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E913" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C914" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D913" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E913" s="1">
+      <c r="D914" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E914" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B914" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C914" s="1" t="s">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A915" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C915" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D914" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E914" s="1">
+      <c r="D915" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E915" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B915" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C915" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D915" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E915" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="916" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B916" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>57</v>
+        <v>512</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -17564,40 +18050,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B917" s="1" t="s">
-        <v>366</v>
+        <v>517</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E917" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A918" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B918" s="1" t="s">
-        <v>403</v>
+        <v>517</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E918" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="919" spans="2:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="E918" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B919" s="1" t="s">
-        <v>367</v>
+        <v>517</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>57</v>
+        <v>512</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -17606,26 +18101,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B920" s="1" t="s">
-        <v>367</v>
+        <v>511</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E920" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="921" spans="2:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B921" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C921" s="1">
-        <v>1</v>
+        <v>518</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -17634,12 +18135,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="922" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B922" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C922" s="1">
-        <v>2</v>
+        <v>518</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -17648,796 +18152,967 @@
         <v>238</v>
       </c>
     </row>
-    <row r="923" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B923" s="1" t="s">
-        <v>384</v>
+        <v>518</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>4</v>
+        <v>478</v>
       </c>
       <c r="D923" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D924" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E923" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="924" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B924" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C924" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D924" s="1" t="s">
+      <c r="E924" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D925" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E924" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="925" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B925" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C925" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D925" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E925" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="926" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>56</v>
+        <v>523</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E926" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E927" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="927" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B927" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C927" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D927" s="1" t="s">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D933" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E927" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="928" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B928" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C928" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D928" s="1" t="s">
+      <c r="E933" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D934" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E928" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="929" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B929" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C929" s="1">
-        <v>1</v>
-      </c>
-      <c r="D929" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E929" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="930" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B930" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C930" s="1">
-        <v>2</v>
-      </c>
-      <c r="D930" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E930" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="931" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B931" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C931" s="1">
-        <v>3</v>
-      </c>
-      <c r="D931" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E931" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="932" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B932" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C932" s="1">
-        <v>4</v>
-      </c>
-      <c r="D932" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E932" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="933" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B933" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C933" s="1">
-        <v>5</v>
-      </c>
-      <c r="D933" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E933" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="934" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B934" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C934" s="1">
-        <v>6</v>
-      </c>
-      <c r="D934" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E934" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="935" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E934" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B935" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C935" s="1">
-        <v>7</v>
+        <v>529</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E935" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="936" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B936" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C936" s="1">
-        <v>8</v>
+        <v>529</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E936" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="937" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B937" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C937" s="1">
-        <v>9</v>
+        <v>529</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E937" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="938" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B938" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C938" s="1">
-        <v>10</v>
+        <v>529</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E938" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="939" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B939" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C939" s="1">
-        <v>11</v>
+        <v>529</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E939" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="940" spans="2:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B940" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C940" s="1">
-        <v>12</v>
+        <v>529</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E940" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="941" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B941" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C941" s="1">
-        <v>13</v>
+        <v>529</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E941" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="942" spans="2:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B942" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C942" s="1">
-        <v>14</v>
+        <v>529</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E942" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="943" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B943" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C943" s="1">
-        <v>15</v>
+        <v>529</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E943" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="944" spans="2:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B944" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C944" s="1">
-        <v>16</v>
+        <v>529</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E944" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="945" spans="2:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B945" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C945" s="1">
-        <v>17</v>
+        <v>529</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E945" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="946" spans="2:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B946" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C946" s="1">
-        <v>18</v>
+        <v>529</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E946" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="947" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B947" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C947" s="1">
-        <v>19</v>
+        <v>529</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E947" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="948" spans="2:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B948" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C948" s="1">
-        <v>20</v>
+        <v>529</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E948" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="949" spans="2:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B949" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C949" s="1">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E949" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="950" spans="2:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B950" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C950" s="1">
-        <v>2</v>
+        <v>529</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E950" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="951" spans="2:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B951" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C951" s="1">
-        <v>3</v>
+        <v>529</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E951" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="952" spans="2:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B952" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C952" s="1">
-        <v>4</v>
+        <v>529</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E952" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="953" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B953" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C953" s="1">
-        <v>5</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B953" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E953" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="954" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B954" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C954" s="1">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B954" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E954" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="955" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B955" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C955" s="1">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B955" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E955" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="956" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B956" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C956" s="1">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B956" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E956" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="957" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B957" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C957" s="1">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B957" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E957" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="958" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B958" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C958" s="1">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B958" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E958" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="959" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B959" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C959" s="1">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B959" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E959" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="960" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B960" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C960" s="1">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B960" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E960" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="961" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B961" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C961" s="1">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B961" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E961" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="962" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B962" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C962" s="1">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A962" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B962" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E962" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="963" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B963" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C963" s="1">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A963" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B963" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E963" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="964" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B964" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C964" s="1">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A964" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B964" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E964" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="965" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B965" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C965" s="1">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A965" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B965" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E965" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="966" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B966" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C966" s="1">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A966" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B966" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E966" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="967" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B967" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C967" s="1">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A967" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B967" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E967" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="968" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B968" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C968" s="1">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A968" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B968" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E968" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A969" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B969" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E969" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B970" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E970" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A971" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B971" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E971" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A972" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B972" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E972" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="969" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B969" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C969" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D969" s="1" t="s">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A973" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E969" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="970" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B970" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C970" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D970" s="1" t="s">
+      <c r="E973" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D974" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E970" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="971" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B971" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C971" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D971" s="1" t="s">
+      <c r="E974" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D975" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E971" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="972" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B972" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C972" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D972" s="1" t="s">
+      <c r="E975" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D976" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E972" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="973" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B973" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C973" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D973" s="1" t="s">
+      <c r="E976" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D977" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E973" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="974" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B974" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C974" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D974" s="1" t="s">
+      <c r="E977" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D978" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E974" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="975" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B975" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C975" s="1">
-        <v>1</v>
-      </c>
-      <c r="D975" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E975" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="976" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B976" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C976" s="1">
-        <v>2</v>
-      </c>
-      <c r="D976" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E976" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="977" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B977" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C977" s="1">
-        <v>3</v>
-      </c>
-      <c r="D977" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E977" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="978" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B978" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C978" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D978" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E978" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="979" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B979" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B979" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>19</v>
+        <v>557</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -18446,325 +19121,629 @@
         <v>10</v>
       </c>
     </row>
-    <row r="980" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B980" s="1" t="s">
-        <v>77</v>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B980" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="C980" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B981" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B982" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B983" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B984" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B985" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B986" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B987" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B988" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B989" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B990" t="s">
+        <v>559</v>
+      </c>
+      <c r="C990" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D980" s="1" t="s">
+      <c r="D990" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E980" s="1" t="s">
+      <c r="E990" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="981" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B981" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C981" s="1" t="s">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B991" t="s">
+        <v>559</v>
+      </c>
+      <c r="C991" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D981" s="1" t="s">
+      <c r="D991" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E981" s="1" t="s">
+      <c r="E991" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="982" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B982" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C982" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D982" s="1" t="s">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D992" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E982" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="983" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B983" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C983" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D983" s="1" t="s">
+      <c r="E992" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A993" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D993" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E983" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="984" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B984" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C984" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D984" s="1" t="s">
+      <c r="E993" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A994" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D994" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E984" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="985" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B985" s="1" t="s">
+      <c r="E994" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A995" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B995" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C985" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D985" s="1" t="s">
+      <c r="C995" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D995" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E985" s="1" t="s">
+      <c r="E995" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="986" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B986" s="1" t="s">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A996" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B996" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C986" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D986" s="1" t="s">
+      <c r="C996" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D996" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E986" s="1" t="s">
+      <c r="E996" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="987" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B987" s="1" t="s">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A997" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B997" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C987" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D987" s="1" t="s">
+      <c r="C997" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D997" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E987" s="1" t="s">
+      <c r="E997" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="988" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B988" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C988" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D988" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E988" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="989" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B989" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C989" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D989" s="1" t="s">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A998" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D998" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E989" s="1" t="s">
+      <c r="E998" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="990" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B990" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C990" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D990" s="1" t="s">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A999" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D999" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E990" s="1" t="s">
+      <c r="E999" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1000" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="991" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B991" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C991" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D991" s="1" t="s">
+      <c r="D1000" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E991" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="992" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B992" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C992" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D992" s="1" t="s">
+      <c r="E1000" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1001" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E992" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="993" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B993" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C993" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D993" s="1" t="s">
+      <c r="E1001" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1002" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E993" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="994" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B994" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C994" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D994" s="1" t="s">
+      <c r="E1002" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1003" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E994" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="995" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B995" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C995" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D995" s="1" t="s">
+      <c r="E1003" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1004" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E995" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="996" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B996" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C996" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D996" s="1" t="s">
+      <c r="E1004" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E996" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="997" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B997" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C997" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D997" s="1" t="s">
+      <c r="E1005" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E997" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="998" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B998" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C998" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D998" s="1" t="s">
+      <c r="E1006" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1007" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E998" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="999" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B999" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C999" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D999" s="1" t="s">
+      <c r="E1007" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1008" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E999" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1000" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1000" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1000" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1000" s="1" t="s">
+      <c r="E1008" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1009" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1000" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1001" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1001" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1001" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1001" s="1" t="s">
+      <c r="E1009" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1010" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1001" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1002" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1002" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1002" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1002" s="1" t="s">
+      <c r="E1010" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1011" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1002" s="1" t="s">
+      <c r="E1011" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1016" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1016" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1016" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="584">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1996,6 +1996,12 @@
   </si>
   <si>
     <t>ROUTE_SURVEYED</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Not employed</t>
   </si>
 </sst>
 </file>
@@ -2465,8 +2471,8 @@
   <dimension ref="A1:E1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A978" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1016" sqref="A1016"/>
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C833" sqref="C833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16596,7 +16602,7 @@
         <v>437</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>57</v>
+        <v>583</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16613,7 +16619,7 @@
         <v>437</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>56</v>
+        <v>582</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -1506,9 +1506,6 @@
     <t>BART_EXIT_LON</t>
   </si>
   <si>
-    <t>SF Muni</t>
-  </si>
-  <si>
     <t>Walked all the way</t>
   </si>
   <si>
@@ -2002,6 +1999,9 @@
   </si>
   <si>
     <t>Not employed</t>
+  </si>
+  <si>
+    <t>SF Muni Pilot</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2471,8 @@
   <dimension ref="A1:E1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C833" sqref="C833"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15984,13 +15984,13 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C795" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C795" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>129</v>
@@ -16001,13 +16001,13 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>129</v>
@@ -16018,13 +16018,13 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>129</v>
@@ -16035,13 +16035,13 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>129</v>
@@ -16052,13 +16052,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>129</v>
@@ -16069,13 +16069,13 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>129</v>
@@ -16086,13 +16086,13 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>129</v>
@@ -16103,10 +16103,10 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>57</v>
@@ -16120,10 +16120,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>56</v>
@@ -16137,10 +16137,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>57</v>
@@ -16154,10 +16154,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -16171,10 +16171,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16205,13 +16205,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16222,13 +16222,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16239,13 +16239,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16256,13 +16256,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16273,13 +16273,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16290,13 +16290,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16307,13 +16307,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16324,13 +16324,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16341,13 +16341,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16358,13 +16358,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16375,13 +16375,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16392,13 +16392,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16409,13 +16409,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16426,13 +16426,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16443,13 +16443,13 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>135</v>
@@ -16460,10 +16460,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16477,10 +16477,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16494,13 +16494,13 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
@@ -16511,10 +16511,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16528,13 +16528,13 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
@@ -16545,13 +16545,13 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
@@ -16562,13 +16562,13 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
@@ -16579,13 +16579,13 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
@@ -16596,13 +16596,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16613,13 +16613,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16630,13 +16630,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16647,13 +16647,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16664,13 +16664,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16681,13 +16681,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16698,13 +16698,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16715,13 +16715,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16732,13 +16732,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16749,13 +16749,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16766,13 +16766,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16783,13 +16783,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16800,13 +16800,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16817,13 +16817,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16834,13 +16834,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16851,13 +16851,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16868,13 +16868,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16885,13 +16885,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
@@ -16902,13 +16902,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16919,13 +16919,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16936,13 +16936,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16953,13 +16953,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
@@ -16970,13 +16970,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
@@ -16987,13 +16987,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
@@ -17004,13 +17004,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>148</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17055,13 +17055,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17072,13 +17072,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17089,13 +17089,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17106,13 +17106,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17123,13 +17123,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -17140,13 +17140,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17157,13 +17157,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -17174,13 +17174,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17191,13 +17191,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17208,13 +17208,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
@@ -17225,13 +17225,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17242,10 +17242,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17259,10 +17259,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17276,10 +17276,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>4</v>
@@ -17293,10 +17293,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>4</v>
@@ -17310,7 +17310,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17327,10 +17327,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17344,10 +17344,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17361,10 +17361,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
@@ -17378,10 +17378,10 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>4</v>
@@ -17395,13 +17395,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B878" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C878" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C878" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>40</v>
@@ -17412,13 +17412,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17429,13 +17429,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
@@ -17446,13 +17446,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
@@ -17463,13 +17463,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
@@ -17480,13 +17480,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
@@ -17497,13 +17497,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
@@ -17514,13 +17514,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
@@ -17531,13 +17531,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
@@ -17548,13 +17548,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -17565,13 +17565,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
@@ -17582,13 +17582,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -17599,13 +17599,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17616,10 +17616,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>4</v>
@@ -17633,47 +17633,47 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17684,13 +17684,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17701,13 +17701,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17718,13 +17718,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17735,13 +17735,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17752,13 +17752,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17769,13 +17769,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17786,13 +17786,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17803,13 +17803,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17820,13 +17820,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17837,13 +17837,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17854,10 +17854,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17871,10 +17871,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17888,13 +17888,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17905,10 +17905,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17939,13 +17939,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17956,10 +17956,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -17973,10 +17973,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -17990,13 +17990,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -18007,10 +18007,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18024,10 +18024,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18041,13 +18041,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18058,10 +18058,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18075,10 +18075,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18092,13 +18092,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18109,10 +18109,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18126,13 +18126,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B921" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C921" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C921" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18143,13 +18143,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18160,27 +18160,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18194,10 +18194,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18211,13 +18211,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18228,13 +18228,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18245,13 +18245,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18262,13 +18262,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18279,13 +18279,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18296,13 +18296,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18313,13 +18313,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18330,10 +18330,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18347,10 +18347,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18364,13 +18364,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B935" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C935" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="C935" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18381,13 +18381,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18398,13 +18398,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18415,13 +18415,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18432,13 +18432,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18449,13 +18449,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18466,13 +18466,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18483,13 +18483,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18500,13 +18500,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18517,13 +18517,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18534,13 +18534,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18551,13 +18551,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18568,13 +18568,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18585,13 +18585,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18602,13 +18602,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18619,13 +18619,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18636,13 +18636,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18653,13 +18653,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18670,13 +18670,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18687,13 +18687,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18704,13 +18704,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18721,13 +18721,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18738,13 +18738,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18755,13 +18755,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18772,13 +18772,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18789,13 +18789,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18806,13 +18806,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18823,13 +18823,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18840,13 +18840,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18857,13 +18857,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18874,13 +18874,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18891,13 +18891,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18908,13 +18908,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18925,13 +18925,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18942,13 +18942,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18959,13 +18959,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -18976,13 +18976,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -18993,13 +18993,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -19010,10 +19010,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>4</v>
@@ -19027,10 +19027,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19044,10 +19044,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19061,10 +19061,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19078,10 +19078,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19095,10 +19095,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19112,13 +19112,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B979" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C979" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C979" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19129,13 +19129,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19146,13 +19146,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19163,13 +19163,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19180,13 +19180,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19197,13 +19197,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19214,13 +19214,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19231,13 +19231,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19248,13 +19248,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19265,13 +19265,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19282,13 +19282,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19299,10 +19299,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B990" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19316,10 +19316,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B991" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19333,10 +19333,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19367,10 +19367,10 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>4</v>
@@ -19384,13 +19384,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19401,13 +19401,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B996" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19418,13 +19418,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19435,10 +19435,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19449,13 +19449,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19466,10 +19466,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19483,13 +19483,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19500,13 +19500,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19517,10 +19517,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19534,10 +19534,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19551,10 +19551,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19568,10 +19568,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1006" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19585,10 +19585,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19602,10 +19602,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19619,10 +19619,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19636,10 +19636,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1010" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19653,10 +19653,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1011" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19670,16 +19670,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1012" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1012" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C1012" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="D1012" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19687,61 +19687,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1013" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1013" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="E1013" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1014" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1014" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1014" s="1" t="s">
+      <c r="E1014" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="E1014" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="5" t="s">
-        <v>418</v>
+      <c r="A1016" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dory\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisrae.MTC\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1374,12 +1374,6 @@
     <t>EMPLOYED_IN_HH_CODE</t>
   </si>
   <si>
-    <t>ENTERSTATION</t>
-  </si>
-  <si>
-    <t>EXITSTATION</t>
-  </si>
-  <si>
     <t>HOME_ADDRESS_LAT</t>
   </si>
   <si>
@@ -2002,6 +1996,12 @@
   </si>
   <si>
     <t>SF Muni Pilot</t>
+  </si>
+  <si>
+    <t>FIRST_ENTERED_BART</t>
+  </si>
+  <si>
+    <t>BART_EXIT_STATION</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2471,8 @@
   <dimension ref="A1:E1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13267,7 +13267,7 @@
         <v>362</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>374</v>
+        <v>582</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>4</v>
@@ -13284,7 +13284,7 @@
         <v>362</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>4</v>
@@ -13301,7 +13301,7 @@
         <v>362</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C637" s="7">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>362</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C638" s="7">
         <v>2</v>
@@ -13335,7 +13335,7 @@
         <v>362</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C639" s="7">
         <v>3</v>
@@ -13352,7 +13352,7 @@
         <v>362</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C640" s="7">
         <v>4</v>
@@ -13369,7 +13369,7 @@
         <v>362</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C641" s="7">
         <v>1</v>
@@ -13386,7 +13386,7 @@
         <v>362</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C642" s="7">
         <v>2</v>
@@ -13403,7 +13403,7 @@
         <v>362</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C643" s="7">
         <v>3</v>
@@ -13420,7 +13420,7 @@
         <v>362</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C644" s="7">
         <v>4</v>
@@ -13437,7 +13437,7 @@
         <v>362</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C645" s="7">
         <v>5</v>
@@ -13454,7 +13454,7 @@
         <v>362</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C646" s="7">
         <v>6</v>
@@ -13471,7 +13471,7 @@
         <v>362</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C647" s="7">
         <v>7</v>
@@ -13695,7 +13695,7 @@
         <v>153</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D660" s="7" t="s">
         <v>156</v>
@@ -13712,7 +13712,7 @@
         <v>153</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D661" s="7" t="s">
         <v>156</v>
@@ -13726,7 +13726,7 @@
         <v>362</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>4</v>
@@ -13743,7 +13743,7 @@
         <v>362</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>4</v>
@@ -13811,7 +13811,7 @@
         <v>362</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>4</v>
@@ -13828,7 +13828,7 @@
         <v>362</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>4</v>
@@ -13845,7 +13845,7 @@
         <v>362</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C669" s="7">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>362</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C670" s="7">
         <v>2</v>
@@ -13879,7 +13879,7 @@
         <v>362</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C671" s="7">
         <v>3</v>
@@ -13896,7 +13896,7 @@
         <v>362</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C672" s="7">
         <v>4</v>
@@ -13913,7 +13913,7 @@
         <v>362</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C673" s="7">
         <v>5</v>
@@ -13930,7 +13930,7 @@
         <v>362</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C674" s="7">
         <v>6</v>
@@ -13947,7 +13947,7 @@
         <v>362</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C675" s="7">
         <v>7</v>
@@ -13964,7 +13964,7 @@
         <v>362</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C676" s="7">
         <v>8</v>
@@ -13981,7 +13981,7 @@
         <v>362</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C677" s="7">
         <v>9</v>
@@ -13998,7 +13998,7 @@
         <v>362</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C678" s="7">
         <v>10</v>
@@ -14015,7 +14015,7 @@
         <v>362</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C679" s="7">
         <v>11</v>
@@ -14032,7 +14032,7 @@
         <v>362</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C680" s="7">
         <v>12</v>
@@ -14049,7 +14049,7 @@
         <v>362</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C681" s="7">
         <v>13</v>
@@ -14066,7 +14066,7 @@
         <v>362</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C682" s="7">
         <v>14</v>
@@ -14083,7 +14083,7 @@
         <v>362</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C683" s="7">
         <v>15</v>
@@ -14100,7 +14100,7 @@
         <v>362</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C684" s="7">
         <v>16</v>
@@ -14117,7 +14117,7 @@
         <v>362</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C685" s="7">
         <v>17</v>
@@ -14134,7 +14134,7 @@
         <v>362</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C686" s="7" t="s">
         <v>4</v>
@@ -14151,7 +14151,7 @@
         <v>362</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C687" s="7">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>362</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C688" s="7">
         <v>2</v>
@@ -14177,7 +14177,7 @@
         <v>139</v>
       </c>
       <c r="E688" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -14185,7 +14185,7 @@
         <v>362</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C689" s="7">
         <v>3</v>
@@ -14202,7 +14202,7 @@
         <v>362</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C690" s="7">
         <v>4</v>
@@ -14219,7 +14219,7 @@
         <v>362</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C691" s="7">
         <v>5</v>
@@ -14542,7 +14542,7 @@
         <v>362</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>4</v>
@@ -14627,7 +14627,7 @@
         <v>362</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C715" s="7" t="s">
         <v>4</v>
@@ -14644,7 +14644,7 @@
         <v>362</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C716" s="7" t="s">
         <v>4</v>
@@ -14695,7 +14695,7 @@
         <v>362</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C719" s="7" t="s">
         <v>4</v>
@@ -14712,7 +14712,7 @@
         <v>362</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C720" s="7" t="s">
         <v>4</v>
@@ -14729,7 +14729,7 @@
         <v>362</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C721" s="7">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>362</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C722" s="7">
         <v>2</v>
@@ -14763,7 +14763,7 @@
         <v>362</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C723" s="7">
         <v>3</v>
@@ -14780,7 +14780,7 @@
         <v>362</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C724" s="7">
         <v>4</v>
@@ -14797,7 +14797,7 @@
         <v>362</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C725" s="7">
         <v>5</v>
@@ -14814,7 +14814,7 @@
         <v>362</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C726" s="7">
         <v>6</v>
@@ -14831,7 +14831,7 @@
         <v>362</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C727" s="7">
         <v>7</v>
@@ -14848,7 +14848,7 @@
         <v>362</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C728" s="7">
         <v>8</v>
@@ -14865,7 +14865,7 @@
         <v>362</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C729" s="7">
         <v>9</v>
@@ -14882,7 +14882,7 @@
         <v>362</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C730" s="7">
         <v>10</v>
@@ -14899,7 +14899,7 @@
         <v>362</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C731" s="7">
         <v>11</v>
@@ -14916,7 +14916,7 @@
         <v>362</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C732" s="7">
         <v>12</v>
@@ -14933,7 +14933,7 @@
         <v>362</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C733" s="7">
         <v>13</v>
@@ -14950,7 +14950,7 @@
         <v>362</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C734" s="7">
         <v>14</v>
@@ -14967,7 +14967,7 @@
         <v>362</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C735" s="7">
         <v>15</v>
@@ -14984,7 +14984,7 @@
         <v>362</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C736" s="7">
         <v>16</v>
@@ -15001,7 +15001,7 @@
         <v>362</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C737" s="7">
         <v>17</v>
@@ -15018,7 +15018,7 @@
         <v>362</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C738" s="7">
         <v>18</v>
@@ -15035,7 +15035,7 @@
         <v>362</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C739" s="7">
         <v>19</v>
@@ -15052,7 +15052,7 @@
         <v>362</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C740" s="7">
         <v>20</v>
@@ -15069,7 +15069,7 @@
         <v>362</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C741" s="7">
         <v>1</v>
@@ -15086,7 +15086,7 @@
         <v>362</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C742" s="7">
         <v>2</v>
@@ -15103,7 +15103,7 @@
         <v>362</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C743" s="7">
         <v>3</v>
@@ -15120,7 +15120,7 @@
         <v>362</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C744" s="7">
         <v>4</v>
@@ -15137,7 +15137,7 @@
         <v>362</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C745" s="7">
         <v>5</v>
@@ -15154,7 +15154,7 @@
         <v>362</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C746" s="7">
         <v>6</v>
@@ -15171,7 +15171,7 @@
         <v>362</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C747" s="7">
         <v>7</v>
@@ -15188,7 +15188,7 @@
         <v>362</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C748" s="7">
         <v>8</v>
@@ -15205,7 +15205,7 @@
         <v>362</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C749" s="7">
         <v>9</v>
@@ -15222,7 +15222,7 @@
         <v>362</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C750" s="7">
         <v>10</v>
@@ -15239,7 +15239,7 @@
         <v>362</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C751" s="7">
         <v>11</v>
@@ -15256,7 +15256,7 @@
         <v>362</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C752" s="7">
         <v>12</v>
@@ -15273,7 +15273,7 @@
         <v>362</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C753" s="7">
         <v>13</v>
@@ -15290,7 +15290,7 @@
         <v>362</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C754" s="7">
         <v>14</v>
@@ -15307,7 +15307,7 @@
         <v>362</v>
       </c>
       <c r="B755" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C755" s="7">
         <v>15</v>
@@ -15324,7 +15324,7 @@
         <v>362</v>
       </c>
       <c r="B756" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C756" s="7">
         <v>16</v>
@@ -15341,7 +15341,7 @@
         <v>362</v>
       </c>
       <c r="B757" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C757" s="7">
         <v>17</v>
@@ -15358,7 +15358,7 @@
         <v>362</v>
       </c>
       <c r="B758" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C758" s="7">
         <v>18</v>
@@ -15375,7 +15375,7 @@
         <v>362</v>
       </c>
       <c r="B759" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C759" s="7">
         <v>19</v>
@@ -15392,7 +15392,7 @@
         <v>362</v>
       </c>
       <c r="B760" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C760" s="7">
         <v>20</v>
@@ -15409,7 +15409,7 @@
         <v>362</v>
       </c>
       <c r="B761" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C761" s="7" t="s">
         <v>4</v>
@@ -15426,7 +15426,7 @@
         <v>362</v>
       </c>
       <c r="B762" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C762" s="7" t="s">
         <v>4</v>
@@ -15443,7 +15443,7 @@
         <v>362</v>
       </c>
       <c r="B763" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C763" s="7" t="s">
         <v>4</v>
@@ -15460,7 +15460,7 @@
         <v>362</v>
       </c>
       <c r="B764" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C764" s="7" t="s">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         <v>362</v>
       </c>
       <c r="B765" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C765" s="7" t="s">
         <v>4</v>
@@ -15494,7 +15494,7 @@
         <v>362</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C766" s="7" t="s">
         <v>4</v>
@@ -15630,7 +15630,7 @@
         <v>362</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>4</v>
@@ -15647,7 +15647,7 @@
         <v>362</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>4</v>
@@ -15681,10 +15681,10 @@
         <v>362</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D777" s="7" t="s">
         <v>284</v>
@@ -15698,10 +15698,10 @@
         <v>362</v>
       </c>
       <c r="B778" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C778" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="C778" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="D778" s="7" t="s">
         <v>284</v>
@@ -15715,10 +15715,10 @@
         <v>362</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D779" s="7" t="s">
         <v>284</v>
@@ -15732,10 +15732,10 @@
         <v>362</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D780" s="7" t="s">
         <v>284</v>
@@ -15749,7 +15749,7 @@
         <v>362</v>
       </c>
       <c r="B781" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C781" s="7" t="s">
         <v>292</v>
@@ -15766,7 +15766,7 @@
         <v>362</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>357</v>
@@ -15783,7 +15783,7 @@
         <v>362</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C783" s="7" t="s">
         <v>293</v>
@@ -15800,7 +15800,7 @@
         <v>362</v>
       </c>
       <c r="B784" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C784" s="7" t="s">
         <v>358</v>
@@ -15817,7 +15817,7 @@
         <v>362</v>
       </c>
       <c r="B785" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C785" s="7" t="s">
         <v>359</v>
@@ -15834,7 +15834,7 @@
         <v>362</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>4</v>
@@ -15851,7 +15851,7 @@
         <v>362</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>4</v>
@@ -15868,7 +15868,7 @@
         <v>362</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>4</v>
@@ -15885,7 +15885,7 @@
         <v>362</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>4</v>
@@ -15902,7 +15902,7 @@
         <v>362</v>
       </c>
       <c r="B790" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>4</v>
@@ -15919,7 +15919,7 @@
         <v>362</v>
       </c>
       <c r="B791" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C791" s="7" t="s">
         <v>4</v>
@@ -15936,7 +15936,7 @@
         <v>362</v>
       </c>
       <c r="B792" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>4</v>
@@ -15953,7 +15953,7 @@
         <v>362</v>
       </c>
       <c r="B793" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C793" s="7" t="s">
         <v>4</v>
@@ -15970,7 +15970,7 @@
         <v>362</v>
       </c>
       <c r="B794" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>4</v>
@@ -15984,13 +15984,13 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>129</v>
@@ -16001,13 +16001,13 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>129</v>
@@ -16018,13 +16018,13 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>129</v>
@@ -16035,13 +16035,13 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>129</v>
@@ -16052,13 +16052,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>129</v>
@@ -16069,13 +16069,13 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>129</v>
@@ -16086,13 +16086,13 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>129</v>
@@ -16103,10 +16103,10 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>57</v>
@@ -16120,10 +16120,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>56</v>
@@ -16137,10 +16137,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>57</v>
@@ -16154,10 +16154,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -16171,10 +16171,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16205,13 +16205,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16222,13 +16222,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16239,13 +16239,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16256,13 +16256,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16273,13 +16273,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16290,13 +16290,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16307,13 +16307,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16324,13 +16324,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16341,13 +16341,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16358,13 +16358,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16375,13 +16375,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16392,13 +16392,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16409,13 +16409,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16426,13 +16426,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16443,13 +16443,13 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>135</v>
@@ -16460,10 +16460,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16477,10 +16477,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16494,13 +16494,13 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
@@ -16511,10 +16511,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16528,13 +16528,13 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
@@ -16545,13 +16545,13 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
@@ -16562,13 +16562,13 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
@@ -16579,13 +16579,13 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
@@ -16596,13 +16596,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16613,13 +16613,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16630,13 +16630,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16647,13 +16647,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16664,13 +16664,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16681,13 +16681,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16698,13 +16698,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16715,13 +16715,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16732,13 +16732,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16749,13 +16749,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16766,13 +16766,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16783,13 +16783,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16800,13 +16800,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16817,13 +16817,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16834,13 +16834,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16851,13 +16851,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16868,13 +16868,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16885,13 +16885,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
@@ -16902,13 +16902,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16919,13 +16919,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16936,13 +16936,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16953,13 +16953,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
@@ -16970,13 +16970,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
@@ -16987,13 +16987,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
@@ -17004,13 +17004,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>148</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17055,13 +17055,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17072,13 +17072,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17089,13 +17089,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17106,13 +17106,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17123,13 +17123,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -17140,13 +17140,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17157,13 +17157,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -17174,13 +17174,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17191,13 +17191,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17208,13 +17208,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
@@ -17225,13 +17225,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17242,10 +17242,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17259,10 +17259,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17276,10 +17276,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>4</v>
@@ -17293,10 +17293,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>4</v>
@@ -17310,7 +17310,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17327,10 +17327,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17344,10 +17344,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17361,10 +17361,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
@@ -17378,10 +17378,10 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>4</v>
@@ -17395,13 +17395,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>40</v>
@@ -17412,13 +17412,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B879" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C879" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C879" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17429,13 +17429,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
@@ -17446,13 +17446,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
@@ -17463,13 +17463,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
@@ -17480,13 +17480,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
@@ -17497,13 +17497,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
@@ -17514,13 +17514,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
@@ -17531,13 +17531,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
@@ -17548,13 +17548,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -17565,13 +17565,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
@@ -17582,13 +17582,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -17599,13 +17599,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17616,10 +17616,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>4</v>
@@ -17633,47 +17633,47 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17684,13 +17684,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17701,13 +17701,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17718,13 +17718,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17735,13 +17735,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17752,13 +17752,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17769,13 +17769,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17786,13 +17786,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17803,13 +17803,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17820,13 +17820,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17837,13 +17837,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17854,10 +17854,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17871,10 +17871,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17888,13 +17888,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17905,10 +17905,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17939,13 +17939,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17956,10 +17956,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -17973,10 +17973,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -17990,13 +17990,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -18007,10 +18007,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18024,10 +18024,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18041,13 +18041,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18058,10 +18058,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18075,10 +18075,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18092,13 +18092,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18109,10 +18109,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18126,13 +18126,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18143,13 +18143,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B922" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C922" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C922" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18160,27 +18160,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18194,10 +18194,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18211,13 +18211,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18228,13 +18228,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18245,13 +18245,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18262,13 +18262,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18279,13 +18279,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18296,13 +18296,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18313,13 +18313,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18330,10 +18330,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18347,10 +18347,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18364,13 +18364,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18381,13 +18381,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B936" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C936" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="C936" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18398,13 +18398,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18415,13 +18415,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18432,13 +18432,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18449,13 +18449,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18466,13 +18466,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18483,13 +18483,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18500,13 +18500,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18517,13 +18517,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18534,13 +18534,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18551,13 +18551,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18568,13 +18568,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18585,13 +18585,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18602,13 +18602,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18619,13 +18619,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18636,13 +18636,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18653,13 +18653,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18670,13 +18670,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18687,13 +18687,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18704,13 +18704,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18721,13 +18721,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18738,13 +18738,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18755,13 +18755,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18772,13 +18772,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18789,13 +18789,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18806,13 +18806,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18823,13 +18823,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18840,13 +18840,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18857,13 +18857,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18874,13 +18874,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18891,13 +18891,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18908,13 +18908,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18925,13 +18925,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18942,13 +18942,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18959,13 +18959,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -18976,13 +18976,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -18993,13 +18993,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -19010,10 +19010,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>4</v>
@@ -19027,10 +19027,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19044,10 +19044,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19061,10 +19061,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19078,10 +19078,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19095,10 +19095,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19112,13 +19112,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B979" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19129,13 +19129,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19146,13 +19146,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19163,13 +19163,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19180,13 +19180,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19197,13 +19197,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19214,13 +19214,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19231,13 +19231,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19248,13 +19248,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19265,13 +19265,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19282,13 +19282,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19299,10 +19299,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B990" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19316,10 +19316,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B991" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19333,10 +19333,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19367,10 +19367,10 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>4</v>
@@ -19384,13 +19384,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19401,13 +19401,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19418,13 +19418,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19435,10 +19435,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19449,13 +19449,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19466,10 +19466,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19483,13 +19483,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19500,13 +19500,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19517,10 +19517,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19534,10 +19534,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19551,10 +19551,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19568,10 +19568,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1006" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19585,10 +19585,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19602,10 +19602,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19619,10 +19619,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19636,10 +19636,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1010" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19653,10 +19653,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1011" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19670,16 +19670,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19687,61 +19687,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1013" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1013" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C1013" s="1" t="s">
+      <c r="D1013" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D1013" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="E1013" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C1014" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1014" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D1014" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1014" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisrae.MTC\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dory\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="582">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1374,6 +1374,12 @@
     <t>EMPLOYED_IN_HH_CODE</t>
   </si>
   <si>
+    <t>ENTERSTATION</t>
+  </si>
+  <si>
+    <t>EXITSTATION</t>
+  </si>
+  <si>
     <t>HOME_ADDRESS_LAT</t>
   </si>
   <si>
@@ -1530,12 +1536,6 @@
     <t>WORKED_BEFORE_TRIP</t>
   </si>
   <si>
-    <t>DESTIN_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>DESTIN_ADDRESS..LONG.</t>
-  </si>
-  <si>
     <t>Walk all the way</t>
   </si>
   <si>
@@ -1551,9 +1551,6 @@
     <t>Get in a parked vehicle and drive with others</t>
   </si>
   <si>
-    <t>DESTIN_TRANSPORT</t>
-  </si>
-  <si>
     <t>STATUS_EMPLOYMENT</t>
   </si>
   <si>
@@ -1623,21 +1620,9 @@
     <t>HISP_LAT_SPA</t>
   </si>
   <si>
-    <t>HOME_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>HOME_ADDRESS..LONG.</t>
-  </si>
-  <si>
     <t>HOME_LANG_OTHER</t>
   </si>
   <si>
-    <t>ORIGIN_ADDRESS..LAT.</t>
-  </si>
-  <si>
-    <t>ORIGIN_ADDRESS..LONG.</t>
-  </si>
-  <si>
     <t>ORIGIN_PLACE_TYPE</t>
   </si>
   <si>
@@ -1776,42 +1761,15 @@
     <t>COUNT_MEMBER_HH</t>
   </si>
   <si>
-    <t>ETHNIC_BACKGROUND..Other.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>ETHNIC_BACKGROUND..1.</t>
-  </si>
-  <si>
-    <t>ETHNIC_BACKGROUND..2.</t>
-  </si>
-  <si>
-    <t>ETHNIC_BACKGROUND..3.</t>
-  </si>
-  <si>
-    <t>ETHNIC_BACKGROUND..4.</t>
-  </si>
-  <si>
-    <t>ETHNIC_BACKGROUND..5.</t>
-  </si>
-  <si>
-    <t>YOUR_GENDER</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>YOUR_SCHOOL..LAT.</t>
-  </si>
-  <si>
-    <t>YOUR_SCHOOL..LONG.</t>
-  </si>
-  <si>
     <t>Not a student</t>
   </si>
   <si>
@@ -1896,21 +1854,6 @@
     <t>TIME_ARRIVE_HOME</t>
   </si>
   <si>
-    <t>TRIP_NEXT_ROUTE</t>
-  </si>
-  <si>
-    <t>TRIP_AFTER_ROUTE</t>
-  </si>
-  <si>
-    <t>TRIP_THIRD_ROUTE</t>
-  </si>
-  <si>
-    <t>TRIP_FIRST_ROUTE</t>
-  </si>
-  <si>
-    <t>TRIP_SECOND_ROUTE</t>
-  </si>
-  <si>
     <t>COUNT_VH_HH</t>
   </si>
   <si>
@@ -1923,15 +1866,6 @@
     <t>GO2SCHL_AFTR_TRIP</t>
   </si>
   <si>
-    <t>YOUR_WORK..LAT.</t>
-  </si>
-  <si>
-    <t>YOUR_WORK..LONG.</t>
-  </si>
-  <si>
-    <t>AGE..AGE.</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -1959,33 +1893,9 @@
     <t>WEIGHT</t>
   </si>
   <si>
-    <t>STOP_ON..LAT.</t>
-  </si>
-  <si>
-    <t>STOP_ON..LONG.</t>
-  </si>
-  <si>
-    <t>STOP_OFF..LAT.</t>
-  </si>
-  <si>
-    <t>STOP_OFF..LONG.</t>
-  </si>
-  <si>
-    <t>VAL_LAST_NEXT_LAT</t>
-  </si>
-  <si>
-    <t>VAL_LAST_NEXT_LON</t>
-  </si>
-  <si>
     <t>FIRST_BOARD_LAT</t>
   </si>
   <si>
-    <t>FIRST_BOARD_LONG</t>
-  </si>
-  <si>
-    <t>SELECT_LANGUAGE.Code.</t>
-  </si>
-  <si>
     <t>ROUTE_SURVEYED</t>
   </si>
   <si>
@@ -1998,10 +1908,94 @@
     <t>SF Muni Pilot</t>
   </si>
   <si>
-    <t>FIRST_ENTERED_BART</t>
-  </si>
-  <si>
-    <t>BART_EXIT_STATION</t>
+    <t>AM_INDIAN_ALASKA_NAT</t>
+  </si>
+  <si>
+    <t>BLACK_AF_AMERICAN</t>
+  </si>
+  <si>
+    <t>NAT_HAWAIIAN_PACIFIC_ISLAND</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>ETHNIC_BACKGROUND_OTHER</t>
+  </si>
+  <si>
+    <t>YOUR_SCHOOL_LAT</t>
+  </si>
+  <si>
+    <t>DESTIN_LAT</t>
+  </si>
+  <si>
+    <t>DESTIN_LON</t>
+  </si>
+  <si>
+    <t>YOUR_WORK_LAT</t>
+  </si>
+  <si>
+    <t>SELECT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>BOARDING_LAT</t>
+  </si>
+  <si>
+    <t>BOARDING_LON</t>
+  </si>
+  <si>
+    <t>ALIGHTING_LAT</t>
+  </si>
+  <si>
+    <t>ALIGHTING_LON</t>
+  </si>
+  <si>
+    <t>EGRESS_MODE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>YOUR_SCHOOL_LON</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_FIRST</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_SECOND</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_THIRD</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_FIRST</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_SECOND</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_THIRD</t>
+  </si>
+  <si>
+    <t>YOUR_WORK_LON</t>
+  </si>
+  <si>
+    <t>FIRST_BOARD_LON</t>
+  </si>
+  <si>
+    <t>LAST_ALIGHT_LAT</t>
+  </si>
+  <si>
+    <t>LAST_ALIGHT_LON</t>
+  </si>
+  <si>
+    <t>NEXT_TRANSFERS_CODE</t>
+  </si>
+  <si>
+    <t>PREV_TRANSFERS_CODE</t>
   </si>
 </sst>
 </file>
@@ -2468,11 +2462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1016"/>
+  <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B636" sqref="B636"/>
+      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1022" sqref="C1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13267,7 +13261,7 @@
         <v>362</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>582</v>
+        <v>374</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>4</v>
@@ -13284,7 +13278,7 @@
         <v>362</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>4</v>
@@ -13301,7 +13295,7 @@
         <v>362</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C637" s="7">
         <v>1</v>
@@ -13318,7 +13312,7 @@
         <v>362</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C638" s="7">
         <v>2</v>
@@ -13335,7 +13329,7 @@
         <v>362</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C639" s="7">
         <v>3</v>
@@ -13352,7 +13346,7 @@
         <v>362</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C640" s="7">
         <v>4</v>
@@ -13369,7 +13363,7 @@
         <v>362</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C641" s="7">
         <v>1</v>
@@ -13386,7 +13380,7 @@
         <v>362</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C642" s="7">
         <v>2</v>
@@ -13403,7 +13397,7 @@
         <v>362</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C643" s="7">
         <v>3</v>
@@ -13420,7 +13414,7 @@
         <v>362</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C644" s="7">
         <v>4</v>
@@ -13437,7 +13431,7 @@
         <v>362</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C645" s="7">
         <v>5</v>
@@ -13454,7 +13448,7 @@
         <v>362</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C646" s="7">
         <v>6</v>
@@ -13471,7 +13465,7 @@
         <v>362</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C647" s="7">
         <v>7</v>
@@ -13695,7 +13689,7 @@
         <v>153</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D660" s="7" t="s">
         <v>156</v>
@@ -13712,7 +13706,7 @@
         <v>153</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D661" s="7" t="s">
         <v>156</v>
@@ -13726,7 +13720,7 @@
         <v>362</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>4</v>
@@ -13743,7 +13737,7 @@
         <v>362</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>4</v>
@@ -13811,7 +13805,7 @@
         <v>362</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>4</v>
@@ -13828,7 +13822,7 @@
         <v>362</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>4</v>
@@ -13845,7 +13839,7 @@
         <v>362</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C669" s="7">
         <v>1</v>
@@ -13862,7 +13856,7 @@
         <v>362</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C670" s="7">
         <v>2</v>
@@ -13879,7 +13873,7 @@
         <v>362</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C671" s="7">
         <v>3</v>
@@ -13896,7 +13890,7 @@
         <v>362</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C672" s="7">
         <v>4</v>
@@ -13913,7 +13907,7 @@
         <v>362</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C673" s="7">
         <v>5</v>
@@ -13930,7 +13924,7 @@
         <v>362</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C674" s="7">
         <v>6</v>
@@ -13947,7 +13941,7 @@
         <v>362</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C675" s="7">
         <v>7</v>
@@ -13964,7 +13958,7 @@
         <v>362</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C676" s="7">
         <v>8</v>
@@ -13981,7 +13975,7 @@
         <v>362</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C677" s="7">
         <v>9</v>
@@ -13998,7 +13992,7 @@
         <v>362</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C678" s="7">
         <v>10</v>
@@ -14015,7 +14009,7 @@
         <v>362</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C679" s="7">
         <v>11</v>
@@ -14032,7 +14026,7 @@
         <v>362</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C680" s="7">
         <v>12</v>
@@ -14049,7 +14043,7 @@
         <v>362</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C681" s="7">
         <v>13</v>
@@ -14066,7 +14060,7 @@
         <v>362</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C682" s="7">
         <v>14</v>
@@ -14083,7 +14077,7 @@
         <v>362</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C683" s="7">
         <v>15</v>
@@ -14100,7 +14094,7 @@
         <v>362</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C684" s="7">
         <v>16</v>
@@ -14117,7 +14111,7 @@
         <v>362</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C685" s="7">
         <v>17</v>
@@ -14134,7 +14128,7 @@
         <v>362</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C686" s="7" t="s">
         <v>4</v>
@@ -14151,7 +14145,7 @@
         <v>362</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C687" s="7">
         <v>1</v>
@@ -14168,7 +14162,7 @@
         <v>362</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C688" s="7">
         <v>2</v>
@@ -14177,7 +14171,7 @@
         <v>139</v>
       </c>
       <c r="E688" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -14185,7 +14179,7 @@
         <v>362</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C689" s="7">
         <v>3</v>
@@ -14202,7 +14196,7 @@
         <v>362</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C690" s="7">
         <v>4</v>
@@ -14219,7 +14213,7 @@
         <v>362</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C691" s="7">
         <v>5</v>
@@ -14542,7 +14536,7 @@
         <v>362</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>4</v>
@@ -14627,7 +14621,7 @@
         <v>362</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C715" s="7" t="s">
         <v>4</v>
@@ -14644,7 +14638,7 @@
         <v>362</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C716" s="7" t="s">
         <v>4</v>
@@ -14695,7 +14689,7 @@
         <v>362</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C719" s="7" t="s">
         <v>4</v>
@@ -14712,7 +14706,7 @@
         <v>362</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C720" s="7" t="s">
         <v>4</v>
@@ -14729,7 +14723,7 @@
         <v>362</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C721" s="7">
         <v>1</v>
@@ -14746,7 +14740,7 @@
         <v>362</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C722" s="7">
         <v>2</v>
@@ -14763,7 +14757,7 @@
         <v>362</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C723" s="7">
         <v>3</v>
@@ -14780,7 +14774,7 @@
         <v>362</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C724" s="7">
         <v>4</v>
@@ -14797,7 +14791,7 @@
         <v>362</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C725" s="7">
         <v>5</v>
@@ -14814,7 +14808,7 @@
         <v>362</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C726" s="7">
         <v>6</v>
@@ -14831,7 +14825,7 @@
         <v>362</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C727" s="7">
         <v>7</v>
@@ -14848,7 +14842,7 @@
         <v>362</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C728" s="7">
         <v>8</v>
@@ -14865,7 +14859,7 @@
         <v>362</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C729" s="7">
         <v>9</v>
@@ -14882,7 +14876,7 @@
         <v>362</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C730" s="7">
         <v>10</v>
@@ -14899,7 +14893,7 @@
         <v>362</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C731" s="7">
         <v>11</v>
@@ -14916,7 +14910,7 @@
         <v>362</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C732" s="7">
         <v>12</v>
@@ -14933,7 +14927,7 @@
         <v>362</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C733" s="7">
         <v>13</v>
@@ -14950,7 +14944,7 @@
         <v>362</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C734" s="7">
         <v>14</v>
@@ -14967,7 +14961,7 @@
         <v>362</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C735" s="7">
         <v>15</v>
@@ -14984,7 +14978,7 @@
         <v>362</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C736" s="7">
         <v>16</v>
@@ -15001,7 +14995,7 @@
         <v>362</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C737" s="7">
         <v>17</v>
@@ -15018,7 +15012,7 @@
         <v>362</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C738" s="7">
         <v>18</v>
@@ -15035,7 +15029,7 @@
         <v>362</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C739" s="7">
         <v>19</v>
@@ -15052,7 +15046,7 @@
         <v>362</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C740" s="7">
         <v>20</v>
@@ -15069,7 +15063,7 @@
         <v>362</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C741" s="7">
         <v>1</v>
@@ -15086,7 +15080,7 @@
         <v>362</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C742" s="7">
         <v>2</v>
@@ -15103,7 +15097,7 @@
         <v>362</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C743" s="7">
         <v>3</v>
@@ -15120,7 +15114,7 @@
         <v>362</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C744" s="7">
         <v>4</v>
@@ -15137,7 +15131,7 @@
         <v>362</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C745" s="7">
         <v>5</v>
@@ -15154,7 +15148,7 @@
         <v>362</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C746" s="7">
         <v>6</v>
@@ -15171,7 +15165,7 @@
         <v>362</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C747" s="7">
         <v>7</v>
@@ -15188,7 +15182,7 @@
         <v>362</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C748" s="7">
         <v>8</v>
@@ -15205,7 +15199,7 @@
         <v>362</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C749" s="7">
         <v>9</v>
@@ -15222,7 +15216,7 @@
         <v>362</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C750" s="7">
         <v>10</v>
@@ -15239,7 +15233,7 @@
         <v>362</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C751" s="7">
         <v>11</v>
@@ -15256,7 +15250,7 @@
         <v>362</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C752" s="7">
         <v>12</v>
@@ -15273,7 +15267,7 @@
         <v>362</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C753" s="7">
         <v>13</v>
@@ -15290,7 +15284,7 @@
         <v>362</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C754" s="7">
         <v>14</v>
@@ -15307,7 +15301,7 @@
         <v>362</v>
       </c>
       <c r="B755" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C755" s="7">
         <v>15</v>
@@ -15324,7 +15318,7 @@
         <v>362</v>
       </c>
       <c r="B756" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C756" s="7">
         <v>16</v>
@@ -15341,7 +15335,7 @@
         <v>362</v>
       </c>
       <c r="B757" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C757" s="7">
         <v>17</v>
@@ -15358,7 +15352,7 @@
         <v>362</v>
       </c>
       <c r="B758" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C758" s="7">
         <v>18</v>
@@ -15375,7 +15369,7 @@
         <v>362</v>
       </c>
       <c r="B759" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C759" s="7">
         <v>19</v>
@@ -15392,7 +15386,7 @@
         <v>362</v>
       </c>
       <c r="B760" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C760" s="7">
         <v>20</v>
@@ -15409,7 +15403,7 @@
         <v>362</v>
       </c>
       <c r="B761" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C761" s="7" t="s">
         <v>4</v>
@@ -15426,7 +15420,7 @@
         <v>362</v>
       </c>
       <c r="B762" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C762" s="7" t="s">
         <v>4</v>
@@ -15443,7 +15437,7 @@
         <v>362</v>
       </c>
       <c r="B763" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C763" s="7" t="s">
         <v>4</v>
@@ -15460,7 +15454,7 @@
         <v>362</v>
       </c>
       <c r="B764" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C764" s="7" t="s">
         <v>4</v>
@@ -15477,7 +15471,7 @@
         <v>362</v>
       </c>
       <c r="B765" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C765" s="7" t="s">
         <v>4</v>
@@ -15494,7 +15488,7 @@
         <v>362</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C766" s="7" t="s">
         <v>4</v>
@@ -15630,7 +15624,7 @@
         <v>362</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>4</v>
@@ -15647,7 +15641,7 @@
         <v>362</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>4</v>
@@ -15681,10 +15675,10 @@
         <v>362</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D777" s="7" t="s">
         <v>284</v>
@@ -15698,10 +15692,10 @@
         <v>362</v>
       </c>
       <c r="B778" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D778" s="7" t="s">
         <v>284</v>
@@ -15715,10 +15709,10 @@
         <v>362</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D779" s="7" t="s">
         <v>284</v>
@@ -15732,10 +15726,10 @@
         <v>362</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D780" s="7" t="s">
         <v>284</v>
@@ -15749,7 +15743,7 @@
         <v>362</v>
       </c>
       <c r="B781" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C781" s="7" t="s">
         <v>292</v>
@@ -15766,7 +15760,7 @@
         <v>362</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>357</v>
@@ -15783,7 +15777,7 @@
         <v>362</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C783" s="7" t="s">
         <v>293</v>
@@ -15800,7 +15794,7 @@
         <v>362</v>
       </c>
       <c r="B784" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C784" s="7" t="s">
         <v>358</v>
@@ -15817,7 +15811,7 @@
         <v>362</v>
       </c>
       <c r="B785" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C785" s="7" t="s">
         <v>359</v>
@@ -15834,7 +15828,7 @@
         <v>362</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>4</v>
@@ -15851,7 +15845,7 @@
         <v>362</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>4</v>
@@ -15868,7 +15862,7 @@
         <v>362</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>4</v>
@@ -15885,7 +15879,7 @@
         <v>362</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>4</v>
@@ -15902,7 +15896,7 @@
         <v>362</v>
       </c>
       <c r="B790" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>4</v>
@@ -15919,7 +15913,7 @@
         <v>362</v>
       </c>
       <c r="B791" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C791" s="7" t="s">
         <v>4</v>
@@ -15936,7 +15930,7 @@
         <v>362</v>
       </c>
       <c r="B792" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>4</v>
@@ -15953,7 +15947,7 @@
         <v>362</v>
       </c>
       <c r="B793" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C793" s="7" t="s">
         <v>4</v>
@@ -15970,7 +15964,7 @@
         <v>362</v>
       </c>
       <c r="B794" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>4</v>
@@ -15984,13 +15978,13 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>129</v>
@@ -16001,13 +15995,13 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>129</v>
@@ -16018,13 +16012,13 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>129</v>
@@ -16035,13 +16029,13 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>129</v>
@@ -16052,13 +16046,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>129</v>
@@ -16069,13 +16063,13 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B800" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C800" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C800" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>129</v>
@@ -16086,13 +16080,13 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>129</v>
@@ -16103,10 +16097,10 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>57</v>
@@ -16120,10 +16114,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>56</v>
@@ -16137,10 +16131,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>57</v>
@@ -16154,10 +16148,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -16171,10 +16165,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>426</v>
+        <v>559</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16188,10 +16182,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>427</v>
+        <v>560</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16205,13 +16199,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16222,13 +16216,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16239,13 +16233,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16256,13 +16250,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16273,13 +16267,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16290,13 +16284,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16307,13 +16301,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16324,13 +16318,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16341,13 +16335,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16358,13 +16352,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16375,13 +16369,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16392,13 +16386,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16409,13 +16403,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16426,13 +16420,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16443,10 +16437,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>428</v>
@@ -16460,10 +16454,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16477,10 +16471,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16494,13 +16488,13 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
@@ -16511,10 +16505,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16528,10 +16522,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>429</v>
@@ -16545,10 +16539,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>430</v>
@@ -16562,10 +16556,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>431</v>
@@ -16579,10 +16573,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>432</v>
@@ -16596,13 +16590,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16613,13 +16607,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16630,13 +16624,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16647,13 +16641,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16664,13 +16658,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16681,13 +16675,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16698,13 +16692,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16715,13 +16709,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16732,13 +16726,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16749,13 +16743,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16766,13 +16760,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16783,13 +16777,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16800,13 +16794,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16817,13 +16811,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16834,13 +16828,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16851,13 +16845,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16868,13 +16862,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16885,13 +16879,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
@@ -16902,13 +16896,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16919,13 +16913,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16936,13 +16930,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16953,13 +16947,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
@@ -16970,13 +16964,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
@@ -16987,13 +16981,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
@@ -17004,13 +16998,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>148</v>
@@ -17021,7 +17015,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17038,7 +17032,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17055,13 +17049,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17072,13 +17066,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17089,13 +17083,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17106,13 +17100,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17123,13 +17117,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -17140,13 +17134,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17157,13 +17151,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -17174,13 +17168,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17191,13 +17185,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17208,13 +17202,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
@@ -17225,13 +17219,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17242,10 +17236,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17259,10 +17253,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17276,10 +17270,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>4</v>
@@ -17293,10 +17287,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>4</v>
@@ -17310,7 +17304,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17327,10 +17321,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17344,10 +17338,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17361,10 +17355,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
@@ -17378,10 +17372,10 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>4</v>
@@ -17395,13 +17389,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>40</v>
@@ -17412,13 +17406,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17429,13 +17423,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
@@ -17446,13 +17440,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
@@ -17463,13 +17457,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B882" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C882" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="C882" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
@@ -17480,13 +17474,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
@@ -17497,13 +17491,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
@@ -17514,13 +17508,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
@@ -17531,13 +17525,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
@@ -17548,13 +17542,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -17565,13 +17559,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
@@ -17582,13 +17576,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -17599,13 +17593,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17616,10 +17610,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>4</v>
@@ -17633,47 +17627,47 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17684,13 +17678,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17701,13 +17695,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17718,13 +17712,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17735,13 +17729,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17752,13 +17746,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17769,13 +17763,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17786,13 +17780,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17803,13 +17797,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17820,13 +17814,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17837,13 +17831,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17854,10 +17848,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17871,10 +17865,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17888,13 +17882,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17905,10 +17899,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17922,10 +17916,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17939,13 +17933,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17956,10 +17950,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -17973,10 +17967,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -17990,13 +17984,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -18007,10 +18001,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18024,10 +18018,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18041,13 +18035,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18058,10 +18052,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18075,10 +18069,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18092,13 +18086,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18109,10 +18103,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18126,13 +18120,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18143,13 +18137,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18160,27 +18154,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18194,10 +18188,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18211,13 +18205,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18228,13 +18222,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18245,13 +18239,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18262,13 +18256,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18279,13 +18273,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18296,13 +18290,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18313,13 +18307,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18330,10 +18324,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18347,10 +18341,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18364,13 +18358,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18381,13 +18375,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18398,13 +18392,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18415,13 +18409,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18432,13 +18426,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18449,13 +18443,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18466,13 +18460,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18483,13 +18477,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18500,13 +18494,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18517,13 +18511,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18534,13 +18528,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18551,13 +18545,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18568,13 +18562,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18585,13 +18579,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B948" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C948" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="C948" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18602,13 +18596,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18619,13 +18613,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18636,13 +18630,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18653,13 +18647,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18670,13 +18664,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18687,13 +18681,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18704,13 +18698,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18721,13 +18715,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18738,13 +18732,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18755,13 +18749,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18772,13 +18766,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18789,13 +18783,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18806,13 +18800,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18823,13 +18817,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18840,13 +18834,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18857,13 +18851,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18874,13 +18868,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18891,13 +18885,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18908,13 +18902,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18925,13 +18919,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18942,13 +18936,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18959,13 +18953,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -18976,13 +18970,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -18993,13 +18987,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -19010,10 +19004,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>4</v>
@@ -19027,10 +19021,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19044,10 +19038,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19061,10 +19055,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19078,10 +19072,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19095,10 +19089,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19112,13 +19106,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B979" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19129,13 +19123,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19146,13 +19140,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19163,13 +19157,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19180,13 +19174,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19197,13 +19191,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19214,13 +19208,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19231,13 +19225,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19248,13 +19242,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19265,13 +19259,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19282,13 +19276,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19299,10 +19293,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B990" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19316,10 +19310,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B991" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19333,10 +19327,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19350,10 +19344,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19367,10 +19361,10 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>4</v>
@@ -19384,13 +19378,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19401,13 +19395,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19418,13 +19412,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19435,10 +19429,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19449,13 +19443,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19466,10 +19460,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19483,13 +19477,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19500,13 +19494,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19517,10 +19511,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19534,10 +19528,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19551,10 +19545,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19568,10 +19562,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1006" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19585,10 +19579,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19602,10 +19596,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19619,10 +19613,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19636,10 +19630,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1010" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19653,10 +19647,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1011" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19670,16 +19664,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19687,61 +19681,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1013" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1013" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C1013" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1013" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1013" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1014" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1014" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C1014" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1014" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1014" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>
@@ -19750,6 +19744,176 @@
         <v>345</v>
       </c>
       <c r="E1016" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1017" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1018" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1019" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1020" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1021" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1021" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1022" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1023" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1024" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1025" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1026" s="1">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="578">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1452,12 +1452,6 @@
     <t>SRVY_IN_ENGL_SPANISH</t>
   </si>
   <si>
-    <t>FROM_TRANS_LIST1_LOC_LAT</t>
-  </si>
-  <si>
-    <t>FROM_TRANS_LIST1_LOC_LONG</t>
-  </si>
-  <si>
     <t>PAIRED_WGHT_FCTR</t>
   </si>
   <si>
@@ -1468,12 +1462,6 @@
   </si>
   <si>
     <t>EGRESSTRNSFR_LIST3</t>
-  </si>
-  <si>
-    <t>TO_TRNS_LIST1_LOC_LAT</t>
-  </si>
-  <si>
-    <t>TO_TRNS_LIST1_LOC_LONG</t>
   </si>
   <si>
     <t>WORKP_ADDRESS_LAT</t>
@@ -2465,8 +2453,8 @@
   <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1022" sqref="C1022"/>
+      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B790" sqref="B790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13295,7 +13283,7 @@
         <v>362</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C637" s="7">
         <v>1</v>
@@ -13312,7 +13300,7 @@
         <v>362</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C638" s="7">
         <v>2</v>
@@ -13329,7 +13317,7 @@
         <v>362</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C639" s="7">
         <v>3</v>
@@ -13346,7 +13334,7 @@
         <v>362</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C640" s="7">
         <v>4</v>
@@ -13363,7 +13351,7 @@
         <v>362</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C641" s="7">
         <v>1</v>
@@ -13380,7 +13368,7 @@
         <v>362</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C642" s="7">
         <v>2</v>
@@ -13397,7 +13385,7 @@
         <v>362</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C643" s="7">
         <v>3</v>
@@ -13414,7 +13402,7 @@
         <v>362</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C644" s="7">
         <v>4</v>
@@ -13431,7 +13419,7 @@
         <v>362</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C645" s="7">
         <v>5</v>
@@ -13448,7 +13436,7 @@
         <v>362</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C646" s="7">
         <v>6</v>
@@ -13465,7 +13453,7 @@
         <v>362</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C647" s="7">
         <v>7</v>
@@ -13689,7 +13677,7 @@
         <v>153</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D660" s="7" t="s">
         <v>156</v>
@@ -13706,7 +13694,7 @@
         <v>153</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D661" s="7" t="s">
         <v>156</v>
@@ -14536,7 +14524,7 @@
         <v>362</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>4</v>
@@ -15437,7 +15425,7 @@
         <v>362</v>
       </c>
       <c r="B763" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C763" s="7" t="s">
         <v>4</v>
@@ -15488,7 +15476,7 @@
         <v>362</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C766" s="7" t="s">
         <v>4</v>
@@ -15624,7 +15612,7 @@
         <v>362</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>4</v>
@@ -15641,7 +15629,7 @@
         <v>362</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>4</v>
@@ -15828,7 +15816,7 @@
         <v>362</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>4</v>
@@ -15845,7 +15833,7 @@
         <v>362</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>407</v>
+        <v>573</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>4</v>
@@ -15862,7 +15850,7 @@
         <v>362</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>4</v>
@@ -15879,7 +15867,7 @@
         <v>362</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>4</v>
@@ -15896,7 +15884,7 @@
         <v>362</v>
       </c>
       <c r="B790" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>4</v>
@@ -15913,7 +15901,7 @@
         <v>362</v>
       </c>
       <c r="B791" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C791" s="7" t="s">
         <v>4</v>
@@ -15930,7 +15918,7 @@
         <v>362</v>
       </c>
       <c r="B792" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>4</v>
@@ -15947,7 +15935,7 @@
         <v>362</v>
       </c>
       <c r="B793" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C793" s="7" t="s">
         <v>4</v>
@@ -15964,7 +15952,7 @@
         <v>362</v>
       </c>
       <c r="B794" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>4</v>
@@ -15978,13 +15966,13 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>129</v>
@@ -15995,13 +15983,13 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>129</v>
@@ -16012,13 +16000,13 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>129</v>
@@ -16029,13 +16017,13 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>129</v>
@@ -16046,13 +16034,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>129</v>
@@ -16063,13 +16051,13 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>129</v>
@@ -16080,13 +16068,13 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>129</v>
@@ -16097,10 +16085,10 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>57</v>
@@ -16114,10 +16102,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>56</v>
@@ -16131,10 +16119,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>57</v>
@@ -16148,10 +16136,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -16165,10 +16153,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16182,10 +16170,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16199,13 +16187,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16216,13 +16204,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16233,13 +16221,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16250,13 +16238,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16267,13 +16255,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16284,13 +16272,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16301,13 +16289,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16318,13 +16306,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16335,13 +16323,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16352,13 +16340,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16369,13 +16357,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16386,13 +16374,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16403,13 +16391,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16420,13 +16408,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16437,13 +16425,13 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>135</v>
@@ -16454,10 +16442,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16471,10 +16459,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16488,13 +16476,13 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>135</v>
@@ -16505,10 +16493,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16522,13 +16510,13 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
@@ -16539,13 +16527,13 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
@@ -16556,13 +16544,13 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
@@ -16573,13 +16561,13 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
@@ -16590,13 +16578,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16607,13 +16595,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16624,13 +16612,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16641,13 +16629,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16658,13 +16646,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16675,13 +16663,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16692,13 +16680,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16709,13 +16697,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16726,13 +16714,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16743,13 +16731,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16760,13 +16748,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16777,13 +16765,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16794,13 +16782,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16811,13 +16799,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16828,13 +16816,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16845,13 +16833,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16862,13 +16850,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16879,13 +16867,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
@@ -16896,13 +16884,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16913,13 +16901,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16930,13 +16918,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16947,13 +16935,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
@@ -16964,13 +16952,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
@@ -16981,13 +16969,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
@@ -16998,13 +16986,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>148</v>
@@ -17015,7 +17003,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17032,7 +17020,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17049,13 +17037,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17066,13 +17054,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17083,13 +17071,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17100,13 +17088,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17117,13 +17105,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -17134,13 +17122,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17151,13 +17139,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -17168,13 +17156,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17185,13 +17173,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17202,13 +17190,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
@@ -17219,13 +17207,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17236,10 +17224,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17253,10 +17241,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17270,7 +17258,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>78</v>
@@ -17287,7 +17275,7 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>79</v>
@@ -17304,7 +17292,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17321,10 +17309,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17338,10 +17326,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17355,7 +17343,7 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>94</v>
@@ -17372,7 +17360,7 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>96</v>
@@ -17389,13 +17377,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>40</v>
@@ -17406,13 +17394,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17423,13 +17411,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
@@ -17440,13 +17428,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B881" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C881" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C881" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
@@ -17457,13 +17445,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
@@ -17474,13 +17462,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
@@ -17491,13 +17479,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
@@ -17508,13 +17496,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
@@ -17525,13 +17513,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
@@ -17542,13 +17530,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -17559,13 +17547,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
@@ -17576,13 +17564,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -17593,13 +17581,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17610,10 +17598,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>4</v>
@@ -17627,47 +17615,47 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17678,13 +17666,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17695,13 +17683,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17712,13 +17700,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17729,13 +17717,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17746,13 +17734,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17763,13 +17751,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17780,13 +17768,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17797,13 +17785,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17814,13 +17802,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17831,13 +17819,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17848,10 +17836,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17865,10 +17853,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17882,13 +17870,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17899,10 +17887,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B908" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B908" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17916,10 +17904,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B909" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B909" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17933,13 +17921,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B910" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B910" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="C910" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17950,10 +17938,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -17967,10 +17955,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -17984,13 +17972,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -18001,10 +17989,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18018,10 +18006,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18035,13 +18023,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18052,10 +18040,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18069,10 +18057,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18086,13 +18074,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18103,10 +18091,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18120,13 +18108,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18137,13 +18125,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18154,27 +18142,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18188,10 +18176,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18205,13 +18193,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18222,13 +18210,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18239,13 +18227,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18256,13 +18244,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18273,13 +18261,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18290,13 +18278,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18307,13 +18295,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18324,10 +18312,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18341,10 +18329,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18358,13 +18346,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18375,13 +18363,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18392,13 +18380,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18409,13 +18397,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B938" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C938" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C938" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18426,13 +18414,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18443,13 +18431,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18460,13 +18448,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18477,13 +18465,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18494,13 +18482,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18511,13 +18499,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18528,13 +18516,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18545,13 +18533,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18562,13 +18550,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18579,13 +18567,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18596,13 +18584,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18613,13 +18601,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18630,13 +18618,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18647,13 +18635,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18664,13 +18652,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18681,13 +18669,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18698,13 +18686,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18715,13 +18703,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18732,13 +18720,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18749,13 +18737,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18766,13 +18754,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18783,13 +18771,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18800,13 +18788,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18817,13 +18805,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18834,13 +18822,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18851,13 +18839,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18868,13 +18856,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18885,13 +18873,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18902,13 +18890,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18919,13 +18907,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18936,13 +18924,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18953,13 +18941,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -18970,13 +18958,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -18987,13 +18975,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -19004,10 +18992,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>4</v>
@@ -19021,10 +19009,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19038,10 +19026,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19055,10 +19043,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19072,10 +19060,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19089,10 +19077,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19106,13 +19094,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B979" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19123,13 +19111,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19140,13 +19128,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19157,13 +19145,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19174,13 +19162,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19191,13 +19179,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19208,13 +19196,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19225,13 +19213,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19242,13 +19230,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19259,13 +19247,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19276,13 +19264,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19293,10 +19281,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B990" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19310,10 +19298,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B991" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19327,10 +19315,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19344,10 +19332,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19361,7 +19349,7 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>6</v>
@@ -19378,13 +19366,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19395,13 +19383,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B996" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19412,13 +19400,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19429,10 +19417,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19443,13 +19431,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19460,10 +19448,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19477,13 +19465,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19494,13 +19482,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19511,10 +19499,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19528,10 +19516,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19545,10 +19533,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19562,10 +19550,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1006" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19579,10 +19567,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19596,10 +19584,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19613,10 +19601,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19630,10 +19618,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1010" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19647,10 +19635,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1011" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19664,16 +19652,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1012" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1012" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C1012" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D1012" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19681,61 +19669,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1013" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1013" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C1013" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1013" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E1013" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1014" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1014" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C1014" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1014" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E1014" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1015" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1015" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C1015" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D1015" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E1015" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>
@@ -19749,10 +19737,10 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1017" s="1">
         <v>0</v>
@@ -19766,10 +19754,10 @@
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1018" s="1">
         <v>1</v>
@@ -19783,10 +19771,10 @@
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1019" s="1">
         <v>2</v>
@@ -19800,10 +19788,10 @@
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1020" s="1">
         <v>3</v>
@@ -19817,10 +19805,10 @@
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1021" s="1">
         <v>4</v>
@@ -19834,10 +19822,10 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1022" s="1">
         <v>0</v>
@@ -19851,10 +19839,10 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1023" s="1">
         <v>1</v>
@@ -19868,10 +19856,10 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1024" s="1">
         <v>2</v>
@@ -19885,10 +19873,10 @@
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1025" s="1">
         <v>3</v>
@@ -19902,10 +19890,10 @@
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1026" s="1">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -245,6 +245,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A973" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>David Ory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+START HERE. Above variables in yellow need to be added to the data.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1515,9 +1539,6 @@
     <t>Used Uber or similar service</t>
   </si>
   <si>
-    <t>ACCESS_MODE</t>
-  </si>
-  <si>
     <t>WENT2SCHL_B4_TRIP</t>
   </si>
   <si>
@@ -1611,9 +1632,6 @@
     <t>HOME_LANG_OTHER</t>
   </si>
   <si>
-    <t>ORIGIN_PLACE_TYPE</t>
-  </si>
-  <si>
     <t>Your usual WORKPLACE</t>
   </si>
   <si>
@@ -1659,9 +1677,6 @@
     <t>Airport (airline passengers only)</t>
   </si>
   <si>
-    <t>DESTIN_PLACE_TYPE</t>
-  </si>
-  <si>
     <t>Very well</t>
   </si>
   <si>
@@ -1848,9 +1863,6 @@
     <t>None (0)</t>
   </si>
   <si>
-    <t>COUNT_EMPLOYED_HH</t>
-  </si>
-  <si>
     <t>GO2SCHL_AFTR_TRIP</t>
   </si>
   <si>
@@ -1893,9 +1905,6 @@
     <t>Not employed</t>
   </si>
   <si>
-    <t>SF Muni Pilot</t>
-  </si>
-  <si>
     <t>AM_INDIAN_ALASKA_NAT</t>
   </si>
   <si>
@@ -1941,9 +1950,6 @@
     <t>ALIGHTING_LON</t>
   </si>
   <si>
-    <t>EGRESS_MODE</t>
-  </si>
-  <si>
     <t>GENDER</t>
   </si>
   <si>
@@ -1984,13 +1990,31 @@
   </si>
   <si>
     <t>PREV_TRANSFERS_CODE</t>
+  </si>
+  <si>
+    <t>SF Muni Early Tranche</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_ACCESS_MODE</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_DESTIN_TYPE_PLACE</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_EGRESS_MODE</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_COUNT_EMPLOYED_HH</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_ORIGIN_TYPE_PLACE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2041,8 +2065,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,6 +2095,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2078,7 +2127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2107,6 +2156,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2453,14 +2509,14 @@
   <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B790" sqref="B790"/>
+      <pane ySplit="1" topLeftCell="A964" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B977" sqref="B977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
@@ -15816,7 +15872,7 @@
         <v>362</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>4</v>
@@ -15833,7 +15889,7 @@
         <v>362</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>4</v>
@@ -15850,7 +15906,7 @@
         <v>362</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>4</v>
@@ -15867,7 +15923,7 @@
         <v>362</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>4</v>
@@ -15966,10 +16022,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>414</v>
@@ -15983,10 +16039,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>415</v>
@@ -16000,10 +16056,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>416</v>
@@ -16017,10 +16073,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>417</v>
@@ -16034,10 +16090,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>418</v>
@@ -16051,10 +16107,10 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>419</v>
@@ -16068,10 +16124,10 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>420</v>
@@ -16085,10 +16141,10 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>57</v>
@@ -16102,10 +16158,10 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>56</v>
@@ -16119,10 +16175,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>57</v>
@@ -16136,10 +16192,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>56</v>
@@ -16153,10 +16209,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16170,10 +16226,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16187,13 +16243,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16204,13 +16260,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16221,13 +16277,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16238,13 +16294,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16255,13 +16311,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16272,13 +16328,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16289,13 +16345,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16306,13 +16362,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16323,13 +16379,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16340,13 +16396,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16357,13 +16413,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16374,13 +16430,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16391,13 +16447,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16408,13 +16464,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16425,13 +16481,13 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>135</v>
@@ -16442,10 +16498,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16459,10 +16515,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16476,10 +16532,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>417</v>
@@ -16493,10 +16549,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16510,13 +16566,13 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>135</v>
@@ -16527,13 +16583,13 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>135</v>
@@ -16544,13 +16600,13 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>135</v>
@@ -16561,13 +16617,13 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>135</v>
@@ -16578,13 +16634,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16595,13 +16651,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16612,13 +16668,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16629,13 +16685,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16646,13 +16702,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16663,13 +16719,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16680,13 +16736,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16697,13 +16753,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16714,13 +16770,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16731,13 +16787,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16748,13 +16804,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16765,13 +16821,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16782,13 +16838,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16799,13 +16855,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16816,13 +16872,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16833,13 +16889,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16850,13 +16906,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16867,13 +16923,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>148</v>
@@ -16884,13 +16940,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>148</v>
@@ -16901,13 +16957,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>148</v>
@@ -16918,13 +16974,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>148</v>
@@ -16935,13 +16991,13 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>148</v>
@@ -16952,13 +17008,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>148</v>
@@ -16969,13 +17025,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>148</v>
@@ -16986,13 +17042,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>148</v>
@@ -17003,7 +17059,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17020,7 +17076,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17037,13 +17093,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17054,13 +17110,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17071,13 +17127,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17088,13 +17144,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17105,13 +17161,13 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
@@ -17122,13 +17178,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17139,13 +17195,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
@@ -17156,13 +17212,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17173,13 +17229,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17190,13 +17246,13 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
@@ -17207,13 +17263,13 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17224,10 +17280,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17241,10 +17297,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17258,7 +17314,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>78</v>
@@ -17275,7 +17331,7 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>79</v>
@@ -17292,7 +17348,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17309,10 +17365,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17326,10 +17382,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17343,16 +17399,16 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>94</v>
+        <v>472</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E876" s="1" t="s">
         <v>4</v>
@@ -17360,16 +17416,16 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E877" s="1" t="s">
         <v>4</v>
@@ -17377,217 +17433,217 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>453</v>
+        <v>96</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>454</v>
+        <v>4</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B880" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C880" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C880" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17598,64 +17654,64 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17666,13 +17722,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17683,13 +17739,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17700,13 +17756,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17717,13 +17773,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17734,13 +17790,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17751,13 +17807,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17768,13 +17824,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17785,13 +17841,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17802,13 +17858,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17819,13 +17875,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17836,10 +17892,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17853,10 +17909,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17870,13 +17926,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17887,10 +17943,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17904,10 +17960,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17921,13 +17977,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17938,10 +17994,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -17955,10 +18011,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -17972,13 +18028,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -17989,10 +18045,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18006,10 +18062,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18023,13 +18079,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18040,10 +18096,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B917" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B917" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18057,10 +18113,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B918" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B918" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18074,13 +18130,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B919" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B919" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="C919" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18091,10 +18147,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18108,13 +18164,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18125,13 +18181,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18142,27 +18198,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18176,10 +18232,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18193,13 +18249,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18210,13 +18266,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18227,13 +18283,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18244,13 +18300,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18261,13 +18317,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18278,13 +18334,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18295,13 +18351,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18312,10 +18368,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>540</v>
+        <v>572</v>
+      </c>
+      <c r="B933" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18329,10 +18385,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>541</v>
+        <v>572</v>
+      </c>
+      <c r="B934" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18346,13 +18402,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18363,13 +18419,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18380,13 +18436,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B937" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C937" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C937" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18397,13 +18453,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18414,13 +18470,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18431,13 +18487,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18448,13 +18504,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18465,13 +18521,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18482,13 +18538,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18499,13 +18555,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18516,13 +18572,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18533,13 +18589,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18550,13 +18606,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18567,13 +18623,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18584,13 +18640,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18601,13 +18657,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18618,13 +18674,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18635,13 +18691,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18652,13 +18708,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18669,13 +18725,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18686,13 +18742,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18703,13 +18759,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18720,13 +18776,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18737,13 +18793,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18754,13 +18810,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18771,13 +18827,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18788,13 +18844,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18805,13 +18861,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18822,13 +18878,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18839,13 +18895,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18856,13 +18912,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18873,13 +18929,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18890,13 +18946,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18907,13 +18963,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18924,13 +18980,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18941,13 +18997,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -18958,13 +19014,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -18975,13 +19031,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -18990,29 +19046,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A973" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B973" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C973" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D973" s="1" t="s">
+    <row r="973" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B973" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C973" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E973" s="1" t="s">
+      <c r="E973" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19026,10 +19082,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19043,10 +19099,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19060,10 +19116,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19077,10 +19133,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19094,13 +19150,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B979" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19111,13 +19167,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19128,13 +19184,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19145,13 +19201,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19162,13 +19218,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19179,13 +19235,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19196,13 +19252,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19213,13 +19269,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19230,13 +19286,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19247,13 +19303,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19264,13 +19320,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19281,10 +19337,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B990" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19298,10 +19354,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B991" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19315,10 +19371,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19332,10 +19388,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19349,7 +19405,7 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>6</v>
@@ -19366,13 +19422,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19383,13 +19439,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B996" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19400,13 +19456,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19417,10 +19473,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19431,13 +19487,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19448,10 +19504,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19465,13 +19521,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19482,13 +19538,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19499,10 +19555,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19516,10 +19572,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19533,10 +19589,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19550,10 +19606,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1006" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19567,10 +19623,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19584,10 +19640,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19601,10 +19657,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19618,10 +19674,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1010" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19635,10 +19691,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1011" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19652,16 +19708,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1012" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1012" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="D1012" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19669,61 +19725,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1013" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1013" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="D1013" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E1013" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1014" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1014" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C1014" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="D1014" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E1014" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>
@@ -19737,10 +19793,10 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C1017" s="1">
         <v>0</v>
@@ -19754,10 +19810,10 @@
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C1018" s="1">
         <v>1</v>
@@ -19771,10 +19827,10 @@
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C1019" s="1">
         <v>2</v>
@@ -19788,10 +19844,10 @@
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C1020" s="1">
         <v>3</v>
@@ -19805,10 +19861,10 @@
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C1021" s="1">
         <v>4</v>
@@ -19822,10 +19878,10 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1022" s="1">
         <v>0</v>
@@ -19839,10 +19895,10 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1023" s="1">
         <v>1</v>
@@ -19856,10 +19912,10 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1024" s="1">
         <v>2</v>
@@ -19873,10 +19929,10 @@
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1025" s="1">
         <v>3</v>
@@ -19890,10 +19946,10 @@
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1026" s="1">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -245,36 +245,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A973" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>David Ory:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-START HERE. Above variables in yellow need to be added to the data.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="580">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -1590,39 +1566,6 @@
     <t>FARE_CATEGORY</t>
   </si>
   <si>
-    <t>Under $10,000</t>
-  </si>
-  <si>
-    <t>$10,000 to $24,999</t>
-  </si>
-  <si>
-    <t>$25,000 to $34,999</t>
-  </si>
-  <si>
-    <t>$35,000 - $49,999</t>
-  </si>
-  <si>
-    <t>$50,000 - $64,999</t>
-  </si>
-  <si>
-    <t>$65,000 - $74,999</t>
-  </si>
-  <si>
-    <t>$75,000 - $84,999</t>
-  </si>
-  <si>
-    <t>$85,000 - $99,999</t>
-  </si>
-  <si>
-    <t>$100,000 - $124,999</t>
-  </si>
-  <si>
-    <t>$125,000 - $149,999</t>
-  </si>
-  <si>
-    <t>$150,000 OR OVER</t>
-  </si>
-  <si>
     <t>INCOME</t>
   </si>
   <si>
@@ -1866,15 +1809,6 @@
     <t>GO2SCHL_AFTR_TRIP</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Callback</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>SPANI</t>
   </si>
   <si>
@@ -1986,12 +1920,6 @@
     <t>LAST_ALIGHT_LON</t>
   </si>
   <si>
-    <t>NEXT_TRANSFERS_CODE</t>
-  </si>
-  <si>
-    <t>PREV_TRANSFERS_CODE</t>
-  </si>
-  <si>
     <t>SF Muni Early Tranche</t>
   </si>
   <si>
@@ -2008,13 +1936,67 @@
   </si>
   <si>
     <t>FINAL_SUGGESTED_ORIGIN_TYPE_PLACE</t>
+  </si>
+  <si>
+    <t>SURVEY_METHOD</t>
+  </si>
+  <si>
+    <t>FIRST_TRANSIT_BOARDING_LAT</t>
+  </si>
+  <si>
+    <t>FIRST_TRANSIT_BOARDING_LON</t>
+  </si>
+  <si>
+    <t>FINAL_TRANSIT_ALIGHTING_LAT</t>
+  </si>
+  <si>
+    <t>FINAL_TRANSIT_ALIGHTING_LON</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_NEXT_TRANSFERS_CODE</t>
+  </si>
+  <si>
+    <t>FINAL_SUGGESTED_PREV_TRANSFERS_CODE</t>
+  </si>
+  <si>
+    <t>$40,000-$49,999</t>
+  </si>
+  <si>
+    <t>Less than $10,000</t>
+  </si>
+  <si>
+    <t>$10,000-$24,999</t>
+  </si>
+  <si>
+    <t>$25,000-$34,999</t>
+  </si>
+  <si>
+    <t>$35,000-$39,999</t>
+  </si>
+  <si>
+    <t>$50,000-$59,999</t>
+  </si>
+  <si>
+    <t>$60,000-$74,999</t>
+  </si>
+  <si>
+    <t>$75,000-$99,999</t>
+  </si>
+  <si>
+    <t>$100,000-$149,999</t>
+  </si>
+  <si>
+    <t>$150,000-$199,999</t>
+  </si>
+  <si>
+    <t>$200,000 or more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2065,21 +2047,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2095,18 +2064,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,7 +2084,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2156,13 +2113,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2509,8 +2459,8 @@
   <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A964" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B977" sqref="B977"/>
+      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E858" sqref="E858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15872,7 +15822,7 @@
         <v>362</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>4</v>
@@ -15889,7 +15839,7 @@
         <v>362</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>4</v>
@@ -15906,7 +15856,7 @@
         <v>362</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>4</v>
@@ -15923,7 +15873,7 @@
         <v>362</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>4</v>
@@ -16022,10 +15972,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>414</v>
@@ -16039,10 +15989,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>415</v>
@@ -16056,10 +16006,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>416</v>
@@ -16073,10 +16023,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>417</v>
@@ -16090,10 +16040,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>418</v>
@@ -16107,10 +16057,10 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>419</v>
@@ -16124,10 +16074,10 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>420</v>
@@ -16141,7 +16091,7 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>421</v>
@@ -16158,7 +16108,7 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>421</v>
@@ -16175,7 +16125,7 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>422</v>
@@ -16192,7 +16142,7 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>422</v>
@@ -16209,10 +16159,10 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>4</v>
@@ -16226,10 +16176,10 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>4</v>
@@ -16243,13 +16193,13 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>52</v>
@@ -16260,13 +16210,13 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>52</v>
@@ -16277,13 +16227,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>52</v>
@@ -16294,13 +16244,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>52</v>
@@ -16311,13 +16261,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>52</v>
@@ -16328,13 +16278,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>52</v>
@@ -16345,13 +16295,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>52</v>
@@ -16362,13 +16312,13 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>52</v>
@@ -16379,13 +16329,13 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>52</v>
@@ -16396,13 +16346,13 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>52</v>
@@ -16413,13 +16363,13 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>52</v>
@@ -16430,13 +16380,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>52</v>
@@ -16447,13 +16397,13 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>52</v>
@@ -16464,13 +16414,13 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>52</v>
@@ -16481,10 +16431,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>423</v>
@@ -16498,10 +16448,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>50</v>
@@ -16515,10 +16465,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>50</v>
@@ -16532,10 +16482,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>417</v>
@@ -16549,10 +16499,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>50</v>
@@ -16566,10 +16516,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>424</v>
@@ -16583,10 +16533,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>425</v>
@@ -16600,10 +16550,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>426</v>
@@ -16617,10 +16567,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>427</v>
@@ -16634,13 +16584,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>249</v>
@@ -16651,13 +16601,13 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>249</v>
@@ -16668,13 +16618,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>16</v>
@@ -16685,13 +16635,13 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>16</v>
@@ -16702,13 +16652,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -16719,13 +16669,13 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -16736,13 +16686,13 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -16753,13 +16703,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>16</v>
@@ -16770,13 +16720,13 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>16</v>
@@ -16787,13 +16737,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>16</v>
@@ -16804,13 +16754,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -16821,13 +16771,13 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -16838,13 +16788,13 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -16855,13 +16805,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>244</v>
@@ -16872,13 +16822,13 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>244</v>
@@ -16889,13 +16839,13 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>244</v>
@@ -16906,13 +16856,13 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>244</v>
@@ -16923,7 +16873,7 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>437</v>
@@ -16940,7 +16890,7 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>437</v>
@@ -16957,7 +16907,7 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>437</v>
@@ -16974,7 +16924,7 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>437</v>
@@ -16991,7 +16941,7 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>437</v>
@@ -17008,7 +16958,7 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>437</v>
@@ -17025,7 +16975,7 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>437</v>
@@ -17042,7 +16992,7 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>437</v>
@@ -17059,7 +17009,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>274</v>
@@ -17076,7 +17026,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>274</v>
@@ -17093,13 +17043,13 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>438</v>
+        <v>570</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>225</v>
@@ -17110,13 +17060,13 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>439</v>
+        <v>571</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>225</v>
@@ -17127,13 +17077,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C860" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B860" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C860" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>225</v>
@@ -17144,13 +17094,13 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>441</v>
+        <v>573</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>225</v>
@@ -17161,30 +17111,30 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>442</v>
+        <v>569</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>443</v>
+        <v>574</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>225</v>
@@ -17195,30 +17145,30 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>445</v>
+        <v>576</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>225</v>
@@ -17229,13 +17179,13 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>446</v>
+        <v>577</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>225</v>
@@ -17246,30 +17196,30 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>225</v>
@@ -17280,10 +17230,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>57</v>
@@ -17297,10 +17247,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>56</v>
@@ -17314,7 +17264,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>78</v>
@@ -17331,7 +17281,7 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>79</v>
@@ -17348,7 +17298,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>5</v>
@@ -17365,10 +17315,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>57</v>
@@ -17382,10 +17332,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>56</v>
@@ -17399,10 +17349,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>4</v>
@@ -17416,7 +17366,7 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>94</v>
@@ -17433,7 +17383,7 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>96</v>
@@ -17450,13 +17400,13 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>40</v>
@@ -17467,13 +17417,13 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>40</v>
@@ -17484,13 +17434,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>40</v>
@@ -17501,13 +17451,13 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>40</v>
@@ -17518,13 +17468,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>40</v>
@@ -17535,13 +17485,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>40</v>
@@ -17552,13 +17502,13 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>40</v>
@@ -17569,13 +17519,13 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>40</v>
@@ -17586,13 +17536,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>40</v>
@@ -17603,13 +17553,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>40</v>
@@ -17620,13 +17570,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>40</v>
@@ -17637,13 +17587,13 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>40</v>
@@ -17654,13 +17604,13 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>40</v>
@@ -17671,47 +17621,47 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>139</v>
@@ -17722,13 +17672,13 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>37</v>
@@ -17739,13 +17689,13 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>37</v>
@@ -17756,13 +17706,13 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>37</v>
@@ -17773,13 +17723,13 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>37</v>
@@ -17790,13 +17740,13 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>37</v>
@@ -17807,13 +17757,13 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>37</v>
@@ -17824,13 +17774,13 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>37</v>
@@ -17841,13 +17791,13 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>37</v>
@@ -17858,13 +17808,13 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>37</v>
@@ -17875,13 +17825,13 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>37</v>
@@ -17892,10 +17842,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>56</v>
@@ -17909,10 +17859,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>57</v>
@@ -17926,13 +17876,13 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>160</v>
@@ -17943,10 +17893,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>56</v>
@@ -17960,10 +17910,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>57</v>
@@ -17977,13 +17927,13 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>162</v>
@@ -17994,10 +17944,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>56</v>
@@ -18011,10 +17961,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>57</v>
@@ -18028,13 +17978,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>164</v>
@@ -18045,10 +17995,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>56</v>
@@ -18062,10 +18012,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>57</v>
@@ -18079,13 +18029,13 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>166</v>
@@ -18096,10 +18046,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>56</v>
@@ -18113,10 +18063,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>57</v>
@@ -18130,13 +18080,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>168</v>
@@ -18147,10 +18097,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>4</v>
@@ -18164,13 +18114,13 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>236</v>
@@ -18181,13 +18131,13 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>236</v>
@@ -18198,27 +18148,27 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>4</v>
@@ -18232,10 +18182,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>4</v>
@@ -18249,13 +18199,13 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>60</v>
@@ -18266,13 +18216,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>60</v>
@@ -18283,13 +18233,13 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>60</v>
@@ -18300,13 +18250,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>60</v>
@@ -18317,13 +18267,13 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>60</v>
@@ -18334,13 +18284,13 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D931" s="1" t="s">
         <v>60</v>
@@ -18351,13 +18301,13 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D932" s="1" t="s">
         <v>60</v>
@@ -18368,10 +18318,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B933" s="12" t="s">
-        <v>536</v>
+        <v>556</v>
+      </c>
+      <c r="B933" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>4</v>
@@ -18385,10 +18335,10 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B934" s="12" t="s">
-        <v>537</v>
+        <v>556</v>
+      </c>
+      <c r="B934" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>4</v>
@@ -18402,13 +18352,13 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>251</v>
@@ -18419,13 +18369,13 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>251</v>
@@ -18436,13 +18386,13 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>251</v>
@@ -18453,13 +18403,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>251</v>
@@ -18470,13 +18420,13 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>251</v>
@@ -18487,13 +18437,13 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>251</v>
@@ -18504,13 +18454,13 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>251</v>
@@ -18521,13 +18471,13 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>251</v>
@@ -18538,13 +18488,13 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>251</v>
@@ -18555,13 +18505,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>251</v>
@@ -18572,13 +18522,13 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B945" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C945" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C945" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>251</v>
@@ -18589,13 +18539,13 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>251</v>
@@ -18606,13 +18556,13 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>251</v>
@@ -18623,13 +18573,13 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>251</v>
@@ -18640,13 +18590,13 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>251</v>
@@ -18657,13 +18607,13 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>251</v>
@@ -18674,13 +18624,13 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>251</v>
@@ -18691,13 +18641,13 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>251</v>
@@ -18708,13 +18658,13 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B953" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>253</v>
@@ -18725,13 +18675,13 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B954" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>253</v>
@@ -18742,13 +18692,13 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B955" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>253</v>
@@ -18759,13 +18709,13 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B956" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>253</v>
@@ -18776,13 +18726,13 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B957" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>253</v>
@@ -18793,13 +18743,13 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B958" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>253</v>
@@ -18810,13 +18760,13 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B959" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>253</v>
@@ -18827,13 +18777,13 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B960" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>253</v>
@@ -18844,13 +18794,13 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B961" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>253</v>
@@ -18861,13 +18811,13 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B962" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>253</v>
@@ -18878,13 +18828,13 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B963" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>253</v>
@@ -18895,13 +18845,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B964" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>253</v>
@@ -18912,13 +18862,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B965" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>253</v>
@@ -18929,13 +18879,13 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B966" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>253</v>
@@ -18946,13 +18896,13 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B967" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>253</v>
@@ -18963,13 +18913,13 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B968" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>253</v>
@@ -18980,13 +18930,13 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B969" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>253</v>
@@ -18997,13 +18947,13 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B970" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D970" s="1" t="s">
         <v>253</v>
@@ -19014,13 +18964,13 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B971" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>253</v>
@@ -19031,13 +18981,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B972" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>253</v>
@@ -19046,29 +18996,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="973" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B973" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="C973" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D973" s="13" t="s">
+    <row r="973" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E973" s="13" t="s">
+      <c r="E973" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>4</v>
@@ -19082,10 +19032,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>4</v>
@@ -19099,10 +19049,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>4</v>
@@ -19116,10 +19066,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>4</v>
@@ -19133,10 +19083,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>4</v>
@@ -19150,13 +19100,13 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B979" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>9</v>
@@ -19167,13 +19117,13 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B980" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>9</v>
@@ -19184,13 +19134,13 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B981" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>9</v>
@@ -19201,13 +19151,13 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B982" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>9</v>
@@ -19218,13 +19168,13 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B983" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D983" s="1" t="s">
         <v>9</v>
@@ -19235,13 +19185,13 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B984" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D984" s="1" t="s">
         <v>9</v>
@@ -19252,13 +19202,13 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B985" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D985" s="1" t="s">
         <v>9</v>
@@ -19269,13 +19219,13 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B986" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D986" s="1" t="s">
         <v>9</v>
@@ -19286,13 +19236,13 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B987" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>9</v>
@@ -19303,13 +19253,13 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B988" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>9</v>
@@ -19320,13 +19270,13 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B989" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>9</v>
@@ -19337,10 +19287,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B990" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>57</v>
@@ -19354,10 +19304,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B991" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>56</v>
@@ -19371,10 +19321,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>4</v>
@@ -19388,10 +19338,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>4</v>
@@ -19405,7 +19355,7 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>6</v>
@@ -19422,13 +19372,13 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="D995" s="1" t="s">
         <v>284</v>
@@ -19439,13 +19389,13 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>530</v>
+        <v>396</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>284</v>
@@ -19456,13 +19406,13 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>532</v>
+        <v>397</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>284</v>
@@ -19473,10 +19423,10 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B998" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+      <c r="B998" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>291</v>
@@ -19487,13 +19437,13 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B999" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+      <c r="B999" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>291</v>
@@ -19504,10 +19454,10 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1000" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+      <c r="B1000" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>187</v>
@@ -19521,13 +19471,13 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1001" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+      <c r="B1001" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>291</v>
@@ -19538,13 +19488,13 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1002" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+      <c r="B1002" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>291</v>
@@ -19555,10 +19505,10 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>4</v>
@@ -19572,10 +19522,10 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>4</v>
@@ -19589,10 +19539,10 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>4</v>
@@ -19606,10 +19556,10 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1006" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>4</v>
@@ -19623,10 +19573,10 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1007" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
+      </c>
+      <c r="B1007" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>4</v>
@@ -19640,10 +19590,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>4</v>
@@ -19657,10 +19607,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>4</v>
@@ -19674,10 +19624,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1010" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>4</v>
@@ -19691,10 +19641,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1011" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>4</v>
@@ -19708,16 +19658,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>144</v>
@@ -19725,61 +19675,61 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E1013" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E1014" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1016" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1016" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C1016" s="5" t="s">
         <v>4</v>
@@ -19793,10 +19743,10 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C1017" s="1">
         <v>0</v>
@@ -19810,10 +19760,10 @@
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C1018" s="1">
         <v>1</v>
@@ -19827,10 +19777,10 @@
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C1019" s="1">
         <v>2</v>
@@ -19844,10 +19794,10 @@
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C1020" s="1">
         <v>3</v>
@@ -19861,10 +19811,10 @@
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C1021" s="1">
         <v>4</v>
@@ -19878,10 +19828,10 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C1022" s="1">
         <v>0</v>
@@ -19895,10 +19845,10 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C1023" s="1">
         <v>1</v>
@@ -19912,10 +19862,10 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C1024" s="1">
         <v>2</v>
@@ -19929,10 +19879,10 @@
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C1025" s="1">
         <v>3</v>
@@ -19946,10 +19896,10 @@
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C1026" s="1">
         <v>4</v>

--- a/make-uniform/production/Dictionary for Standard Database.xlsx
+++ b/make-uniform/production/Dictionary for Standard Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dory\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisrae.MTC\Documents\GitHub\onboard-surveys\make-uniform\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1374,12 +1374,6 @@
     <t>EMPLOYED_IN_HH_CODE</t>
   </si>
   <si>
-    <t>ENTERSTATION</t>
-  </si>
-  <si>
-    <t>EXITSTATION</t>
-  </si>
-  <si>
     <t>HOME_ADDRESS_LAT</t>
   </si>
   <si>
@@ -1990,6 +1984,12 @@
   </si>
   <si>
     <t>$200,000 or more</t>
+  </si>
+  <si>
+    <t>FIRST_ENTERED_BART</t>
+  </si>
+  <si>
+    <t>BART_EXIT_STATION</t>
   </si>
 </sst>
 </file>
@@ -2459,8 +2459,8 @@
   <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E858" sqref="E858"/>
+      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B640" sqref="B640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13255,7 +13255,7 @@
         <v>362</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>362</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>375</v>
+        <v>579</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>4</v>
@@ -13289,7 +13289,7 @@
         <v>362</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C637" s="7">
         <v>1</v>
@@ -13306,7 +13306,7 @@
         <v>362</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C638" s="7">
         <v>2</v>
@@ -13323,7 +13323,7 @@
         <v>362</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C639" s="7">
         <v>3</v>
@@ -13340,7 +13340,7 @@
         <v>362</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C640" s="7">
         <v>4</v>
@@ -13357,7 +13357,7 @@
         <v>362</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C641" s="7">
         <v>1</v>
@@ -13374,7 +13374,7 @@
         <v>362</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C642" s="7">
         <v>2</v>
@@ -13391,7 +13391,7 @@
         <v>362</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C643" s="7">
         <v>3</v>
@@ -13408,7 +13408,7 @@
         <v>362</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C644" s="7">
         <v>4</v>
@@ -13425,7 +13425,7 @@
         <v>362</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C645" s="7">
         <v>5</v>
@@ -13442,7 +13442,7 @@
         <v>362</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C646" s="7">
         <v>6</v>
@@ -13459,7 +13459,7 @@
         <v>362</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C647" s="7">
         <v>7</v>
@@ -13683,7 +13683,7 @@
         <v>153</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D660" s="7" t="s">
         <v>156</v>
@@ -13700,7 +13700,7 @@
         <v>153</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D661" s="7" t="s">
         <v>156</v>
@@ -13714,7 +13714,7 @@
         <v>362</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>4</v>
@@ -13731,7 +13731,7 @@
         <v>362</v>
       </c>
       <c r="B663" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>4</v>
@@ -13799,7 +13799,7 @@
         <v>362</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>4</v>
@@ -13816,7 +13816,7 @@
         <v>362</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>4</v>
@@ -13833,7 +13833,7 @@
         <v>362</v>
       </c>
       <c r="B669" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C669" s="7">
         <v>1</v>
@@ -13850,7 +13850,7 @@
         <v>362</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C670" s="7">
         <v>2</v>
@@ -13867,7 +13867,7 @@
         <v>362</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C671" s="7">
         <v>3</v>
@@ -13884,7 +13884,7 @@
         <v>362</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C672" s="7">
         <v>4</v>
@@ -13901,7 +13901,7 @@
         <v>362</v>
       </c>
       <c r="B673" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C673" s="7">
         <v>5</v>
@@ -13918,7 +13918,7 @@
         <v>362</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C674" s="7">
         <v>6</v>
@@ -13935,7 +13935,7 @@
         <v>362</v>
       </c>
       <c r="B675" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C675" s="7">
         <v>7</v>
@@ -13952,7 +13952,7 @@
         <v>362</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C676" s="7">
         <v>8</v>
@@ -13969,7 +13969,7 @@
         <v>362</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C677" s="7">
         <v>9</v>
@@ -13986,7 +13986,7 @@
         <v>362</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C678" s="7">
         <v>10</v>
@@ -14003,7 +14003,7 @@
         <v>362</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C679" s="7">
         <v>11</v>
@@ -14020,7 +14020,7 @@
         <v>362</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C680" s="7">
         <v>12</v>
@@ -14037,7 +14037,7 @@
         <v>362</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C681" s="7">
         <v>13</v>
@@ -14054,7 +14054,7 @@
         <v>362</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C682" s="7">
         <v>14</v>
@@ -14071,7 +14071,7 @@
         <v>362</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C683" s="7">
         <v>15</v>
@@ -14088,7 +14088,7 @@
         <v>362</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C684" s="7">
         <v>16</v>
@@ -14105,7 +14105,7 @@
         <v>362</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C685" s="7">
         <v>17</v>
@@ -14122,7 +14122,7 @@
         <v>362</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C686" s="7" t="s">
         <v>4</v>
@@ -14139,7 +14139,7 @@
         <v>362</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C687" s="7">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>362</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C688" s="7">
         <v>2</v>
@@ -14165,7 +14165,7 @@
         <v>139</v>
       </c>
       <c r="E688" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -14173,7 +14173,7 @@
         <v>362</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C689" s="7">
         <v>3</v>
@@ -14190,7 +14190,7 @@
         <v>362</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C690" s="7">
         <v>4</v>
@@ -14207,7 +14207,7 @@
         <v>362</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C691" s="7">
         <v>5</v>
@@ -14530,7 +14530,7 @@
         <v>362</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>4</v>
@@ -14615,7 +14615,7 @@
         <v>362</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C715" s="7" t="s">
         <v>4</v>
@@ -14632,7 +14632,7 @@
         <v>362</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C716" s="7" t="s">
         <v>4</v>
@@ -14683,7 +14683,7 @@
         <v>362</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C719" s="7" t="s">
         <v>4</v>
@@ -14700,7 +14700,7 @@
         <v>362</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C720" s="7" t="s">
         <v>4</v>
@@ -14717,7 +14717,7 @@
         <v>362</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C721" s="7">
         <v>1</v>
@@ -14734,7 +14734,7 @@
         <v>362</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C722" s="7">
         <v>2</v>
@@ -14751,7 +14751,7 @@
         <v>362</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C723" s="7">
         <v>3</v>
@@ -14768,7 +14768,7 @@
         <v>362</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C724" s="7">
         <v>4</v>
@@ -14785,7 +14785,7 @@
         <v>362</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C725" s="7">
         <v>5</v>
@@ -14802,7 +14802,7 @@
         <v>362</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C726" s="7">
         <v>6</v>
@@ -14819,7 +14819,7 @@
         <v>362</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C727" s="7">
         <v>7</v>
@@ -14836,7 +14836,7 @@
         <v>362</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C728" s="7">
         <v>8</v>
@@ -14853,7 +14853,7 @@
         <v>362</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C729" s="7">
         <v>9</v>
@@ -14870,7 +14870,7 @@
         <v>362</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C730" s="7">
         <v>10</v>
@@ -14887,7 +14887,7 @@
         <v>362</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C731" s="7">
         <v>11</v>
@@ -14904,7 +14904,7 @@
         <v>362</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C732" s="7">
         <v>12</v>
@@ -14921,7 +14921,7 @@
         <v>362</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C733" s="7">
         <v>13</v>
@@ -14938,7 +14938,7 @@
         <v>362</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C734" s="7">
         <v>14</v>
@@ -14955,7 +14955,7 @@
         <v>362</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C735" s="7">
         <v>15</v>
@@ -14972,7 +14972,7 @@
         <v>362</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C736" s="7">
         <v>16</v>
@@ -14989,7 +14989,7 @@
         <v>362</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C737" s="7">
         <v>17</v>
@@ -15006,7 +15006,7 @@
         <v>362</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C738" s="7">
         <v>18</v>
@@ -15023,7 +15023,7 @@
         <v>362</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C739" s="7">
         <v>19</v>
@@ -15040,7 +15040,7 @@
         <v>362</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C740" s="7">
         <v>20</v>
@@ -15057,7 +15057,7 @@
         <v>362</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C741" s="7">
         <v>1</v>
@@ -15074,7 +15074,7 @@
         <v>362</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C742" s="7">
         <v>2</v>
@@ -15091,7 +15091,7 @@
         <v>362</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C743" s="7">
         <v>3</v>
@@ -15108,7 +15108,7 @@
         <v>362</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C744" s="7">
         <v>4</v>
@@ -15125,7 +15125,7 @@
         <v>362</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C745" s="7">
         <v>5</v>
@@ -15142,7 +15142,7 @@
         <v>362</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C746" s="7">
         <v>6</v>
@@ -15159,7 +15159,7 @@
         <v>362</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C747" s="7">
         <v>7</v>
@@ -15176,7 +15176,7 @@
         <v>362</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C748" s="7">
         <v>8</v>
@@ -15193,7 +15193,7 @@
         <v>362</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C749" s="7">
         <v>9</v>
@@ -15210,7 +15210,7 @@
         <v>362</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C750" s="7">
         <v>10</v>
@@ -15227,7 +15227,7 @@
         <v>362</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C751" s="7">
         <v>11</v>
@@ -15244,7 +15244,7 @@
         <v>362</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C752" s="7">
         <v>12</v>
@@ -15261,7 +15261,7 @@
         <v>362</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C753" s="7">
         <v>13</v>
@@ -15278,7 +15278,7 @@
         <v>362</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C754" s="7">
         <v>14</v>
@@ -15295,7 +15295,7 @@
         <v>362</v>
       </c>
       <c r="B755" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C755" s="7">
         <v>15</v>
@@ -15312,7 +15312,7 @@
         <v>362</v>
       </c>
       <c r="B756" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C756" s="7">
         <v>16</v>
@@ -15329,7 +15329,7 @@
         <v>362</v>
       </c>
       <c r="B757" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C757" s="7">
         <v>17</v>
@@ -15346,7 +15346,7 @@
         <v>362</v>
       </c>
       <c r="B758" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C758" s="7">
         <v>18</v>
@@ -15363,7 +15363,7 @@
         <v>362</v>
       </c>
       <c r="B759" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C759" s="7">
         <v>19</v>
@@ -15380,7 +15380,7 @@
         <v>362</v>
       </c>
       <c r="B760" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C760" s="7">
         <v>20</v>
@@ -15397,7 +15397,7 @@
         <v>362</v>
       </c>
       <c r="B761" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C761" s="7" t="s">
         <v>4</v>
@@ -15414,7 +15414,7 @@
         <v>362</v>
       </c>
       <c r="B762" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C762" s="7" t="s">
         <v>4</v>
@@ -15431,7 +15431,7 @@
         <v>362</v>
       </c>
       <c r="B763" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C763" s="7" t="s">
         <v>4</v>
@@ -15448,7 +15448,7 @@
         <v>362</v>
       </c>
       <c r="B764" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C764" s="7" t="s">
         <v>4</v>
@@ -15465,7 +15465,7 @@
         <v>362</v>
       </c>
       <c r="B765" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C765" s="7" t="s">
         <v>4</v>
@@ -15482,7 +15482,7 @@
         <v>362</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C766" s="7" t="s">
         <v>4</v>
@@ -15618,7 +15618,7 @@
         <v>362</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>4</v>
@@ -15635,7 +15635,7 @@
         <v>362</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>4</v>
@@ -15669,10 +15669,10 @@
         <v>362</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D777" s="7" t="s">
         <v>284</v>
@@ -15686,10 +15686,10 @@
         <v>362</v>
       </c>
       <c r="B778" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C778" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="C778" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="D778" s="7" t="s">
         <v>284</v>
@@ -15703,10 +15703,10 @@
         <v>362</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
   